--- a/data_clean/Tomra Systems 21.12.2020.xlsx
+++ b/data_clean/Tomra Systems 21.12.2020.xlsx
@@ -1530,7 +1530,7 @@
         <v>0.8608224709478324</v>
       </c>
       <c r="K2">
-        <v>43.9558629574919</v>
+        <v>-0.06044137042508119</v>
       </c>
       <c r="L2">
         <v>-0.00803099554548351</v>
@@ -1560,13 +1560,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.1054303593366289</v>
@@ -1631,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1672,7 +1672,7 @@
         <v>0.3118908382066334</v>
       </c>
       <c r="K4">
-        <v>23.77414561664223</v>
+        <v>-0.2622585438335777</v>
       </c>
       <c r="L4">
         <v>-0.06636877749310481</v>
@@ -1702,13 +1702,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.999548050454004</v>
+        <v>-0.0004519495459960332</v>
       </c>
       <c r="V4">
-        <v>0.999548050454004</v>
+        <v>-0.0004519495459960332</v>
       </c>
       <c r="W4">
-        <v>1.001978728666832</v>
+        <v>0.001978728666831575</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1743,7 +1743,7 @@
         <v>1.460962347388932</v>
       </c>
       <c r="K5">
-        <v>59.36548964022165</v>
+        <v>0.09365489640221658</v>
       </c>
       <c r="L5">
         <v>-0.0257136466140481</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.001500328839197</v>
+        <v>0.001500328839197484</v>
       </c>
       <c r="V5">
-        <v>1.001500328839197</v>
+        <v>0.001500328839197484</v>
       </c>
       <c r="W5">
-        <v>1.006911873611454</v>
+        <v>0.006911873611453956</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1814,7 +1814,7 @@
         <v>0.9355689798854104</v>
       </c>
       <c r="K6">
-        <v>48.33560516870848</v>
+        <v>-0.01664394831291516</v>
       </c>
       <c r="L6">
         <v>-0.009441473057775943</v>
@@ -1844,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000258572923721</v>
+        <v>0.000258572923721001</v>
       </c>
       <c r="V6">
-        <v>1.000258572923721</v>
+        <v>0.000258572923721001</v>
       </c>
       <c r="W6">
-        <v>0.9968129443491053</v>
+        <v>-0.003187055650894721</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1885,7 +1885,7 @@
         <v>0.570252900079388</v>
       </c>
       <c r="K7">
-        <v>36.31599088596221</v>
+        <v>-0.1368400911403779</v>
       </c>
       <c r="L7">
         <v>-0.009485427414179459</v>
@@ -1915,13 +1915,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9992696177392618</v>
+        <v>-0.0007303822607381827</v>
       </c>
       <c r="V7">
-        <v>0.9992696177392618</v>
+        <v>-0.0007303822607381827</v>
       </c>
       <c r="W7">
-        <v>0.9945892769306443</v>
+        <v>-0.00541072306935575</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1956,7 +1956,7 @@
         <v>0.7010339226530593</v>
       </c>
       <c r="K8">
-        <v>41.21222471328934</v>
+        <v>-0.08787775286710653</v>
       </c>
       <c r="L8">
         <v>-0.01070666234760447</v>
@@ -1986,13 +1986,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9997242932815552</v>
+        <v>-0.0002757067184447903</v>
       </c>
       <c r="V8">
-        <v>0.9997242932815552</v>
+        <v>-0.0002757067184447903</v>
       </c>
       <c r="W8">
-        <v>1.001730959446093</v>
+        <v>0.001730959446093028</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2027,7 +2027,7 @@
         <v>0.6270440339665645</v>
       </c>
       <c r="K9">
-        <v>38.53884841935692</v>
+        <v>-0.1146115158064308</v>
       </c>
       <c r="L9">
         <v>-0.01318027264972451</v>
@@ -2057,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9996083298127024</v>
+        <v>-0.000391670187297577</v>
       </c>
       <c r="V9">
-        <v>0.9996083298127024</v>
+        <v>-0.000391670187297577</v>
       </c>
       <c r="W9">
-        <v>0.9985188842261169</v>
+        <v>-0.001481115773883102</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2098,7 +2098,7 @@
         <v>0.5838040448935046</v>
       </c>
       <c r="K10">
-        <v>36.86087598878179</v>
+        <v>-0.1313912401121821</v>
       </c>
       <c r="L10">
         <v>-0.01625006945845548</v>
@@ -2128,13 +2128,13 @@
         <v>-0.1944444444444571</v>
       </c>
       <c r="U10">
-        <v>0.9995856746141809</v>
+        <v>-0.0004143253858190921</v>
       </c>
       <c r="V10">
-        <v>0.9995856746141809</v>
+        <v>-0.0004143253858190921</v>
       </c>
       <c r="W10">
-        <v>0.9990111248454883</v>
+        <v>-0.0009888751545117369</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2169,7 +2169,7 @@
         <v>0.6745388567768905</v>
       </c>
       <c r="K11">
-        <v>40.28206655504104</v>
+        <v>-0.09717933444958959</v>
       </c>
       <c r="L11">
         <v>-0.01810902130197029</v>
@@ -2199,13 +2199,13 @@
         <v>-0.07250000000004775</v>
       </c>
       <c r="U11">
-        <v>0.9997917237599342</v>
+        <v>-0.0002082762400658078</v>
       </c>
       <c r="V11">
-        <v>0.9997917237599342</v>
+        <v>-0.0002082762400658078</v>
       </c>
       <c r="W11">
-        <v>1.001237317495669</v>
+        <v>0.001237317495669465</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2240,7 +2240,7 @@
         <v>0.8273553820541635</v>
       </c>
       <c r="K12">
-        <v>45.27610721917257</v>
+        <v>-0.04723892780827432</v>
       </c>
       <c r="L12">
         <v>-0.01790038807472915</v>
@@ -2270,13 +2270,13 @@
         <v>-0.03863636363638534</v>
       </c>
       <c r="U12">
-        <v>1.000008970701688</v>
+        <v>8.970701688371108E-06</v>
       </c>
       <c r="V12">
-        <v>1.000008970701688</v>
+        <v>8.970701688371108E-06</v>
       </c>
       <c r="W12">
-        <v>1.001977261492832</v>
+        <v>0.001977261492832394</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2311,7 +2311,7 @@
         <v>1.068644632491986</v>
       </c>
       <c r="K13">
-        <v>51.65916927958025</v>
+        <v>0.01659169279580253</v>
       </c>
       <c r="L13">
         <v>-0.01503448347514539</v>
@@ -2341,13 +2341,13 @@
         <v>-0.3041666666667311</v>
       </c>
       <c r="U13">
-        <v>1.000254167601107</v>
+        <v>0.0002541676011065253</v>
       </c>
       <c r="V13">
-        <v>1.000254167601107</v>
+        <v>0.0002541676011065253</v>
       </c>
       <c r="W13">
-        <v>1.002960039467193</v>
+        <v>0.002960039467192921</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2382,7 +2382,7 @@
         <v>1.004840126954438</v>
       </c>
       <c r="K14">
-        <v>50.12071104546851</v>
+        <v>0.001207110454685134</v>
       </c>
       <c r="L14">
         <v>-0.01153183290344955</v>
@@ -2412,13 +2412,13 @@
         <v>-0.4057692307691809</v>
       </c>
       <c r="U14">
-        <v>1.000158095768092</v>
+        <v>0.0001580957680922257</v>
       </c>
       <c r="V14">
-        <v>1.000158095768092</v>
+        <v>0.0001580957680922257</v>
       </c>
       <c r="W14">
-        <v>0.999262174126906</v>
+        <v>-0.0007378258730940113</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2453,7 +2453,7 @@
         <v>1.04673908030517</v>
       </c>
       <c r="K15">
-        <v>51.14179381130987</v>
+        <v>0.01141793811309877</v>
       </c>
       <c r="L15">
         <v>-0.007747090342118305</v>
@@ -2483,13 +2483,13 @@
         <v>-0.2124999999999773</v>
       </c>
       <c r="U15">
-        <v>1.000170716439993</v>
+        <v>0.0001707164399931127</v>
       </c>
       <c r="V15">
-        <v>1.000170716439993</v>
+        <v>0.0001707164399931127</v>
       </c>
       <c r="W15">
-        <v>1.000492247108048</v>
+        <v>0.0004922471080481827</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2524,7 +2524,7 @@
         <v>1.156999483859737</v>
       </c>
       <c r="K16">
-        <v>53.63930276837159</v>
+        <v>0.03639302768371588</v>
       </c>
       <c r="L16">
         <v>-0.003538669034015239</v>
@@ -2554,13 +2554,13 @@
         <v>-0.06833333333332803</v>
       </c>
       <c r="U16">
-        <v>1.000230111768573</v>
+        <v>0.0002301117685734599</v>
       </c>
       <c r="V16">
-        <v>1.000230111768573</v>
+        <v>0.0002301117685734599</v>
       </c>
       <c r="W16">
-        <v>1.001230012300123</v>
+        <v>0.001230012300122985</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2595,7 +2595,7 @@
         <v>1.036678825297829</v>
       </c>
       <c r="K17">
-        <v>50.90045678391303</v>
+        <v>0.009004567839130284</v>
       </c>
       <c r="L17">
         <v>-4.758542999715806E-06</v>
@@ -2625,13 +2625,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U17">
-        <v>1.000124272849771</v>
+        <v>0.0001242728497714563</v>
       </c>
       <c r="V17">
-        <v>0.9999178361323824</v>
+        <v>-8.216386761761285E-05</v>
       </c>
       <c r="W17">
-        <v>0.9987714987714987</v>
+        <v>-0.001228501228501266</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2666,7 +2666,7 @@
         <v>1.014468646506928</v>
       </c>
       <c r="K18">
-        <v>50.35911818563213</v>
+        <v>0.003591181856321346</v>
       </c>
       <c r="L18">
         <v>0.002775998751075011</v>
@@ -2696,13 +2696,13 @@
         <v>0.4562500000000114</v>
       </c>
       <c r="U18">
-        <v>1.000095141184988</v>
+        <v>9.51411849881012E-05</v>
       </c>
       <c r="V18">
-        <v>1.000345116600108</v>
+        <v>0.0003451166001084971</v>
       </c>
       <c r="W18">
-        <v>0.9997539975399753</v>
+        <v>-0.0002460024600247079</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2737,7 +2737,7 @@
         <v>1.488059728890233</v>
       </c>
       <c r="K19">
-        <v>59.80803883490221</v>
+        <v>0.09808038834902211</v>
       </c>
       <c r="L19">
         <v>0.007112140916023503</v>
@@ -2767,13 +2767,13 @@
         <v>0.6812500000000341</v>
       </c>
       <c r="U19">
-        <v>1.000372072346327</v>
+        <v>0.0003720723463267461</v>
       </c>
       <c r="V19">
-        <v>1.000558567438804</v>
+        <v>0.0005585674388040029</v>
       </c>
       <c r="W19">
-        <v>1.005167322834646</v>
+        <v>0.005167322834645827</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2808,7 +2808,7 @@
         <v>1.606754235753216</v>
       </c>
       <c r="K20">
-        <v>61.63811738427837</v>
+        <v>0.1163811738427838</v>
       </c>
       <c r="L20">
         <v>0.01246257313782075</v>
@@ -2838,13 +2838,13 @@
         <v>0.8874999999999886</v>
       </c>
       <c r="U20">
-        <v>1.000397610877251</v>
+        <v>0.0003976108772505427</v>
       </c>
       <c r="V20">
-        <v>1.000180612110863</v>
+        <v>0.0001806121108629544</v>
       </c>
       <c r="W20">
-        <v>1.001223990208078</v>
+        <v>0.001223990208078396</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2879,7 +2879,7 @@
         <v>1.706707504690458</v>
       </c>
       <c r="K21">
-        <v>63.0547446199082</v>
+        <v>0.130547446199082</v>
       </c>
       <c r="L21">
         <v>0.01833700352974865</v>
@@ -2909,13 +2909,13 @@
         <v>1.143750000000068</v>
       </c>
       <c r="U21">
-        <v>1.000406957152855</v>
+        <v>0.000406957152855103</v>
       </c>
       <c r="V21">
-        <v>1.000459656898958</v>
+        <v>0.000459656898957661</v>
       </c>
       <c r="W21">
-        <v>1.000977995110024</v>
+        <v>0.0009779951100243878</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2950,7 +2950,7 @@
         <v>1.410003401191994</v>
       </c>
       <c r="K22">
-        <v>58.50628262576735</v>
+        <v>0.08506282625767358</v>
       </c>
       <c r="L22">
         <v>0.02322425633017746</v>
@@ -2980,13 +2980,13 @@
         <v>1.306249999999977</v>
       </c>
       <c r="U22">
-        <v>1.000274278962803</v>
+        <v>0.0002742789628034092</v>
       </c>
       <c r="V22">
-        <v>1.00068916856735</v>
+        <v>0.000689168567349796</v>
       </c>
       <c r="W22">
-        <v>0.9980459208597949</v>
+        <v>-0.001954079140205067</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3021,7 +3021,7 @@
         <v>1.265289344704572</v>
       </c>
       <c r="K23">
-        <v>55.85552890461261</v>
+        <v>0.05855528904612617</v>
       </c>
       <c r="L23">
         <v>0.02661998163936442</v>
@@ -3051,13 +3051,13 @@
         <v>1.274999999999977</v>
       </c>
       <c r="U23">
-        <v>1.000193348801238</v>
+        <v>0.0001933488012375584</v>
       </c>
       <c r="V23">
-        <v>1.000491924243667</v>
+        <v>0.0004919242436665083</v>
       </c>
       <c r="W23">
-        <v>0.9987763093489965</v>
+        <v>-0.001223690651003473</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3092,7 +3092,7 @@
         <v>1.351717837372007</v>
       </c>
       <c r="K24">
-        <v>57.47789194313047</v>
+        <v>0.07477891943130466</v>
       </c>
       <c r="L24">
         <v>0.02919177783180072</v>
@@ -3122,13 +3122,13 @@
         <v>1.25</v>
       </c>
       <c r="U24">
-        <v>1.00021929003514</v>
+        <v>0.0002192900351398741</v>
       </c>
       <c r="V24">
-        <v>1.000655576497583</v>
+        <v>0.0006555764975826328</v>
       </c>
       <c r="W24">
-        <v>1.000980151923548</v>
+        <v>0.000980151923548167</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3163,7 +3163,7 @@
         <v>1.292905282262677</v>
       </c>
       <c r="K25">
-        <v>56.38720850199343</v>
+        <v>0.06387208501993435</v>
       </c>
       <c r="L25">
         <v>0.03080168129840494</v>
@@ -3193,13 +3193,13 @@
         <v>1.237500000000011</v>
       </c>
       <c r="U25">
-        <v>1.000180473562629</v>
+        <v>0.0001804735626285137</v>
       </c>
       <c r="V25">
-        <v>1.000687904348538</v>
+        <v>0.0006879043485381597</v>
       </c>
       <c r="W25">
-        <v>0.9995104039167687</v>
+        <v>-0.0004895960832312918</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3234,7 +3234,7 @@
         <v>1.209793444851364</v>
       </c>
       <c r="K26">
-        <v>54.74690169210533</v>
+        <v>0.04746901692105332</v>
       </c>
       <c r="L26">
         <v>0.03133614976765296</v>
@@ -3264,13 +3264,13 @@
         <v>1.193750000000023</v>
       </c>
       <c r="U26">
-        <v>1.000136493590335</v>
+        <v>0.0001364935903347408</v>
       </c>
       <c r="V26">
-        <v>1.000556492135457</v>
+        <v>0.0005564921354566099</v>
       </c>
       <c r="W26">
-        <v>0.9992652461425422</v>
+        <v>-0.0007347538574578039</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3305,7 +3305,7 @@
         <v>1.232348885388714</v>
       </c>
       <c r="K27">
-        <v>55.20413468767126</v>
+        <v>0.05204134687671269</v>
       </c>
       <c r="L27">
         <v>0.03117294512821425</v>
@@ -3335,13 +3335,13 @@
         <v>0.9250000000000114</v>
       </c>
       <c r="U27">
-        <v>1.000135434612698</v>
+        <v>0.0001354346126984929</v>
       </c>
       <c r="V27">
-        <v>1.000441674436865</v>
+        <v>0.0004416744368651582</v>
       </c>
       <c r="W27">
-        <v>1.000245098039216</v>
+        <v>0.0002450980392156854</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3376,7 +3376,7 @@
         <v>1.232348885388714</v>
       </c>
       <c r="K28">
-        <v>55.20413468767128</v>
+        <v>0.0520413468767128</v>
       </c>
       <c r="L28">
         <v>0.03048834533966199</v>
@@ -3406,13 +3406,13 @@
         <v>0.6437499999999545</v>
       </c>
       <c r="U28">
-        <v>1.000125385437637</v>
+        <v>0.0001253854376372932</v>
       </c>
       <c r="V28">
-        <v>1.000245266359266</v>
+        <v>0.0002452663592660276</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3447,7 +3447,7 @@
         <v>1.071651461654003</v>
       </c>
       <c r="K29">
-        <v>51.72933196003918</v>
+        <v>0.01729331960039182</v>
       </c>
       <c r="L29">
         <v>0.02887101773962377</v>
@@ -3477,13 +3477,13 @@
         <v>0.3499999999999659</v>
       </c>
       <c r="U29">
-        <v>1.00006373544328</v>
+        <v>6.373544327997749E-05</v>
       </c>
       <c r="V29">
-        <v>1.000196164974744</v>
+        <v>0.0001961649747437288</v>
       </c>
       <c r="W29">
-        <v>0.9985297721146777</v>
+        <v>-0.001470227885322251</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3518,7 +3518,7 @@
         <v>0.9616525077930079</v>
       </c>
       <c r="K30">
-        <v>49.02257173340717</v>
+        <v>-0.009774282665928336</v>
       </c>
       <c r="L30">
         <v>0.02623737848785945</v>
@@ -3548,13 +3548,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U30">
-        <v>1.00001695317533</v>
+        <v>1.695317532979246E-05</v>
       </c>
       <c r="V30">
-        <v>1.000081719375664</v>
+        <v>8.171937566392451E-05</v>
       </c>
       <c r="W30">
-        <v>0.9987730061349693</v>
+        <v>-0.001226993865030668</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3589,7 +3589,7 @@
         <v>1.17774584901152</v>
       </c>
       <c r="K31">
-        <v>54.08095942628473</v>
+        <v>0.04080959426284725</v>
       </c>
       <c r="L31">
         <v>0.02398414805221574</v>
@@ -3619,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1.000097761653698</v>
+        <v>9.776165369768108E-05</v>
       </c>
       <c r="V31">
-        <v>1.000163425396307</v>
+        <v>0.000163425396306538</v>
       </c>
       <c r="W31">
-        <v>1.002457002457003</v>
+        <v>0.002457002457002533</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3660,7 +3660,7 @@
         <v>1.057475617702828</v>
       </c>
       <c r="K32">
-        <v>51.39675088269089</v>
+        <v>0.01396750882690889</v>
       </c>
       <c r="L32">
         <v>0.02156093263473519</v>
@@ -3690,13 +3690,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U32">
-        <v>1.000040965474298</v>
+        <v>4.096547429832675E-05</v>
       </c>
       <c r="V32">
-        <v>1.00016339869281</v>
+        <v>0.0001633986928104569</v>
       </c>
       <c r="W32">
-        <v>0.9987745098039216</v>
+        <v>-0.001225490196078427</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3731,7 +3731,7 @@
         <v>1.035219701225865</v>
       </c>
       <c r="K33">
-        <v>50.86525551036706</v>
+        <v>0.008652555103670578</v>
       </c>
       <c r="L33">
         <v>0.01902239775285381</v>
@@ -3761,13 +3761,13 @@
         <v>-0.3249999999999886</v>
       </c>
       <c r="U33">
-        <v>1.000253975536421</v>
+        <v>0.0002539755364208141</v>
       </c>
       <c r="V33">
-        <v>1.00016337199804</v>
+        <v>0.0001633719980396187</v>
       </c>
       <c r="W33">
-        <v>0.9997546012269938</v>
+        <v>-0.0002453987730062224</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3802,7 +3802,7 @@
         <v>1.079527636292884</v>
       </c>
       <c r="K34">
-        <v>51.91215627301438</v>
+        <v>0.01912156273014376</v>
       </c>
       <c r="L34">
         <v>0.01668969050266858</v>
@@ -3832,13 +3832,13 @@
         <v>-0.4500000000000455</v>
       </c>
       <c r="U34">
-        <v>1.000204766975182</v>
+        <v>0.0002047669751823467</v>
       </c>
       <c r="V34">
-        <v>0.9998529892192095</v>
+        <v>-0.0001470107807904908</v>
       </c>
       <c r="W34">
-        <v>1.000490918016691</v>
+        <v>0.0004909180166914329</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3873,7 +3873,7 @@
         <v>1.079527636292884</v>
       </c>
       <c r="K35">
-        <v>51.91215627301438</v>
+        <v>0.01912156273014376</v>
       </c>
       <c r="L35">
         <v>0.01456982611331439</v>
@@ -3903,13 +3903,13 @@
         <v>-0.4562500000000114</v>
       </c>
       <c r="U35">
-        <v>0.9999754329934898</v>
+        <v>-2.456700651021215E-05</v>
       </c>
       <c r="V35">
-        <v>0.9997712829393408</v>
+        <v>-0.0002287170606591893</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3944,7 +3944,7 @@
         <v>1.104074968739972</v>
       </c>
       <c r="K36">
-        <v>52.47317634319601</v>
+        <v>0.02473176343196004</v>
       </c>
       <c r="L36">
         <v>0.01275126422121254</v>
@@ -3974,13 +3974,13 @@
         <v>-0.4249999999999545</v>
       </c>
       <c r="U36">
-        <v>1.000090081236897</v>
+        <v>9.00812368973547E-05</v>
       </c>
       <c r="V36">
-        <v>0.9997222086049971</v>
+        <v>-0.0002777913950029465</v>
       </c>
       <c r="W36">
-        <v>1.000245338567223</v>
+        <v>0.0002453385672227526</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4015,7 +4015,7 @@
         <v>1.104074968739972</v>
       </c>
       <c r="K37">
-        <v>52.47317634319601</v>
+        <v>0.02473176343196004</v>
       </c>
       <c r="L37">
         <v>0.01118438519943982</v>
@@ -4045,13 +4045,13 @@
         <v>-0.2937500000000455</v>
       </c>
       <c r="U37">
-        <v>1.000270219368997</v>
+        <v>0.000270219368996738</v>
       </c>
       <c r="V37">
-        <v>0.9998528931023211</v>
+        <v>-0.0001471068976789391</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4086,7 +4086,7 @@
         <v>1.185672749727552</v>
       </c>
       <c r="K38">
-        <v>54.24749656028552</v>
+        <v>0.04247496560285524</v>
       </c>
       <c r="L38">
         <v>0.0100987310518422</v>
@@ -4116,13 +4116,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U38">
-        <v>1.000237401355644</v>
+        <v>0.0002374013556436516</v>
       </c>
       <c r="V38">
-        <v>0.9999836523842998</v>
+        <v>-1.634761570024068E-05</v>
       </c>
       <c r="W38">
-        <v>1.000735835172921</v>
+        <v>0.0007358351729211954</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4157,7 +4157,7 @@
         <v>1.152670860456563</v>
       </c>
       <c r="K39">
-        <v>53.54607997118944</v>
+        <v>0.03546079971189431</v>
       </c>
       <c r="L39">
         <v>0.009246242472042782</v>
@@ -4187,13 +4187,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U39">
-        <v>1.000278266562999</v>
+        <v>0.0002782665629985637</v>
       </c>
       <c r="V39">
-        <v>0.999901912702305</v>
+        <v>-9.808729769500424E-05</v>
       </c>
       <c r="W39">
-        <v>0.9997549019607842</v>
+        <v>-0.0002450980392157964</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4228,7 +4228,7 @@
         <v>1.211268531389879</v>
       </c>
       <c r="K40">
-        <v>54.77708899644782</v>
+        <v>0.0477708899644782</v>
       </c>
       <c r="L40">
         <v>0.00873484460577402</v>
@@ -4258,13 +4258,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U40">
-        <v>1.000327281355599</v>
+        <v>0.0003272813555994514</v>
       </c>
       <c r="V40">
-        <v>0.9999673010267479</v>
+        <v>-3.26989732520877E-05</v>
       </c>
       <c r="W40">
-        <v>1.000490316253984</v>
+        <v>0.0004903162539839911</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4299,7 +4299,7 @@
         <v>1.175029585603508</v>
       </c>
       <c r="K41">
-        <v>54.02361390304818</v>
+        <v>0.04023613903048184</v>
       </c>
       <c r="L41">
         <v>0.008340557210309671</v>
@@ -4329,13 +4329,13 @@
         <v>0.06249999999994316</v>
       </c>
       <c r="U41">
-        <v>1.000278098135924</v>
+        <v>0.0002780981359244983</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>0.999754962019113</v>
+        <v>-0.0002450379808870418</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4370,7 +4370,7 @@
         <v>1.073597733360955</v>
       </c>
       <c r="K42">
-        <v>51.77463864318722</v>
+        <v>0.01774638643187221</v>
       </c>
       <c r="L42">
         <v>0.007742828898666582</v>
@@ -4400,13 +4400,13 @@
         <v>0.09374999999994316</v>
       </c>
       <c r="U42">
-        <v>1.000188072906871</v>
+        <v>0.0001880729068712839</v>
       </c>
       <c r="V42">
-        <v>0.9999345999149798</v>
+        <v>-6.540008502020633E-05</v>
       </c>
       <c r="W42">
-        <v>0.9992647058823529</v>
+        <v>-0.0007352941176470562</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4441,7 +4441,7 @@
         <v>1.042035818640649</v>
       </c>
       <c r="K43">
-        <v>51.02926251971014</v>
+        <v>0.01029262519710139</v>
       </c>
       <c r="L43">
         <v>0.006942446996136505</v>
@@ -4471,13 +4471,13 @@
         <v>0.1250000000000568</v>
       </c>
       <c r="U43">
-        <v>1.000081755453089</v>
+        <v>8.175545308874987E-05</v>
       </c>
       <c r="V43">
-        <v>0.999918244546911</v>
+        <v>-8.175545308897192E-05</v>
       </c>
       <c r="W43">
-        <v>0.9997547216090263</v>
+        <v>-0.0002452783909736578</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4512,7 +4512,7 @@
         <v>1.010757379577537</v>
       </c>
       <c r="K44">
-        <v>50.26749571297849</v>
+        <v>0.002674957129784938</v>
       </c>
       <c r="L44">
         <v>0.005955777472109985</v>
@@ -4542,13 +4542,13 @@
         <v>0.1375000000000455</v>
       </c>
       <c r="U44">
-        <v>1.000098098523617</v>
+        <v>9.809852361719607E-05</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>0.9997546614327771</v>
+        <v>-0.0002453385672228636</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4583,7 +4583,7 @@
         <v>1.010757379577537</v>
       </c>
       <c r="K45">
-        <v>50.26749571297849</v>
+        <v>0.002674957129784938</v>
       </c>
       <c r="L45">
         <v>0.004897732402158032</v>
@@ -4613,13 +4613,13 @@
         <v>0.1125000000000682</v>
       </c>
       <c r="U45">
-        <v>1.000081740751034</v>
+        <v>8.174075103406508E-05</v>
       </c>
       <c r="V45">
-        <v>1.000081762137589</v>
+        <v>8.176213758948059E-05</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4654,7 +4654,7 @@
         <v>1.077276302609637</v>
       </c>
       <c r="K46">
-        <v>51.86003909332035</v>
+        <v>0.01860039093320343</v>
       </c>
       <c r="L46">
         <v>0.004025170317401634</v>
@@ -4684,13 +4684,13 @@
         <v>0.03125</v>
       </c>
       <c r="U46">
-        <v>1.000057213849021</v>
+        <v>5.721384902068749E-05</v>
       </c>
       <c r="V46">
-        <v>0.9999509467281468</v>
+        <v>-4.905327185322772E-05</v>
       </c>
       <c r="W46">
-        <v>1.000490797546012</v>
+        <v>0.0004907975460122227</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4725,7 +4725,7 @@
         <v>0.7979235803598572</v>
       </c>
       <c r="K47">
-        <v>44.38028340448995</v>
+        <v>-0.05619716595510049</v>
       </c>
       <c r="L47">
         <v>0.002411346711726453</v>
@@ -4755,13 +4755,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U47">
-        <v>1.000016345878795</v>
+        <v>1.634587879539851E-05</v>
       </c>
       <c r="V47">
-        <v>0.9998691848581474</v>
+        <v>-0.0001308151418526471</v>
       </c>
       <c r="W47">
-        <v>0.9975472160902624</v>
+        <v>-0.002452783909737577</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4796,7 +4796,7 @@
         <v>0.8252197806376101</v>
       </c>
       <c r="K48">
-        <v>45.21207743811178</v>
+        <v>-0.04787922561888225</v>
       </c>
       <c r="L48">
         <v>0.0005324975920876038</v>
@@ -4826,13 +4826,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U48">
-        <v>1.000032691223224</v>
+        <v>3.269122322380191E-05</v>
       </c>
       <c r="V48">
-        <v>0.9999018758074805</v>
+        <v>-9.812419251953308E-05</v>
       </c>
       <c r="W48">
-        <v>1.000245881485124</v>
+        <v>0.0002458814851242774</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4867,7 +4867,7 @@
         <v>0.8539526230352286</v>
       </c>
       <c r="K49">
-        <v>46.06118907381604</v>
+        <v>-0.03938810926183961</v>
       </c>
       <c r="L49">
         <v>-0.001299479046269289</v>
@@ -4897,13 +4897,13 @@
         <v>-0.2624999999999886</v>
       </c>
       <c r="U49">
-        <v>0.9998692393818291</v>
+        <v>-0.0001307606181708554</v>
       </c>
       <c r="V49">
-        <v>0.999885510541208</v>
+        <v>-0.0001144894587919998</v>
       </c>
       <c r="W49">
-        <v>1.000245821042281</v>
+        <v>0.0002458210422811025</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4938,7 +4938,7 @@
         <v>0.8288829767846781</v>
       </c>
       <c r="K50">
-        <v>45.32181595576554</v>
+        <v>-0.04678184044234457</v>
       </c>
       <c r="L50">
         <v>-0.003070952937424526</v>
@@ -4968,13 +4968,13 @@
         <v>-0.3249999999999886</v>
       </c>
       <c r="U50">
-        <v>0.9998201806367242</v>
+        <v>-0.0001798193632758238</v>
       </c>
       <c r="V50">
-        <v>0.9998691399221383</v>
+        <v>-0.000130860077861672</v>
       </c>
       <c r="W50">
-        <v>0.9997542393708528</v>
+        <v>-0.0002457606291471626</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5009,7 +5009,7 @@
         <v>0.7376968546799985</v>
       </c>
       <c r="K51">
-        <v>42.45256315526032</v>
+        <v>-0.0754743684473968</v>
       </c>
       <c r="L51">
         <v>-0.005039294209944117</v>
@@ -5039,13 +5039,13 @@
         <v>-0.4000000000000341</v>
       </c>
       <c r="U51">
-        <v>0.9997547476762341</v>
+        <v>-0.0002452523237659321</v>
       </c>
       <c r="V51">
-        <v>0.9997873245427477</v>
+        <v>-0.0002126754572523426</v>
       </c>
       <c r="W51">
-        <v>0.999016715830875</v>
+        <v>-0.000983284169124965</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5080,7 +5080,7 @@
         <v>0.6787472037343475</v>
       </c>
       <c r="K52">
-        <v>40.43176972831197</v>
+        <v>-0.09568230271688027</v>
       </c>
       <c r="L52">
         <v>-0.00725131750721663</v>
@@ -5110,13 +5110,13 @@
         <v>-0.4750000000000796</v>
       </c>
       <c r="U52">
-        <v>0.9997955729273141</v>
+        <v>-0.0002044270726858644</v>
       </c>
       <c r="V52">
-        <v>0.9997381899104937</v>
+        <v>-0.0002618100895063202</v>
       </c>
       <c r="W52">
-        <v>0.9992618110236221</v>
+        <v>-0.0007381889763778959</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5151,7 +5151,7 @@
         <v>0.8189408884429615</v>
       </c>
       <c r="K53">
-        <v>45.02295229307788</v>
+        <v>-0.04977047706922122</v>
       </c>
       <c r="L53">
         <v>-0.008996801251563801</v>
@@ -5181,13 +5181,13 @@
         <v>-0.5187499999999545</v>
       </c>
       <c r="U53">
-        <v>0.9998773186770046</v>
+        <v>-0.0001226813229954216</v>
       </c>
       <c r="V53">
-        <v>0.9997708561795178</v>
+        <v>-0.0002291438204822249</v>
       </c>
       <c r="W53">
-        <v>1.001231223836494</v>
+        <v>0.001231223836493545</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5222,7 +5222,7 @@
         <v>0.8484553483816071</v>
       </c>
       <c r="K54">
-        <v>45.90077597083759</v>
+        <v>-0.04099224029162407</v>
       </c>
       <c r="L54">
         <v>-0.01022644075282542</v>
@@ -5252,13 +5252,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U54">
-        <v>0.999852764349341</v>
+        <v>-0.0001472356506589945</v>
       </c>
       <c r="V54">
-        <v>0.9998035459947942</v>
+        <v>-0.0001964540052058483</v>
       </c>
       <c r="W54">
-        <v>1.000245941957698</v>
+        <v>0.0002459419576978927</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5293,7 +5293,7 @@
         <v>0.8484553483816069</v>
       </c>
       <c r="K55">
-        <v>45.90077597083759</v>
+        <v>-0.04099224029162407</v>
       </c>
       <c r="L55">
         <v>-0.01102809740909187</v>
@@ -5323,13 +5323,13 @@
         <v>-0.4875000000000114</v>
       </c>
       <c r="U55">
-        <v>0.9998691045936107</v>
+        <v>-0.0001308954063893308</v>
       </c>
       <c r="V55">
-        <v>0.9997707586252067</v>
+        <v>-0.0002292413747932986</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5364,7 +5364,7 @@
         <v>0.7963680926124493</v>
       </c>
       <c r="K56">
-        <v>44.33212190126886</v>
+        <v>-0.05667878098731138</v>
       </c>
       <c r="L56">
         <v>-0.01165810659538048</v>
@@ -5394,13 +5394,13 @@
         <v>-0.4250000000000114</v>
       </c>
       <c r="U56">
-        <v>0.9998772694916502</v>
+        <v>-0.0001227305083497665</v>
       </c>
       <c r="V56">
-        <v>0.9997543279230882</v>
+        <v>-0.0002456720769118403</v>
       </c>
       <c r="W56">
-        <v>0.9995082370297517</v>
+        <v>-0.0004917629702483328</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5435,7 +5435,7 @@
         <v>0.7480291232159513</v>
       </c>
       <c r="K57">
-        <v>42.7927151373633</v>
+        <v>-0.07207284862636704</v>
       </c>
       <c r="L57">
         <v>-0.01228044065615691</v>
@@ -5465,13 +5465,13 @@
         <v>-0.3937500000000114</v>
       </c>
       <c r="U57">
-        <v>0.9998527053124285</v>
+        <v>-0.0001472946875714642</v>
       </c>
       <c r="V57">
-        <v>0.9997706497165887</v>
+        <v>-0.0002293502834113115</v>
       </c>
       <c r="W57">
-        <v>0.9995079950799508</v>
+        <v>-0.0004920049200491938</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5506,7 +5506,7 @@
         <v>0.6826073722077657</v>
       </c>
       <c r="K58">
-        <v>40.56842870669881</v>
+        <v>-0.09431571293301189</v>
       </c>
       <c r="L58">
         <v>-0.01308212767763017</v>
@@ -5536,13 +5536,13 @@
         <v>-0.3874999999999886</v>
       </c>
       <c r="U58">
-        <v>0.9998281308824251</v>
+        <v>-0.0001718691175749409</v>
       </c>
       <c r="V58">
-        <v>0.9997378252605362</v>
+        <v>-0.0002621747394637719</v>
       </c>
       <c r="W58">
-        <v>0.9992616293379276</v>
+        <v>-0.0007383706620723851</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5577,7 +5577,7 @@
         <v>0.6826073722077657</v>
       </c>
       <c r="K59">
-        <v>40.56842870669881</v>
+        <v>-0.09431571293301189</v>
       </c>
       <c r="L59">
         <v>-0.01389398013802975</v>
@@ -5607,13 +5607,13 @@
         <v>-0.3375000000000341</v>
       </c>
       <c r="U59">
-        <v>0.9998772152416815</v>
+        <v>-0.000122784758318506</v>
       </c>
       <c r="V59">
-        <v>0.9997541467252343</v>
+        <v>-0.0002458532747656728</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5648,7 +5648,7 @@
         <v>0.7472122318774512</v>
       </c>
       <c r="K60">
-        <v>42.76596845218631</v>
+        <v>-0.07234031547813685</v>
       </c>
       <c r="L60">
         <v>-0.01443102545784199</v>
@@ -5678,13 +5678,13 @@
         <v>-0.2437500000000341</v>
       </c>
       <c r="U60">
-        <v>0.9999345067539911</v>
+        <v>-6.549324600890749E-05</v>
       </c>
       <c r="V60">
-        <v>0.9997868747643327</v>
+        <v>-0.0002131252356672997</v>
       </c>
       <c r="W60">
-        <v>1.000492610837438</v>
+        <v>0.0004926108374383453</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5719,7 +5719,7 @@
         <v>0.7812147895983479</v>
       </c>
       <c r="K61">
-        <v>43.85853936091035</v>
+        <v>-0.06141460639089652</v>
       </c>
       <c r="L61">
         <v>-0.01462548957664119</v>
@@ -5749,13 +5749,13 @@
         <v>-0.2062500000000682</v>
       </c>
       <c r="U61">
-        <v>0.9998608177367325</v>
+        <v>-0.0001391822632674788</v>
       </c>
       <c r="V61">
-        <v>0.9997704315886132</v>
+        <v>-0.0002295684113867713</v>
       </c>
       <c r="W61">
-        <v>1.000246184145741</v>
+        <v>0.0002461841457410685</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5790,7 +5790,7 @@
         <v>0.8170069556203242</v>
       </c>
       <c r="K62">
-        <v>44.9644374278908</v>
+        <v>-0.05035562572109198</v>
       </c>
       <c r="L62">
         <v>-0.01445735394295044</v>
@@ -5820,13 +5820,13 @@
         <v>-0.1624999999999659</v>
       </c>
       <c r="U62">
-        <v>0.9999099283520984</v>
+        <v>-9.007164790164612E-05</v>
       </c>
       <c r="V62">
-        <v>0.9999507954731836</v>
+        <v>-4.920452681644871E-05</v>
       </c>
       <c r="W62">
-        <v>1.000246123554024</v>
+        <v>0.0002461235540240914</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5861,7 +5861,7 @@
         <v>0.9677108125550253</v>
       </c>
       <c r="K63">
-        <v>49.1795240632172</v>
+        <v>-0.008204759367827996</v>
       </c>
       <c r="L63">
         <v>-0.01366974881877755</v>
@@ -5891,13 +5891,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U63">
-        <v>0.9999508655846177</v>
+        <v>-4.913441538234586E-05</v>
       </c>
       <c r="V63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>1.000984251968504</v>
+        <v>0.0009842519685039353</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5932,7 +5932,7 @@
         <v>0.8965948630939323</v>
       </c>
       <c r="K64">
-        <v>47.27392657972874</v>
+        <v>-0.02726073420271263</v>
       </c>
       <c r="L64">
         <v>-0.01268602874856688</v>
@@ -5962,13 +5962,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U64">
-        <v>0.9999181052838472</v>
+        <v>-8.18947161528305E-05</v>
       </c>
       <c r="V64">
-        <v>0.9999507930519789</v>
+        <v>-4.92069480211299E-05</v>
       </c>
       <c r="W64">
-        <v>0.9995083579154376</v>
+        <v>-0.000491642084562427</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6003,7 +6003,7 @@
         <v>0.8322172972233391</v>
       </c>
       <c r="K65">
-        <v>45.4213208490355</v>
+        <v>-0.04578679150964504</v>
       </c>
       <c r="L65">
         <v>-0.01177888376093612</v>
@@ -6033,13 +6033,13 @@
         <v>-0.08750000000003411</v>
       </c>
       <c r="U65">
-        <v>0.9999017182918637</v>
+        <v>-9.828170813630521E-05</v>
       </c>
       <c r="V65">
-        <v>0.9999343875073815</v>
+        <v>-6.561249261849422E-05</v>
       </c>
       <c r="W65">
-        <v>0.9995081160846039</v>
+        <v>-0.0004918839153961185</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6074,7 +6074,7 @@
         <v>0.8322172972233389</v>
       </c>
       <c r="K66">
-        <v>45.42132084903548</v>
+        <v>-0.04578679150964521</v>
       </c>
       <c r="L66">
         <v>-0.01093305806433393</v>
@@ -6104,13 +6104,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U66">
-        <v>0.9998935176842553</v>
+        <v>-0.000106482315744727</v>
       </c>
       <c r="V66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6145,7 +6145,7 @@
         <v>0.8322172972233389</v>
       </c>
       <c r="K67">
-        <v>45.42132084903548</v>
+        <v>-0.04578679150964521</v>
       </c>
       <c r="L67">
         <v>-0.01013847714323954</v>
@@ -6175,13 +6175,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U67">
-        <v>0.9998935063445644</v>
+        <v>-0.00010649365543558</v>
       </c>
       <c r="V67">
-        <v>1.000049212598425</v>
+        <v>4.921259842505243E-05</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6216,7 +6216,7 @@
         <v>0.8322172972233388</v>
       </c>
       <c r="K68">
-        <v>45.42132084903548</v>
+        <v>-0.04578679150964521</v>
       </c>
       <c r="L68">
         <v>-0.009388662195614076</v>
@@ -6246,13 +6246,13 @@
         <v>0.04375000000004547</v>
       </c>
       <c r="U68">
-        <v>0.9998689169261019</v>
+        <v>-0.0001310830738980862</v>
       </c>
       <c r="V68">
-        <v>0.9999671932155572</v>
+        <v>-3.280678444284035E-05</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6287,7 +6287,7 @@
         <v>0.7350239312485713</v>
       </c>
       <c r="K69">
-        <v>42.36390737963065</v>
+        <v>-0.07636092620369345</v>
       </c>
       <c r="L69">
         <v>-0.008948118542175833</v>
@@ -6317,13 +6317,13 @@
         <v>0.04999999999995453</v>
       </c>
       <c r="U69">
-        <v>0.9998525122087116</v>
+        <v>-0.0001474877912883699</v>
       </c>
       <c r="V69">
-        <v>0.9999015764177096</v>
+        <v>-9.842358229039672E-05</v>
       </c>
       <c r="W69">
-        <v>0.9992618110236221</v>
+        <v>-0.0007381889763778959</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6358,7 +6358,7 @@
         <v>0.7350239312485713</v>
       </c>
       <c r="K70">
-        <v>42.36390737963065</v>
+        <v>-0.07636092620369345</v>
       </c>
       <c r="L70">
         <v>-0.008690509057838691</v>
@@ -6388,13 +6388,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U70">
-        <v>0.9998361005031715</v>
+        <v>-0.0001638994968284901</v>
       </c>
       <c r="V70">
-        <v>0.9999015667295545</v>
+        <v>-9.843327044545269E-05</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6429,7 +6429,7 @@
         <v>0.8212942524445516</v>
       </c>
       <c r="K71">
-        <v>45.09399024030333</v>
+        <v>-0.04906009759696672</v>
       </c>
       <c r="L71">
         <v>-0.008349492078140158</v>
@@ -6459,13 +6459,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U71">
-        <v>0.9998606625903644</v>
+        <v>-0.0001393374096355648</v>
       </c>
       <c r="V71">
-        <v>0.9999671856798307</v>
+        <v>-3.281432016932762E-05</v>
       </c>
       <c r="W71">
-        <v>1.000492489534597</v>
+        <v>0.0004924895345974623</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6500,7 +6500,7 @@
         <v>0.9121051168613726</v>
       </c>
       <c r="K72">
-        <v>47.7016200008161</v>
+        <v>-0.02298379999183903</v>
       </c>
       <c r="L72">
         <v>-0.007770189541945334</v>
@@ -6530,13 +6530,13 @@
         <v>0</v>
       </c>
       <c r="U72">
-        <v>0.9999016304748788</v>
+        <v>-9.836952512121133E-05</v>
       </c>
       <c r="V72">
-        <v>1.000032815396984</v>
+        <v>3.281539698418712E-05</v>
       </c>
       <c r="W72">
-        <v>1.000492247108048</v>
+        <v>0.0004922471080481827</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6571,7 +6571,7 @@
         <v>1.10328588405468</v>
       </c>
       <c r="K73">
-        <v>52.45534581955087</v>
+        <v>0.02455345819550869</v>
       </c>
       <c r="L73">
         <v>-0.006696910413458866</v>
@@ -6601,13 +6601,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U73">
-        <v>0.9999426121317954</v>
+        <v>-5.738786820463915E-05</v>
       </c>
       <c r="V73">
-        <v>1.000147664440762</v>
+        <v>0.0001476644407618632</v>
       </c>
       <c r="W73">
-        <v>1.000984009840098</v>
+        <v>0.0009840098400983877</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6642,7 +6642,7 @@
         <v>1.002420839264594</v>
       </c>
       <c r="K74">
-        <v>50.06044781439357</v>
+        <v>0.0006044781439357161</v>
       </c>
       <c r="L74">
         <v>-0.005547361929848863</v>
@@ -6672,13 +6672,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U74">
-        <v>0.9999344101008444</v>
+        <v>-6.558989915561586E-05</v>
       </c>
       <c r="V74">
-        <v>1.000114833163818</v>
+        <v>0.0001148331638178846</v>
       </c>
       <c r="W74">
-        <v>0.9995084787417056</v>
+        <v>-0.0004915212582944362</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6713,7 +6713,7 @@
         <v>0.9564016119349076</v>
       </c>
       <c r="K75">
-        <v>48.88575055859894</v>
+        <v>-0.01114249441401066</v>
       </c>
       <c r="L75">
         <v>-0.004494181471802252</v>
@@ -6743,13 +6743,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U75">
-        <v>0.9999262065233434</v>
+        <v>-7.379347665659175E-05</v>
       </c>
       <c r="V75">
-        <v>1.000065611416386</v>
+        <v>6.561141638639079E-05</v>
       </c>
       <c r="W75">
-        <v>0.9997541185148759</v>
+        <v>-0.0002458814851240554</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6784,7 +6784,7 @@
         <v>0.7414277272804002</v>
       </c>
       <c r="K76">
-        <v>42.57585403433843</v>
+        <v>-0.07424145965661572</v>
       </c>
       <c r="L76">
         <v>-0.004087494297447264</v>
@@ -6814,13 +6814,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U76">
-        <v>0.9998606020352103</v>
+        <v>-0.0001393979647896781</v>
       </c>
       <c r="V76">
-        <v>0.9999507946661417</v>
+        <v>-4.920533385832648E-05</v>
       </c>
       <c r="W76">
-        <v>0.9985243482538121</v>
+        <v>-0.001475651746187912</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6855,7 +6855,7 @@
         <v>0.8202956759233331</v>
       </c>
       <c r="K77">
-        <v>45.0638699400988</v>
+        <v>-0.049361300599012</v>
       </c>
       <c r="L77">
         <v>-0.003904439709489168</v>
@@ -6885,13 +6885,13 @@
         <v>-0.01249999999993179</v>
       </c>
       <c r="U77">
-        <v>0.9999589948825613</v>
+        <v>-4.100511743865276E-05</v>
       </c>
       <c r="V77">
-        <v>0.9999671948299053</v>
+        <v>-3.280517009474071E-05</v>
       </c>
       <c r="W77">
-        <v>1.000492610837438</v>
+        <v>0.0004926108374383453</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6926,7 +6926,7 @@
         <v>0.8618051225775202</v>
       </c>
       <c r="K78">
-        <v>46.2886857559195</v>
+        <v>-0.03711314244080505</v>
       </c>
       <c r="L78">
         <v>-0.003764771369899414</v>
@@ -6956,13 +6956,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U78">
-        <v>0.9999589932010727</v>
+        <v>-4.100679892726777E-05</v>
       </c>
       <c r="V78">
-        <v>0.9999179843842269</v>
+        <v>-8.201561577314553E-05</v>
       </c>
       <c r="W78">
-        <v>1.000246184145741</v>
+        <v>0.0002461841457410685</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6997,7 +6997,7 @@
         <v>0.8618051225775202</v>
       </c>
       <c r="K79">
-        <v>46.2886857559195</v>
+        <v>-0.03711314244080505</v>
       </c>
       <c r="L79">
         <v>-0.003646586482425232</v>
@@ -7027,13 +7027,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U79">
-        <v>0.9999507898233354</v>
+        <v>-4.92101766645936E-05</v>
       </c>
       <c r="V79">
-        <v>0.9999507865942683</v>
+        <v>-4.92134057317184E-05</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7068,7 +7068,7 @@
         <v>0.7892077243849037</v>
       </c>
       <c r="K80">
-        <v>44.10934033141505</v>
+        <v>-0.05890659668584952</v>
       </c>
       <c r="L80">
         <v>-0.003714824693066133</v>
@@ -7098,13 +7098,13 @@
         <v>0.03124999999994316</v>
       </c>
       <c r="U80">
-        <v>0.9999425853018373</v>
+        <v>-5.74146981626722E-05</v>
       </c>
       <c r="V80">
-        <v>0.9999507841721899</v>
+        <v>-4.921582781014511E-05</v>
       </c>
       <c r="W80">
-        <v>0.9995077528919518</v>
+        <v>-0.0004922471080481827</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7139,7 +7139,7 @@
         <v>0.6703284774326074</v>
       </c>
       <c r="K81">
-        <v>40.13153619118926</v>
+        <v>-0.09868463808810746</v>
       </c>
       <c r="L81">
         <v>-0.004236466347497252</v>
@@ -7169,13 +7169,13 @@
         <v>-0.07500000000004547</v>
       </c>
       <c r="U81">
-        <v>0.9999425820052005</v>
+        <v>-5.741799479952459E-05</v>
       </c>
       <c r="V81">
-        <v>0.99988515741637</v>
+        <v>-0.0001148425836300371</v>
       </c>
       <c r="W81">
-        <v>0.9990150209308052</v>
+        <v>-0.0009849790691948135</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7210,7 +7210,7 @@
         <v>0.5990856285817082</v>
       </c>
       <c r="K82">
-        <v>37.4642619428117</v>
+        <v>-0.1253573805718831</v>
       </c>
       <c r="L82">
         <v>-0.005252945936504588</v>
@@ -7240,13 +7240,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U82">
-        <v>0.9999425787081849</v>
+        <v>-5.742129181507405E-05</v>
       </c>
       <c r="V82">
-        <v>0.9998359203229088</v>
+        <v>-0.0001640796770912001</v>
       </c>
       <c r="W82">
-        <v>0.9992605373428641</v>
+        <v>-0.0007394626571358698</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7281,7 +7281,7 @@
         <v>0.5049366438224786</v>
       </c>
       <c r="K83">
-        <v>33.55202000663363</v>
+        <v>-0.1644797999336637</v>
       </c>
       <c r="L83">
         <v>-0.006933374794619878</v>
@@ -7311,13 +7311,13 @@
         <v>-0.2937499999999886</v>
       </c>
       <c r="U83">
-        <v>0.9998605402833494</v>
+        <v>-0.0001394597166506362</v>
       </c>
       <c r="V83">
-        <v>0.9997538400945255</v>
+        <v>-0.0002461599054744967</v>
       </c>
       <c r="W83">
-        <v>0.9987666502220029</v>
+        <v>-0.00123334977799705</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7352,7 +7352,7 @@
         <v>0.5049366438224786</v>
       </c>
       <c r="K84">
-        <v>33.55202000663363</v>
+        <v>-0.1644797999336637</v>
       </c>
       <c r="L84">
         <v>-0.008883977921052796</v>
@@ -7382,13 +7382,13 @@
         <v>-0.3374999999999773</v>
       </c>
       <c r="U84">
-        <v>0.9998523161746607</v>
+        <v>-0.000147683825339251</v>
       </c>
       <c r="V84">
-        <v>0.9998030235879253</v>
+        <v>-0.0001969764120747231</v>
       </c>
       <c r="W84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7423,7 +7423,7 @@
         <v>0.3561113891483891</v>
       </c>
       <c r="K85">
-        <v>26.25974473763692</v>
+        <v>-0.2374025526236308</v>
       </c>
       <c r="L85">
         <v>-0.0119171338105638</v>
@@ -7453,13 +7453,13 @@
         <v>-0.5</v>
       </c>
       <c r="U85">
-        <v>0.9997538239348783</v>
+        <v>-0.0002461760651216727</v>
       </c>
       <c r="V85">
-        <v>0.9996059695611486</v>
+        <v>-0.0003940304388514448</v>
       </c>
       <c r="W85">
-        <v>0.9970363052605582</v>
+        <v>-0.002963694739441802</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7494,7 +7494,7 @@
         <v>0.5370923684983028</v>
       </c>
       <c r="K86">
-        <v>34.94210104126842</v>
+        <v>-0.1505789895873159</v>
       </c>
       <c r="L86">
         <v>-0.01474297362679793</v>
@@ -7524,13 +7524,13 @@
         <v>-0.6312499999999659</v>
       </c>
       <c r="U86">
-        <v>0.9998276343221103</v>
+        <v>-0.0001723656778896965</v>
       </c>
       <c r="V86">
-        <v>0.9996879362733021</v>
+        <v>-0.0003120637266978976</v>
       </c>
       <c r="W86">
-        <v>1.001733960862026</v>
+        <v>0.001733960862026152</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7565,7 +7565,7 @@
         <v>0.4965511726250609</v>
       </c>
       <c r="K87">
-        <v>33.17969887752476</v>
+        <v>-0.1682030112247525</v>
       </c>
       <c r="L87">
         <v>-0.01747893869165823</v>
@@ -7595,13 +7595,13 @@
         <v>-0.7687500000000114</v>
       </c>
       <c r="U87">
-        <v>0.9998193953026362</v>
+        <v>-0.0001806046973638065</v>
       </c>
       <c r="V87">
-        <v>0.9996056911904841</v>
+        <v>-0.0003943088095158531</v>
       </c>
       <c r="W87">
-        <v>0.9992581602373888</v>
+        <v>-0.0007418397626112183</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7636,7 +7636,7 @@
         <v>0.4284635939116807</v>
       </c>
       <c r="K88">
-        <v>29.99471570279108</v>
+        <v>-0.2000528429720891</v>
       </c>
       <c r="L88">
         <v>-0.02046104113196125</v>
@@ -7666,13 +7666,13 @@
         <v>-0.90625</v>
       </c>
       <c r="U88">
-        <v>0.99979473031669</v>
+        <v>-0.0002052696833100276</v>
       </c>
       <c r="V88">
-        <v>0.9994411755037638</v>
+        <v>-0.0005588244962362321</v>
       </c>
       <c r="W88">
-        <v>0.9985152190051967</v>
+        <v>-0.001484780994803314</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7707,7 +7707,7 @@
         <v>0.399623213449219</v>
       </c>
       <c r="K89">
-        <v>28.55219959265973</v>
+        <v>-0.2144780040734027</v>
       </c>
       <c r="L89">
         <v>-0.02359778800601729</v>
@@ -7737,13 +7737,13 @@
         <v>-0.9875000000000682</v>
       </c>
       <c r="U89">
-        <v>0.9997700507530839</v>
+        <v>-0.0002299492469161057</v>
       </c>
       <c r="V89">
-        <v>0.999424417839758</v>
+        <v>-0.0005755821602420053</v>
       </c>
       <c r="W89">
-        <v>0.9992565055762082</v>
+        <v>-0.0007434944237918462</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7778,7 +7778,7 @@
         <v>0.390402701951578</v>
       </c>
       <c r="K90">
-        <v>28.07839062766539</v>
+        <v>-0.2192160937233462</v>
       </c>
       <c r="L90">
         <v>-0.02663337853302162</v>
@@ -7808,13 +7808,13 @@
         <v>-1.049999999999955</v>
       </c>
       <c r="U90">
-        <v>0.9997453547782942</v>
+        <v>-0.0002546452217058182</v>
       </c>
       <c r="V90">
-        <v>0.9994240863541375</v>
+        <v>-0.0005759136458625136</v>
       </c>
       <c r="W90">
-        <v>0.9997519841269842</v>
+        <v>-0.0002480158730158166</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7849,7 +7849,7 @@
         <v>0.3811456714920541</v>
       </c>
       <c r="K91">
-        <v>27.59634116510692</v>
+        <v>-0.2240365883489308</v>
       </c>
       <c r="L91">
         <v>-0.02940827830933752</v>
@@ -7879,13 +7879,13 @@
         <v>-1.0625</v>
       </c>
       <c r="U91">
-        <v>0.9997288570090465</v>
+        <v>-0.0002711429909535434</v>
       </c>
       <c r="V91">
-        <v>0.9995060752741283</v>
+        <v>-0.0004939247258717305</v>
       </c>
       <c r="W91">
-        <v>0.9997519225998511</v>
+        <v>-0.0002480774001488717</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7920,7 +7920,7 @@
         <v>0.3388571993915254</v>
       </c>
       <c r="K92">
-        <v>25.30943550555854</v>
+        <v>-0.2469056449444146</v>
       </c>
       <c r="L92">
         <v>-0.03219126038187179</v>
@@ -7950,13 +7950,13 @@
         <v>-1.143750000000011</v>
       </c>
       <c r="U92">
-        <v>0.9996794713743281</v>
+        <v>-0.0003205286256718898</v>
       </c>
       <c r="V92">
-        <v>0.99939052513672</v>
+        <v>-0.0006094748632800018</v>
       </c>
       <c r="W92">
-        <v>0.9987593052109182</v>
+        <v>-0.001240694789081842</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7991,7 +7991,7 @@
         <v>0.3855733863907806</v>
       </c>
       <c r="K93">
-        <v>27.82771307372927</v>
+        <v>-0.2217228692627073</v>
       </c>
       <c r="L93">
         <v>-0.03450669246511075</v>
@@ -8021,13 +8021,13 @@
         <v>-1.050000000000011</v>
       </c>
       <c r="U93">
-        <v>0.9996629259670325</v>
+        <v>-0.0003370740329674549</v>
       </c>
       <c r="V93">
-        <v>0.9994066357897513</v>
+        <v>-0.0005933642102486925</v>
       </c>
       <c r="W93">
-        <v>1.000496894409938</v>
+        <v>0.0004968944099379424</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8062,7 +8062,7 @@
         <v>0.3510478744948012</v>
       </c>
       <c r="K94">
-        <v>25.98337787445681</v>
+        <v>-0.2401662212554319</v>
       </c>
       <c r="L94">
         <v>-0.03662605983611492</v>
@@ -8092,13 +8092,13 @@
         <v>-1.0625</v>
       </c>
       <c r="U94">
-        <v>0.9996463641298089</v>
+        <v>-0.0003536358701911047</v>
       </c>
       <c r="V94">
-        <v>0.9993403149995876</v>
+        <v>-0.0006596850004123578</v>
       </c>
       <c r="W94">
-        <v>0.9990067047429849</v>
+        <v>-0.000993295257015081</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8133,7 +8133,7 @@
         <v>0.445303975625696</v>
       </c>
       <c r="K95">
-        <v>30.81040273433943</v>
+        <v>-0.1918959726566057</v>
       </c>
       <c r="L95">
         <v>-0.03800041538436652</v>
@@ -8163,13 +8163,13 @@
         <v>-1.012499999999989</v>
       </c>
       <c r="U95">
-        <v>0.9996956010234389</v>
+        <v>-0.0003043989765610933</v>
       </c>
       <c r="V95">
-        <v>0.9994388975988118</v>
+        <v>-0.0005611024011882293</v>
       </c>
       <c r="W95">
-        <v>1.000994282873477</v>
+        <v>0.00099428287347747</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8204,7 +8204,7 @@
         <v>0.445303975625696</v>
       </c>
       <c r="K96">
-        <v>30.81040273433943</v>
+        <v>-0.1918959726566057</v>
       </c>
       <c r="L96">
         <v>-0.03869823229997164</v>
@@ -8234,13 +8234,13 @@
         <v>-0.8999999999999773</v>
       </c>
       <c r="U96">
-        <v>0.999695508336488</v>
+        <v>-0.0003044916635119854</v>
       </c>
       <c r="V96">
-        <v>0.9995046316936642</v>
+        <v>-0.0004953683063357861</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8275,7 +8275,7 @@
         <v>0.4714136989306605</v>
       </c>
       <c r="K97">
-        <v>32.0381480254844</v>
+        <v>-0.179618519745156</v>
       </c>
       <c r="L97">
         <v>-0.03871146805095311</v>
@@ -8305,13 +8305,13 @@
         <v>-0.7687499999999545</v>
       </c>
       <c r="U97">
-        <v>0.9997036476040732</v>
+        <v>-0.0002963523959268466</v>
       </c>
       <c r="V97">
-        <v>0.9995704680246487</v>
+        <v>-0.0004295319753513382</v>
       </c>
       <c r="W97">
-        <v>1.000248323814254</v>
+        <v>0.0002483238142538813</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8346,7 +8346,7 @@
         <v>0.4355055045469519</v>
       </c>
       <c r="K98">
-        <v>30.33812849672061</v>
+        <v>-0.1966187150327939</v>
       </c>
       <c r="L98">
         <v>-0.03843820443621139</v>
@@ -8376,13 +8376,13 @@
         <v>-0.6625000000000227</v>
       </c>
       <c r="U98">
-        <v>0.9996788563994038</v>
+        <v>-0.0003211436005962076</v>
       </c>
       <c r="V98">
-        <v>0.9996033385670606</v>
+        <v>-0.0003966614329393714</v>
       </c>
       <c r="W98">
-        <v>0.9992552135054618</v>
+        <v>-0.000744786494538241</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8417,7 +8417,7 @@
         <v>0.435505504546952</v>
       </c>
       <c r="K99">
-        <v>30.33812849672063</v>
+        <v>-0.1966187150327937</v>
       </c>
       <c r="L99">
         <v>-0.03786933332559175</v>
@@ -8447,13 +8447,13 @@
         <v>-0.5750000000000455</v>
       </c>
       <c r="U99">
-        <v>0.999703464522825</v>
+        <v>-0.0002965354771750084</v>
       </c>
       <c r="V99">
-        <v>0.9996031811643326</v>
+        <v>-0.0003968188356674451</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8488,7 +8488,7 @@
         <v>0.4235885010821833</v>
       </c>
       <c r="K100">
-        <v>29.7549819178913</v>
+        <v>-0.202450180821087</v>
       </c>
       <c r="L100">
         <v>-0.03711010125162913</v>
@@ -8518,13 +8518,13 @@
         <v>-0.4312499999999773</v>
       </c>
       <c r="U100">
-        <v>0.9996951370235486</v>
+        <v>-0.0003048629764513811</v>
       </c>
       <c r="V100">
-        <v>0.9997849711365102</v>
+        <v>-0.0002150288634897857</v>
       </c>
       <c r="W100">
-        <v>0.999751552795031</v>
+        <v>-0.0002484472049689712</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8559,7 +8559,7 @@
         <v>0.3798266904584145</v>
       </c>
       <c r="K101">
-        <v>27.52713026099141</v>
+        <v>-0.2247286973900859</v>
       </c>
       <c r="L101">
         <v>-0.03650928666964637</v>
@@ -8589,13 +8589,13 @@
         <v>-0.4124999999999659</v>
       </c>
       <c r="U101">
-        <v>0.9996455917381665</v>
+        <v>-0.0003544082618335276</v>
       </c>
       <c r="V101">
-        <v>0.9996029382568991</v>
+        <v>-0.000397061743100946</v>
       </c>
       <c r="W101">
-        <v>0.9990059642147118</v>
+        <v>-0.0009940357852882276</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8630,7 +8630,7 @@
         <v>0.3798266904584144</v>
       </c>
       <c r="K102">
-        <v>27.52713026099141</v>
+        <v>-0.2247286973900859</v>
       </c>
       <c r="L102">
         <v>-0.03591051996750973</v>
@@ -8660,13 +8660,13 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="U102">
-        <v>0.9996289761390432</v>
+        <v>-0.0003710238609567762</v>
       </c>
       <c r="V102">
-        <v>0.9996524329692154</v>
+        <v>-0.0003475670307846457</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8701,7 +8701,7 @@
         <v>0.3020335056861596</v>
       </c>
       <c r="K103">
-        <v>23.19706093331222</v>
+        <v>-0.2680293906668778</v>
       </c>
       <c r="L103">
         <v>-0.0360317951531301</v>
@@ -8731,13 +8731,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U103">
-        <v>0.9995216139754703</v>
+        <v>-0.0004783860245296534</v>
       </c>
       <c r="V103">
-        <v>0.9996026424278548</v>
+        <v>-0.0003973575721452072</v>
       </c>
       <c r="W103">
-        <v>0.9977611940298508</v>
+        <v>-0.002238805970149249</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8772,7 +8772,7 @@
         <v>0.3259881627194346</v>
       </c>
       <c r="K104">
-        <v>24.58454546463476</v>
+        <v>-0.2541545453536525</v>
       </c>
       <c r="L104">
         <v>-0.03636168503490603</v>
@@ -8802,13 +8802,13 @@
         <v>-0.3562499999999886</v>
       </c>
       <c r="U104">
-        <v>0.9995461409603659</v>
+        <v>-0.0004538590396341302</v>
       </c>
       <c r="V104">
-        <v>0.9996687370600414</v>
+        <v>-0.0003312629399585543</v>
       </c>
       <c r="W104">
-        <v>1.00024931438544</v>
+        <v>0.0002493143854398472</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8843,7 +8843,7 @@
         <v>0.2770811273218262</v>
       </c>
       <c r="K105">
-        <v>21.69643896491482</v>
+        <v>-0.2830356103508518</v>
       </c>
       <c r="L105">
         <v>-0.03729673860848423</v>
@@ -8873,13 +8873,13 @@
         <v>-0.4750000000000227</v>
       </c>
       <c r="U105">
-        <v>0.9994964005019482</v>
+        <v>-0.0005035994980517877</v>
       </c>
       <c r="V105">
-        <v>0.9995692154751056</v>
+        <v>-0.0004307845248944231</v>
       </c>
       <c r="W105">
-        <v>0.9982552342971087</v>
+        <v>-0.001744765702891282</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8914,7 +8914,7 @@
         <v>0.2770811273218261</v>
       </c>
       <c r="K106">
-        <v>21.69643896491482</v>
+        <v>-0.2830356103508518</v>
       </c>
       <c r="L106">
         <v>-0.03840474718900884</v>
@@ -8944,13 +8944,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U106">
-        <v>0.9995457060966242</v>
+        <v>-0.0004542939033758131</v>
       </c>
       <c r="V106">
-        <v>0.999585605595982</v>
+        <v>-0.0004143944040180259</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8985,7 +8985,7 @@
         <v>0.3008289751346014</v>
       </c>
       <c r="K107">
-        <v>23.12594360096212</v>
+        <v>-0.2687405639903788</v>
       </c>
       <c r="L107">
         <v>-0.03931833926450502</v>
@@ -9015,13 +9015,13 @@
         <v>-0.6499999999999773</v>
       </c>
       <c r="U107">
-        <v>0.9995372359765973</v>
+        <v>-0.0004627640234027286</v>
       </c>
       <c r="V107">
-        <v>0.9996849296895728</v>
+        <v>-0.0003150703104272123</v>
       </c>
       <c r="W107">
-        <v>1.000249687890137</v>
+        <v>0.0002496878901374622</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9056,7 +9056,7 @@
         <v>0.2615935051414897</v>
       </c>
       <c r="K108">
-        <v>20.73516581017525</v>
+        <v>-0.2926483418982475</v>
       </c>
       <c r="L108">
         <v>-0.04045545068227362</v>
@@ -9086,13 +9086,13 @@
         <v>-0.7937499999999886</v>
       </c>
       <c r="U108">
-        <v>0.9994791494427726</v>
+        <v>-0.0005208505572273925</v>
       </c>
       <c r="V108">
-        <v>0.9995521273948744</v>
+        <v>-0.0004478726051255766</v>
       </c>
       <c r="W108">
-        <v>0.9985022466300548</v>
+        <v>-0.001497753369945176</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9127,7 +9127,7 @@
         <v>0.2501460743430761</v>
       </c>
       <c r="K109">
-        <v>20.00934766559358</v>
+        <v>-0.2999065233440642</v>
       </c>
       <c r="L109">
         <v>-0.04169047021804768</v>
@@ -9157,13 +9157,13 @@
         <v>-0.8875000000000455</v>
       </c>
       <c r="U109">
-        <v>0.9994623344610526</v>
+        <v>-0.0005376655389474072</v>
       </c>
       <c r="V109">
-        <v>0.9995851173288194</v>
+        <v>-0.0004148826711806164</v>
       </c>
       <c r="W109">
-        <v>0.9995000000000001</v>
+        <v>-0.0004999999999999449</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9198,7 +9198,7 @@
         <v>0.3883367432938296</v>
       </c>
       <c r="K110">
-        <v>27.97136538881054</v>
+        <v>-0.2202863461118946</v>
       </c>
       <c r="L110">
         <v>-0.04221394791396755</v>
@@ -9228,13 +9228,13 @@
         <v>-0.96875</v>
       </c>
       <c r="U110">
-        <v>0.9995282550402224</v>
+        <v>-0.0004717449597776424</v>
       </c>
       <c r="V110">
-        <v>0.9996181495193663</v>
+        <v>-0.0003818504806336609</v>
       </c>
       <c r="W110">
-        <v>1.001500750375188</v>
+        <v>0.001500750375187598</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9269,7 +9269,7 @@
         <v>0.3883367432938296</v>
       </c>
       <c r="K111">
-        <v>27.97136538881054</v>
+        <v>-0.2202863461118946</v>
       </c>
       <c r="L111">
         <v>-0.04211985975481312</v>
@@ -9299,13 +9299,13 @@
         <v>-0.9124999999999659</v>
       </c>
       <c r="U111">
-        <v>0.9995611529257852</v>
+        <v>-0.0004388470742148209</v>
       </c>
       <c r="V111">
-        <v>0.9996180036538782</v>
+        <v>-0.0003819963461217935</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9340,7 +9340,7 @@
         <v>0.3883367432938296</v>
       </c>
       <c r="K112">
-        <v>27.97136538881054</v>
+        <v>-0.2202863461118946</v>
       </c>
       <c r="L112">
         <v>-0.0415046516985174</v>
@@ -9370,13 +9370,13 @@
         <v>-0.8687500000000341</v>
       </c>
       <c r="U112">
-        <v>0.9995858115608277</v>
+        <v>-0.0004141884391722916</v>
       </c>
       <c r="V112">
-        <v>0.9996012427932943</v>
+        <v>-0.0003987572067056799</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9411,7 +9411,7 @@
         <v>0.4420630081335216</v>
       </c>
       <c r="K113">
-        <v>30.65490243076748</v>
+        <v>-0.1934509756923252</v>
       </c>
       <c r="L113">
         <v>-0.04028115884301411</v>
@@ -9441,13 +9441,13 @@
         <v>-0.7187499999999432</v>
       </c>
       <c r="U113">
-        <v>0.999643650346405</v>
+        <v>-0.0003563496535949895</v>
       </c>
       <c r="V113">
-        <v>0.9996841912803549</v>
+        <v>-0.0003158087196450943</v>
       </c>
       <c r="W113">
-        <v>1.000499500499501</v>
+        <v>0.0004995004995005381</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9482,7 +9482,7 @@
         <v>0.3971429883989042</v>
       </c>
       <c r="K114">
-        <v>28.42536459736462</v>
+        <v>-0.2157463540263538</v>
       </c>
       <c r="L114">
         <v>-0.0389822788400271</v>
@@ -9512,13 +9512,13 @@
         <v>-0.6125000000000682</v>
       </c>
       <c r="U114">
-        <v>0.9996103626943006</v>
+        <v>-0.0003896373056994085</v>
       </c>
       <c r="V114">
-        <v>0.9996175844639532</v>
+        <v>-0.0003824155360467874</v>
       </c>
       <c r="W114">
-        <v>0.9990014977533699</v>
+        <v>-0.0009985022466301174</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9553,7 +9553,7 @@
         <v>0.3769815171551374</v>
       </c>
       <c r="K115">
-        <v>27.37738397055513</v>
+        <v>-0.2262261602944487</v>
       </c>
       <c r="L115">
         <v>-0.03775995379177487</v>
@@ -9583,13 +9583,13 @@
         <v>-0.5312500000000568</v>
       </c>
       <c r="U115">
-        <v>0.999693144686427</v>
+        <v>-0.0003068553135729957</v>
       </c>
       <c r="V115">
-        <v>0.9996008050431631</v>
+        <v>-0.0003991949568369346</v>
       </c>
       <c r="W115">
-        <v>0.9995002498750625</v>
+        <v>-0.0004997501249375258</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9624,7 +9624,7 @@
         <v>0.4571387977662965</v>
       </c>
       <c r="K116">
-        <v>31.37235783352018</v>
+        <v>-0.1862764216647982</v>
       </c>
       <c r="L116">
         <v>-0.03625322620395501</v>
@@ -9654,13 +9654,13 @@
         <v>-0.3625000000000114</v>
       </c>
       <c r="U116">
-        <v>0.999659866767324</v>
+        <v>-0.0003401332326760098</v>
       </c>
       <c r="V116">
-        <v>0.9997171239828943</v>
+        <v>-0.0002828760171057487</v>
       </c>
       <c r="W116">
-        <v>1.00075</v>
+        <v>0.0007500000000000284</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9695,7 +9695,7 @@
         <v>0.5415148826201482</v>
       </c>
       <c r="K117">
-        <v>35.12874826740064</v>
+        <v>-0.1487125173259936</v>
       </c>
       <c r="L117">
         <v>-0.03426645485235468</v>
@@ -9725,13 +9725,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U117">
-        <v>0.9997095435684648</v>
+        <v>-0.0002904564315352465</v>
       </c>
       <c r="V117">
-        <v>0.9997669773635153</v>
+        <v>-0.0002330226364847254</v>
       </c>
       <c r="W117">
-        <v>1.000749437921559</v>
+        <v>0.0007494379215589042</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9766,7 +9766,7 @@
         <v>0.5112434968839594</v>
       </c>
       <c r="K118">
-        <v>33.82932650748175</v>
+        <v>-0.1617067349251824</v>
       </c>
       <c r="L118">
         <v>-0.03217159110929784</v>
@@ -9796,13 +9796,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U118">
-        <v>0.99974266384427</v>
+        <v>-0.0002573361557299814</v>
       </c>
       <c r="V118">
-        <v>0.9998834615256551</v>
+        <v>-0.0001165384743448961</v>
       </c>
       <c r="W118">
-        <v>0.9995007488766848</v>
+        <v>-0.0004992511233151697</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9837,7 +9837,7 @@
         <v>0.4138370574401215</v>
       </c>
       <c r="K119">
-        <v>29.27049162153173</v>
+        <v>-0.2072950837846827</v>
       </c>
       <c r="L119">
         <v>-0.03075270853945864</v>
@@ -9867,13 +9867,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U119">
-        <v>0.9997010810900576</v>
+        <v>-0.0002989189099423806</v>
       </c>
       <c r="V119">
-        <v>0.9997335952979571</v>
+        <v>-0.0002664047020428661</v>
       </c>
       <c r="W119">
-        <v>0.9980019980019981</v>
+        <v>-0.00199800199800193</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9908,7 +9908,7 @@
         <v>0.5893238028546056</v>
       </c>
       <c r="K120">
-        <v>37.08015961229004</v>
+        <v>-0.1291984038770996</v>
       </c>
       <c r="L120">
         <v>-0.02908774864124519</v>
@@ -9938,13 +9938,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U120">
-        <v>0.999767437997309</v>
+        <v>-0.0002325620026909503</v>
       </c>
       <c r="V120">
-        <v>0.9999666905384474</v>
+        <v>-3.330946155255532E-05</v>
       </c>
       <c r="W120">
-        <v>1.001751751751752</v>
+        <v>0.001751751751751796</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9979,7 +9979,7 @@
         <v>0.6157127871274518</v>
       </c>
       <c r="K121">
-        <v>38.10781173689398</v>
+        <v>-0.1189218826310602</v>
       </c>
       <c r="L121">
         <v>-0.02718306713699782</v>
@@ -10009,13 +10009,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U121">
-        <v>0.9997839993353826</v>
+        <v>-0.0002160006646173551</v>
       </c>
       <c r="V121">
-        <v>0.9999833447144451</v>
+        <v>-1.665528555494511E-05</v>
       </c>
       <c r="W121">
-        <v>1.000249812640519</v>
+        <v>0.0002498126405194867</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10050,7 +10050,7 @@
         <v>0.5541413081175465</v>
       </c>
       <c r="K122">
-        <v>35.65578658923557</v>
+        <v>-0.1434421341076442</v>
       </c>
       <c r="L122">
         <v>-0.02551827202905103</v>
@@ -10080,13 +10080,13 @@
         <v>-0.04999999999995453</v>
       </c>
       <c r="U122">
-        <v>0.9997922621817457</v>
+        <v>-0.0002077378182543388</v>
       </c>
       <c r="V122">
-        <v>0.9999000666222517</v>
+        <v>-9.99333777482736E-05</v>
       </c>
       <c r="W122">
-        <v>0.999000999000999</v>
+        <v>-0.0009990009990009652</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10121,7 +10121,7 @@
         <v>0.5399325115901378</v>
       </c>
       <c r="K123">
-        <v>35.06208924913223</v>
+        <v>-0.1493791075086777</v>
       </c>
       <c r="L123">
         <v>-0.02410289554772043</v>
@@ -10151,13 +10151,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U123">
-        <v>0.999767285299911</v>
+        <v>-0.0002327147000890095</v>
       </c>
       <c r="V123">
-        <v>0.9999833427724291</v>
+        <v>-1.665722757093757E-05</v>
       </c>
       <c r="W123">
-        <v>0.9997499999999999</v>
+        <v>-0.0002500000000000835</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10192,7 +10192,7 @@
         <v>0.6748857058790935</v>
       </c>
       <c r="K124">
-        <v>40.29443343567541</v>
+        <v>-0.09705566564324591</v>
       </c>
       <c r="L124">
         <v>-0.02238737997544379</v>
@@ -10222,13 +10222,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U124">
-        <v>0.9998420496961535</v>
+        <v>-0.0001579503038464658</v>
       </c>
       <c r="V124">
-        <v>1.000099945030233</v>
+        <v>9.994503023325052E-05</v>
       </c>
       <c r="W124">
-        <v>1.001250312578144</v>
+        <v>0.001250312578144452</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10263,7 +10263,7 @@
         <v>0.5765951493887467</v>
       </c>
       <c r="K125">
-        <v>36.57217578097303</v>
+        <v>-0.1342782421902697</v>
       </c>
       <c r="L125">
         <v>-0.02106237860407012</v>
@@ -10293,13 +10293,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U125">
-        <v>0.9997588798722894</v>
+        <v>-0.0002411201277106034</v>
       </c>
       <c r="V125">
-        <v>0.9999000649577775</v>
+        <v>-9.993504222249872E-05</v>
       </c>
       <c r="W125">
-        <v>0.9985014985014986</v>
+        <v>-0.001498501498501392</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10334,7 +10334,7 @@
         <v>0.6276970089444963</v>
       </c>
       <c r="K126">
-        <v>38.56350447873191</v>
+        <v>-0.1143649552126809</v>
       </c>
       <c r="L126">
         <v>-0.01980030567509243</v>
@@ -10364,13 +10364,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U126">
-        <v>0.9997754547042239</v>
+        <v>-0.0002245452957760907</v>
       </c>
       <c r="V126">
-        <v>0.9999333699798445</v>
+        <v>-6.663002015550035E-05</v>
       </c>
       <c r="W126">
-        <v>1.000500250125063</v>
+        <v>0.0005002501250626068</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10405,7 +10405,7 @@
         <v>0.5956558294296764</v>
       </c>
       <c r="K127">
-        <v>37.32984384499616</v>
+        <v>-0.1267015615500384</v>
       </c>
       <c r="L127">
         <v>-0.01876638595631127</v>
@@ -10435,13 +10435,13 @@
         <v>-0.09375000000005684</v>
       </c>
       <c r="U127">
-        <v>0.9997504491914555</v>
+        <v>-0.0002495508085444964</v>
       </c>
       <c r="V127">
-        <v>0.9999000483099835</v>
+        <v>-9.995169001653093E-05</v>
       </c>
       <c r="W127">
-        <v>0.9995000000000001</v>
+        <v>-0.0004999999999999449</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10476,7 +10476,7 @@
         <v>0.6493880551746032</v>
       </c>
       <c r="K128">
-        <v>39.37145374233108</v>
+        <v>-0.1062854625766891</v>
       </c>
       <c r="L128">
         <v>-0.01768668828547731</v>
@@ -10506,13 +10506,13 @@
         <v>-0.1062500000000455</v>
       </c>
       <c r="U128">
-        <v>0.9997919890835871</v>
+        <v>-0.0002080109164128707</v>
       </c>
       <c r="V128">
-        <v>0.9999000383186446</v>
+        <v>-9.996168135539829E-05</v>
       </c>
       <c r="W128">
-        <v>1.000500250125063</v>
+        <v>0.0005002501250626068</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10547,7 +10547,7 @@
         <v>0.6776681739877306</v>
       </c>
       <c r="K129">
-        <v>40.39345709091855</v>
+        <v>-0.09606542909081456</v>
       </c>
       <c r="L129">
         <v>-0.01649278685566099</v>
@@ -10577,13 +10577,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U129">
-        <v>0.9998002679738018</v>
+        <v>-0.0001997320261981628</v>
       </c>
       <c r="V129">
-        <v>0.9999833380542177</v>
+        <v>-1.666194578231472E-05</v>
       </c>
       <c r="W129">
-        <v>1.00025</v>
+        <v>0.0002500000000000835</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10618,7 +10618,7 @@
         <v>0.6221102233618439</v>
       </c>
       <c r="K130">
-        <v>38.35190817505068</v>
+        <v>-0.1164809182494932</v>
       </c>
       <c r="L130">
         <v>-0.01551829765494744</v>
@@ -10648,13 +10648,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U130">
-        <v>0.9997835804123625</v>
+        <v>-0.0002164195876375175</v>
       </c>
       <c r="V130">
-        <v>0.9999666755531859</v>
+        <v>-3.332444681414248E-05</v>
       </c>
       <c r="W130">
-        <v>0.9992501874531367</v>
+        <v>-0.0007498125468633488</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10689,7 +10689,7 @@
         <v>0.650876540730342</v>
       </c>
       <c r="K131">
-        <v>39.42611846930701</v>
+        <v>-0.1057388153069299</v>
       </c>
       <c r="L131">
         <v>-0.01459152971806332</v>
@@ -10719,13 +10719,13 @@
         <v>-0.1062499999999318</v>
       </c>
       <c r="U131">
-        <v>0.999825161725404</v>
+        <v>-0.0001748382745959676</v>
       </c>
       <c r="V131">
-        <v>0.9999333488852602</v>
+        <v>-6.66511147398019E-05</v>
       </c>
       <c r="W131">
-        <v>1.000250125062531</v>
+        <v>0.0002501250625310814</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10760,7 +10760,7 @@
         <v>0.6508765407303418</v>
       </c>
       <c r="K132">
-        <v>39.426118469307</v>
+        <v>-0.10573881530693</v>
       </c>
       <c r="L132">
         <v>-0.01369962151200132</v>
@@ -10790,13 +10790,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U132">
-        <v>0.9998251311516362</v>
+        <v>-0.0001748688483638183</v>
       </c>
       <c r="V132">
-        <v>0.9998833527745377</v>
+        <v>-0.0001166472254623407</v>
       </c>
       <c r="W132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10831,7 +10831,7 @@
         <v>0.7783726841918838</v>
       </c>
       <c r="K133">
-        <v>43.76881691396349</v>
+        <v>-0.06231183086036507</v>
       </c>
       <c r="L133">
         <v>-0.0124721239471487</v>
@@ -10861,13 +10861,13 @@
         <v>-0.06250000000005684</v>
       </c>
       <c r="U133">
-        <v>0.9999333716446377</v>
+        <v>-6.662835536230816E-05</v>
       </c>
       <c r="V133">
-        <v>0.999983334166625</v>
+        <v>-1.666583337500693E-05</v>
       </c>
       <c r="W133">
-        <v>1.001000250062516</v>
+        <v>0.001000250062515695</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10902,7 +10902,7 @@
         <v>1.080337234495502</v>
       </c>
       <c r="K134">
-        <v>51.93087046569602</v>
+        <v>0.01930870465696022</v>
       </c>
       <c r="L134">
         <v>-0.01025560326692151</v>
@@ -10932,13 +10932,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U134">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V134">
-        <v>1.000266657778074</v>
+        <v>0.0002666577780738866</v>
       </c>
       <c r="W134">
-        <v>1.002248313764676</v>
+        <v>0.002248313764676491</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10973,7 +10973,7 @@
         <v>1.043483997529093</v>
       </c>
       <c r="K135">
-        <v>51.06396716543101</v>
+        <v>0.01063967165431012</v>
       </c>
       <c r="L135">
         <v>-0.007634350378238293</v>
@@ -11003,13 +11003,13 @@
         <v>0.1062500000000455</v>
       </c>
       <c r="U135">
-        <v>1.000049974596247</v>
+        <v>4.99745962470044E-05</v>
       </c>
       <c r="V135">
-        <v>1.00013329334533</v>
+        <v>0.0001332933453295215</v>
       </c>
       <c r="W135">
-        <v>0.9997507477567299</v>
+        <v>-0.0002492522432701039</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11044,7 +11044,7 @@
         <v>1.151208362973358</v>
       </c>
       <c r="K136">
-        <v>53.51449830653225</v>
+        <v>0.03514498306532254</v>
       </c>
       <c r="L136">
         <v>-0.004634129703138382</v>
@@ -11074,13 +11074,13 @@
         <v>0.2125000000000341</v>
       </c>
       <c r="U136">
-        <v>1.000074958148367</v>
+        <v>7.495814836699921E-05</v>
       </c>
       <c r="V136">
-        <v>1.000166594475727</v>
+        <v>0.0001665944757274218</v>
       </c>
       <c r="W136">
-        <v>1.00074794315632</v>
+        <v>0.0007479431563199856</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11115,7 +11115,7 @@
         <v>1.151208362973358</v>
       </c>
       <c r="K137">
-        <v>53.51449830653225</v>
+        <v>0.03514498306532254</v>
       </c>
       <c r="L137">
         <v>-0.001578562736079381</v>
@@ -11145,13 +11145,13 @@
         <v>0.3125</v>
       </c>
       <c r="U137">
-        <v>1.000066624471168</v>
+        <v>6.662447116845271E-05</v>
       </c>
       <c r="V137">
-        <v>1.000233193417283</v>
+        <v>0.0002331934172827843</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11186,7 +11186,7 @@
         <v>1.028450295916741</v>
       </c>
       <c r="K138">
-        <v>50.7012815639114</v>
+        <v>0.007012815639114045</v>
       </c>
       <c r="L138">
         <v>0.001048630692457837</v>
@@ -11216,13 +11216,13 @@
         <v>0.40625</v>
       </c>
       <c r="U138">
-        <v>1.000091602544885</v>
+        <v>9.160254488516095E-05</v>
       </c>
       <c r="V138">
-        <v>1.000199833472107</v>
+        <v>0.0001998334721065032</v>
       </c>
       <c r="W138">
-        <v>0.9992526158445442</v>
+        <v>-0.0007473841554558325</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11257,7 +11257,7 @@
         <v>1.103281242894111</v>
       </c>
       <c r="K139">
-        <v>52.45524090615662</v>
+        <v>0.02455240906156619</v>
       </c>
       <c r="L139">
         <v>0.003426819544201914</v>
@@ -11287,13 +11287,13 @@
         <v>0.4937499999999773</v>
       </c>
       <c r="U139">
-        <v>1.000124901119947</v>
+        <v>0.0001249011199466743</v>
       </c>
       <c r="V139">
-        <v>1.000149845160001</v>
+        <v>0.0001498451600014938</v>
       </c>
       <c r="W139">
-        <v>1.00049862877088</v>
+        <v>0.0004986287708801385</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11328,7 +11328,7 @@
         <v>1.221435369700495</v>
       </c>
       <c r="K140">
-        <v>54.98406059255169</v>
+        <v>0.04984060592551698</v>
       </c>
       <c r="L140">
         <v>0.005762804825503997</v>
@@ -11358,13 +11358,13 @@
         <v>0.6312499999999659</v>
       </c>
       <c r="U140">
-        <v>1.000099908417284</v>
+        <v>9.990841728413358E-05</v>
       </c>
       <c r="V140">
-        <v>1.000299645419587</v>
+        <v>0.0002996454195867138</v>
       </c>
       <c r="W140">
-        <v>1.000747570396212</v>
+        <v>0.0007475703962123159</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11399,7 +11399,7 @@
         <v>1.127914167216274</v>
       </c>
       <c r="K141">
-        <v>53.00562328093362</v>
+        <v>0.03005623280933623</v>
       </c>
       <c r="L141">
         <v>0.007721264309663458</v>
@@ -11429,13 +11429,13 @@
         <v>0.6687499999999886</v>
       </c>
       <c r="U141">
-        <v>1.000083248697158</v>
+        <v>8.324869715781169E-05</v>
       </c>
       <c r="V141">
-        <v>1.00023298773486</v>
+        <v>0.000232987734860135</v>
       </c>
       <c r="W141">
-        <v>0.9995019920318724</v>
+        <v>-0.0004980079681276006</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11470,7 +11470,7 @@
         <v>1.289107093961382</v>
       </c>
       <c r="K142">
-        <v>56.31484421860473</v>
+        <v>0.06314844218604732</v>
       </c>
       <c r="L142">
         <v>0.009661640748772342</v>
@@ -11500,13 +11500,13 @@
         <v>0.6312500000000227</v>
       </c>
       <c r="U142">
-        <v>1.000116538474345</v>
+        <v>0.0001165384743448961</v>
       </c>
       <c r="V142">
-        <v>1.000332762091742</v>
+        <v>0.0003327620917423779</v>
       </c>
       <c r="W142">
-        <v>1.000996512207275</v>
+        <v>0.0009965122072745913</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11541,7 +11541,7 @@
         <v>1.027573956789814</v>
       </c>
       <c r="K143">
-        <v>50.6799741310909</v>
+        <v>0.006799741310908991</v>
       </c>
       <c r="L143">
         <v>0.01088637797000567</v>
@@ -11571,13 +11571,13 @@
         <v>0.5562499999999773</v>
       </c>
       <c r="U143">
-        <v>1.000049939240591</v>
+        <v>4.993924059060184E-05</v>
       </c>
       <c r="V143">
-        <v>1.000199590838781</v>
+        <v>0.0001995908387806278</v>
       </c>
       <c r="W143">
-        <v>0.9985067197610751</v>
+        <v>-0.001493280238924921</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11612,7 +11612,7 @@
         <v>0.992256704217328</v>
       </c>
       <c r="K144">
-        <v>49.80566520955155</v>
+        <v>-0.001943347904484527</v>
       </c>
       <c r="L144">
         <v>0.01146889357296136</v>
@@ -11642,13 +11642,13 @@
         <v>0.4499999999999886</v>
       </c>
       <c r="U144">
-        <v>1.000074905120181</v>
+        <v>7.490512018093476E-05</v>
       </c>
       <c r="V144">
-        <v>1.000166292508522</v>
+        <v>0.0001662925085224032</v>
       </c>
       <c r="W144">
-        <v>0.9997507477567299</v>
+        <v>-0.0002492522432701039</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11683,7 +11683,7 @@
         <v>0.8668163421253061</v>
       </c>
       <c r="K145">
-        <v>46.43286661710201</v>
+        <v>-0.03567133382897991</v>
       </c>
       <c r="L145">
         <v>0.0112198409965218</v>
@@ -11713,13 +11713,13 @@
         <v>0.3250000000000455</v>
       </c>
       <c r="U145">
-        <v>1.000058255174308</v>
+        <v>5.825517430779747E-05</v>
       </c>
       <c r="V145">
-        <v>1.00014963837393</v>
+        <v>0.0001496383739296725</v>
       </c>
       <c r="W145">
-        <v>0.9990027424582397</v>
+        <v>-0.0009972575417602769</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11754,7 +11754,7 @@
         <v>0.8389073806781772</v>
       </c>
       <c r="K146">
-        <v>45.61988219160845</v>
+        <v>-0.04380117808391548</v>
       </c>
       <c r="L146">
         <v>0.01035130092713967</v>
@@ -11784,13 +11784,13 @@
         <v>0.2124999999999773</v>
       </c>
       <c r="U146">
-        <v>1.000024965048931</v>
+        <v>2.49650489314579E-05</v>
       </c>
       <c r="V146">
-        <v>1.000116367988829</v>
+        <v>0.0001163679888287472</v>
       </c>
       <c r="W146">
-        <v>0.9997504367357126</v>
+        <v>-0.000249563264287378</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11825,7 +11825,7 @@
         <v>0.8389073806781771</v>
       </c>
       <c r="K147">
-        <v>45.61988219160845</v>
+        <v>-0.04380117808391554</v>
       </c>
       <c r="L147">
         <v>0.009125295706449883</v>
@@ -11855,13 +11855,13 @@
         <v>0.08124999999995453</v>
       </c>
       <c r="U147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V147">
-        <v>1.000116354448895</v>
+        <v>0.0001163544488953505</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11896,7 +11896,7 @@
         <v>0.9816091526789985</v>
       </c>
       <c r="K148">
-        <v>49.53596178903044</v>
+        <v>-0.00464038210969564</v>
       </c>
       <c r="L148">
         <v>0.008091270063476517</v>
@@ -11926,13 +11926,13 @@
         <v>-0.06250000000005684</v>
       </c>
       <c r="U148">
-        <v>1.000049928851387</v>
+        <v>4.99288513868823E-05</v>
       </c>
       <c r="V148">
-        <v>1.000116340912113</v>
+        <v>0.0001163409121127668</v>
       </c>
       <c r="W148">
-        <v>1.00099850224663</v>
+        <v>0.0009985022466298954</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11967,7 +11967,7 @@
         <v>0.8822189849582224</v>
       </c>
       <c r="K149">
-        <v>46.87121913063714</v>
+        <v>-0.03128780869362863</v>
       </c>
       <c r="L149">
         <v>0.006937349275367514</v>
@@ -11997,13 +11997,13 @@
         <v>-0.1749999999999545</v>
       </c>
       <c r="U149">
-        <v>1.000091531657472</v>
+        <v>9.153165747188829E-05</v>
       </c>
       <c r="V149">
-        <v>0.9999169090153718</v>
+        <v>-8.309098462822018E-05</v>
       </c>
       <c r="W149">
-        <v>0.9992518703241895</v>
+        <v>-0.0007481296758105049</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12038,7 +12038,7 @@
         <v>0.8822189849582223</v>
       </c>
       <c r="K150">
-        <v>46.87121913063713</v>
+        <v>-0.03128780869362868</v>
       </c>
       <c r="L150">
         <v>0.005759118205988909</v>
@@ -12068,13 +12068,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U150">
-        <v>1.000033281192798</v>
+        <v>3.328119279810693E-05</v>
       </c>
       <c r="V150">
-        <v>0.9999335216885492</v>
+        <v>-6.647831145079053E-05</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12109,7 +12109,7 @@
         <v>0.9196159500545548</v>
       </c>
       <c r="K151">
-        <v>47.90624656085087</v>
+        <v>-0.02093753439149132</v>
       </c>
       <c r="L151">
         <v>0.004711159887306757</v>
@@ -12139,13 +12139,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U151">
-        <v>1.000033280085197</v>
+        <v>3.328008519676295E-05</v>
       </c>
       <c r="V151">
-        <v>0.9999002759033341</v>
+        <v>-9.972409666592075E-05</v>
       </c>
       <c r="W151">
-        <v>1.000249563264288</v>
+        <v>0.0002495632642876</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12180,7 +12180,7 @@
         <v>0.8224841282546947</v>
       </c>
       <c r="K152">
-        <v>45.1298376487014</v>
+        <v>-0.04870162351298601</v>
       </c>
       <c r="L152">
         <v>0.003519182525962691</v>
@@ -12210,13 +12210,13 @@
         <v>-0.3312499999999545</v>
       </c>
       <c r="U152">
-        <v>1.000041598722087</v>
+        <v>4.159872208719939E-05</v>
       </c>
       <c r="V152">
-        <v>0.9998503989361703</v>
+        <v>-0.000149601063829663</v>
       </c>
       <c r="W152">
-        <v>0.999251497005988</v>
+        <v>-0.0007485029940119681</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12251,7 +12251,7 @@
         <v>0.7930918228648025</v>
       </c>
       <c r="K153">
-        <v>44.23040765406473</v>
+        <v>-0.05769592345935265</v>
       </c>
       <c r="L153">
         <v>0.002212274991030949</v>
@@ -12281,13 +12281,13 @@
         <v>-0.3062499999999773</v>
       </c>
       <c r="U153">
-        <v>1.000041596991706</v>
+        <v>4.159699170558362E-05</v>
       </c>
       <c r="V153">
-        <v>0.9998836262073779</v>
+        <v>-0.000116373792622082</v>
       </c>
       <c r="W153">
-        <v>0.9997503121098626</v>
+        <v>-0.0002496878901373512</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12322,7 +12322,7 @@
         <v>0.9811761139082734</v>
       </c>
       <c r="K154">
-        <v>49.52493153032739</v>
+        <v>-0.004750684696726071</v>
       </c>
       <c r="L154">
         <v>0.001365226616692739</v>
@@ -12352,13 +12352,13 @@
         <v>-0.2562500000000227</v>
       </c>
       <c r="U154">
-        <v>1.000041595261468</v>
+        <v>4.159526146785275E-05</v>
       </c>
       <c r="V154">
-        <v>0.9999334929502528</v>
+        <v>-6.650704974719979E-05</v>
       </c>
       <c r="W154">
-        <v>1.001248751248751</v>
+        <v>0.001248751248751345</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12393,7 +12393,7 @@
         <v>0.6312437857357013</v>
       </c>
       <c r="K155">
-        <v>38.69708447355135</v>
+        <v>-0.1130291552644865</v>
       </c>
       <c r="L155">
         <v>-0.0004261359989204495</v>
@@ -12423,13 +12423,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U155">
-        <v>0.9999750438811758</v>
+        <v>-2.495611882424864E-05</v>
       </c>
       <c r="V155">
-        <v>0.9996508147655471</v>
+        <v>-0.0003491852344529311</v>
       </c>
       <c r="W155">
-        <v>0.9965078573210278</v>
+        <v>-0.003492142678972243</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12464,7 +12464,7 @@
         <v>0.5566143949731192</v>
       </c>
       <c r="K156">
-        <v>35.75801410873702</v>
+        <v>-0.1424198589126299</v>
       </c>
       <c r="L156">
         <v>-0.003128151846734783</v>
@@ -12494,13 +12494,13 @@
         <v>-0.3687500000000341</v>
       </c>
       <c r="U156">
-        <v>0.9999168108611739</v>
+        <v>-8.318913882610079E-05</v>
       </c>
       <c r="V156">
-        <v>0.9996007917630033</v>
+        <v>-0.0003992082369966843</v>
       </c>
       <c r="W156">
-        <v>0.9987484355444305</v>
+        <v>-0.001251564455569509</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12535,7 +12535,7 @@
         <v>0.6810627542432862</v>
       </c>
       <c r="K157">
-        <v>40.5138209459563</v>
+        <v>-0.09486179054043703</v>
       </c>
       <c r="L157">
         <v>-0.005744230032387578</v>
@@ -12565,13 +12565,13 @@
         <v>-0.4000000000000341</v>
       </c>
       <c r="U157">
-        <v>0.9999750411820495</v>
+        <v>-2.495881795050447E-05</v>
       </c>
       <c r="V157">
-        <v>0.9996172726516351</v>
+        <v>-0.0003827273483648641</v>
       </c>
       <c r="W157">
-        <v>1.00125313283208</v>
+        <v>0.001253132832080173</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12606,7 +12606,7 @@
         <v>0.5885447407559223</v>
       </c>
       <c r="K158">
-        <v>37.04930214781728</v>
+        <v>-0.1295069785218272</v>
       </c>
       <c r="L158">
         <v>-0.008666033335255419</v>
@@ -12636,13 +12636,13 @@
         <v>-0.4437500000000227</v>
       </c>
       <c r="U158">
-        <v>0.9999084820500022</v>
+        <v>-9.151794999784357E-05</v>
       </c>
       <c r="V158">
-        <v>0.999617126115328</v>
+        <v>-0.0003828738846719526</v>
       </c>
       <c r="W158">
-        <v>0.9984981226533166</v>
+        <v>-0.001501877346683389</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12677,7 +12677,7 @@
         <v>0.5617683771265748</v>
       </c>
       <c r="K159">
-        <v>35.9700186886961</v>
+        <v>-0.140299813113039</v>
       </c>
       <c r="L159">
         <v>-0.01173750161046871</v>
@@ -12707,13 +12707,13 @@
         <v>-0.5500000000000114</v>
       </c>
       <c r="U159">
-        <v>0.9998835119483458</v>
+        <v>-0.0001164880516542066</v>
       </c>
       <c r="V159">
-        <v>0.9996003264001067</v>
+        <v>-0.0003996735998933465</v>
       </c>
       <c r="W159">
-        <v>0.9994986212083229</v>
+        <v>-0.0005013787916771095</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12748,7 +12748,7 @@
         <v>0.6336039844487052</v>
       </c>
       <c r="K160">
-        <v>38.78565371291797</v>
+        <v>-0.1121434628708203</v>
       </c>
       <c r="L160">
         <v>-0.01438915806775253</v>
@@ -12778,13 +12778,13 @@
         <v>-0.6062500000000455</v>
       </c>
       <c r="U160">
-        <v>0.9999334276441708</v>
+        <v>-6.657235582918641E-05</v>
       </c>
       <c r="V160">
-        <v>0.9997167846730529</v>
+        <v>-0.0002832153269470838</v>
       </c>
       <c r="W160">
-        <v>1.000752445447705</v>
+        <v>0.0007524454477050302</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12819,7 +12819,7 @@
         <v>0.6180263363050037</v>
       </c>
       <c r="K161">
-        <v>38.19630882624296</v>
+        <v>-0.1180369117375704</v>
       </c>
       <c r="L161">
         <v>-0.01665649825528692</v>
@@ -12849,13 +12849,13 @@
         <v>-0.6812500000000341</v>
       </c>
       <c r="U161">
-        <v>0.9999167790149965</v>
+        <v>-8.322098500346264E-05</v>
       </c>
       <c r="V161">
-        <v>0.9997167044394081</v>
+        <v>-0.000283295560591923</v>
       </c>
       <c r="W161">
-        <v>0.9997493734335839</v>
+        <v>-0.0002506265664160567</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12890,7 +12890,7 @@
         <v>0.6024354464864098</v>
       </c>
       <c r="K162">
-        <v>37.59499003890258</v>
+        <v>-0.1240500996109742</v>
       </c>
       <c r="L162">
         <v>-0.01857726920207175</v>
@@ -12920,13 +12920,13 @@
         <v>-0.8312499999999545</v>
       </c>
       <c r="U162">
-        <v>0.9999084492975564</v>
+        <v>-9.155070244359909E-05</v>
       </c>
       <c r="V162">
-        <v>0.9996999549932488</v>
+        <v>-0.0003000450067511817</v>
       </c>
       <c r="W162">
-        <v>0.9997493106041615</v>
+        <v>-0.0002506893958384993</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12961,7 +12961,7 @@
         <v>0.6289900801692723</v>
       </c>
       <c r="K163">
-        <v>38.61227197306889</v>
+        <v>-0.1138772802693112</v>
       </c>
       <c r="L163">
         <v>-0.02000759518489037</v>
@@ -12991,13 +12991,13 @@
         <v>-0.8000000000000114</v>
       </c>
       <c r="U163">
-        <v>0.9998834702557826</v>
+        <v>-0.0001165297442173863</v>
       </c>
       <c r="V163">
-        <v>0.9996498424290933</v>
+        <v>-0.0003501575709067284</v>
       </c>
       <c r="W163">
-        <v>1.00025075225677</v>
+        <v>0.0002507522567702924</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13032,7 +13032,7 @@
         <v>0.5956884215914053</v>
       </c>
       <c r="K164">
-        <v>37.33112389180062</v>
+        <v>-0.1266887610819938</v>
       </c>
       <c r="L164">
         <v>-0.02115901525742602</v>
@@ -13062,13 +13062,13 @@
         <v>-0.6937499999999659</v>
       </c>
       <c r="U164">
-        <v>0.9997918869196769</v>
+        <v>-0.0002081130803230913</v>
       </c>
       <c r="V164">
-        <v>0.9996663997864959</v>
+        <v>-0.0003336002135041483</v>
       </c>
       <c r="W164">
-        <v>0.9994986212083229</v>
+        <v>-0.0005013787916771095</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13103,7 +13103,7 @@
         <v>0.5956884215914052</v>
       </c>
       <c r="K165">
-        <v>37.33112389180062</v>
+        <v>-0.1266887610819938</v>
       </c>
       <c r="L165">
         <v>-0.02199144470309507</v>
@@ -13133,13 +13133,13 @@
         <v>-0.6687499999999886</v>
       </c>
       <c r="U165">
-        <v>0.9998001698556228</v>
+        <v>-0.0001998301443771888</v>
       </c>
       <c r="V165">
-        <v>0.9996662884602548</v>
+        <v>-0.0003337115397451518</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13174,7 +13174,7 @@
         <v>0.5787134734918618</v>
       </c>
       <c r="K166">
-        <v>36.65728349121137</v>
+        <v>-0.1334271650878863</v>
       </c>
       <c r="L166">
         <v>-0.02258879721421107</v>
@@ -13204,13 +13204,13 @@
         <v>-0.5749999999999886</v>
       </c>
       <c r="U166">
-        <v>0.9997668182348139</v>
+        <v>-0.0002331817651860524</v>
       </c>
       <c r="V166">
-        <v>0.9996327947656564</v>
+        <v>-0.0003672052343436372</v>
       </c>
       <c r="W166">
-        <v>0.999749184850765</v>
+        <v>-0.0002508151492349731</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13245,7 +13245,7 @@
         <v>0.4904447180757094</v>
       </c>
       <c r="K167">
-        <v>32.90593150673278</v>
+        <v>-0.1709406849326722</v>
       </c>
       <c r="L167">
         <v>-0.02346973113267027</v>
@@ -13275,13 +13275,13 @@
         <v>-0.4874999999999545</v>
       </c>
       <c r="U167">
-        <v>0.9997167846730527</v>
+        <v>-0.0002832153269473059</v>
       </c>
       <c r="V167">
-        <v>0.9995825680414093</v>
+        <v>-0.0004174319585906749</v>
       </c>
       <c r="W167">
-        <v>0.9984947315604615</v>
+        <v>-0.001505268439538465</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13316,7 +13316,7 @@
         <v>0.517203636389468</v>
       </c>
       <c r="K168">
-        <v>34.08926949452032</v>
+        <v>-0.1591073050547968</v>
       </c>
       <c r="L168">
         <v>-0.02429054996606174</v>
@@ -13346,13 +13346,13 @@
         <v>-0.4499999999999318</v>
       </c>
       <c r="U168">
-        <v>0.9997500333288896</v>
+        <v>-0.0002499666711104354</v>
       </c>
       <c r="V168">
-        <v>0.9996158022216654</v>
+        <v>-0.0003841977783346495</v>
       </c>
       <c r="W168">
-        <v>1.000251256281407</v>
+        <v>0.0002512562814069863</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13387,7 +13387,7 @@
         <v>0.4896210477147405</v>
       </c>
       <c r="K169">
-        <v>32.86883254408083</v>
+        <v>-0.1713116745591917</v>
       </c>
       <c r="L169">
         <v>-0.02511680733743167</v>
@@ -13417,13 +13417,13 @@
         <v>-0.4187500000000455</v>
       </c>
       <c r="U169">
-        <v>0.9997166336072542</v>
+        <v>-0.000283366392745843</v>
       </c>
       <c r="V169">
-        <v>0.9994986798569567</v>
+        <v>-0.0005013201430432712</v>
       </c>
       <c r="W169">
-        <v>0.9994976136649082</v>
+        <v>-0.000502386335091809</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13458,7 +13458,7 @@
         <v>0.5176895896055314</v>
       </c>
       <c r="K170">
-        <v>34.11037363312785</v>
+        <v>-0.1588962636687215</v>
       </c>
       <c r="L170">
         <v>-0.02571178130216837</v>
@@ -13488,13 +13488,13 @@
         <v>-0.3375000000000341</v>
       </c>
       <c r="U170">
-        <v>0.9996998799519807</v>
+        <v>-0.0003001200480192701</v>
       </c>
       <c r="V170">
-        <v>0.9997492142045074</v>
+        <v>-0.0002507857954926473</v>
       </c>
       <c r="W170">
-        <v>1.000251319426992</v>
+        <v>0.0002513194269917474</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13529,7 +13529,7 @@
         <v>0.5176895896055314</v>
       </c>
       <c r="K171">
-        <v>34.11037363312785</v>
+        <v>-0.1588962636687215</v>
       </c>
       <c r="L171">
         <v>-0.02603551290090525</v>
@@ -13559,13 +13559,13 @@
         <v>-0.3562499999999886</v>
       </c>
       <c r="U171">
-        <v>0.9997164681944027</v>
+        <v>-0.0002835318055972591</v>
       </c>
       <c r="V171">
-        <v>0.9998327675301436</v>
+        <v>-0.0001672324698563932</v>
       </c>
       <c r="W171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13600,7 +13600,7 @@
         <v>0.5176895896055314</v>
       </c>
       <c r="K172">
-        <v>34.11037363312785</v>
+        <v>-0.1588962636687215</v>
       </c>
       <c r="L172">
         <v>-0.0260798094189559</v>
@@ -13630,13 +13630,13 @@
         <v>-0.3812499999999659</v>
       </c>
       <c r="U172">
-        <v>0.999683021637944</v>
+        <v>-0.0003169783620560196</v>
       </c>
       <c r="V172">
-        <v>0.9997491093381504</v>
+        <v>-0.0002508906618495788</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13671,7 +13671,7 @@
         <v>0.4577471179638219</v>
       </c>
       <c r="K173">
-        <v>31.4009962580617</v>
+        <v>-0.185990037419383</v>
       </c>
       <c r="L173">
         <v>-0.02622181814424974</v>
@@ -13701,13 +13701,13 @@
         <v>-0.3999999999999204</v>
       </c>
       <c r="U173">
-        <v>0.99969960949234</v>
+        <v>-0.0003003905076599533</v>
       </c>
       <c r="V173">
-        <v>0.9997825068593991</v>
+        <v>-0.0002174931406009328</v>
       </c>
       <c r="W173">
-        <v>0.9989949748743719</v>
+        <v>-0.001005025125628056</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13742,7 +13742,7 @@
         <v>0.4882177609114044</v>
       </c>
       <c r="K174">
-        <v>32.80553247882308</v>
+        <v>-0.1719446752117692</v>
       </c>
       <c r="L174">
         <v>-0.02622784329253057</v>
@@ -13772,13 +13772,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U174">
-        <v>0.9997162126068377</v>
+        <v>-0.0002837873931622603</v>
       </c>
       <c r="V174">
-        <v>0.9998326611891097</v>
+        <v>-0.0001673388108902607</v>
       </c>
       <c r="W174">
-        <v>1.000251509054326</v>
+        <v>0.0002515090543258047</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13813,7 +13813,7 @@
         <v>0.5202921219088779</v>
       </c>
       <c r="K175">
-        <v>34.22316766698754</v>
+        <v>-0.1577683233301246</v>
       </c>
       <c r="L175">
         <v>-0.02596474175432869</v>
@@ -13843,13 +13843,13 @@
         <v>-0.4062499999999432</v>
       </c>
       <c r="U175">
-        <v>0.9997578773356487</v>
+        <v>-0.0002421226643513075</v>
       </c>
       <c r="V175">
-        <v>0.9997991598185743</v>
+        <v>-0.0002008401814257432</v>
       </c>
       <c r="W175">
-        <v>1.000251445813427</v>
+        <v>0.0002514458134272868</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13884,7 +13884,7 @@
         <v>0.4724398876764445</v>
       </c>
       <c r="K176">
-        <v>32.08551273505428</v>
+        <v>-0.1791448726494572</v>
       </c>
       <c r="L176">
         <v>-0.02573460606312873</v>
@@ -13914,13 +13914,13 @@
         <v>-0.3874999999999886</v>
       </c>
       <c r="U176">
-        <v>0.9997411165393127</v>
+        <v>-0.0002588834606872537</v>
       </c>
       <c r="V176">
-        <v>0.9997656393859751</v>
+        <v>-0.000234360614024931</v>
       </c>
       <c r="W176">
-        <v>0.9992458521870287</v>
+        <v>-0.0007541478129713397</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13955,7 +13955,7 @@
         <v>0.4576704822204521</v>
       </c>
       <c r="K177">
-        <v>31.39738972578274</v>
+        <v>-0.1860261027421726</v>
       </c>
       <c r="L177">
         <v>-0.02553699044985627</v>
@@ -13985,13 +13985,13 @@
         <v>-0.3562499999999886</v>
       </c>
       <c r="U177">
-        <v>0.9997326962594181</v>
+        <v>-0.0002673037405819256</v>
       </c>
       <c r="V177">
-        <v>0.9997655844482027</v>
+        <v>-0.0002344155517972624</v>
       </c>
       <c r="W177">
-        <v>0.9997484276729559</v>
+        <v>-0.0002515723270440917</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14026,7 +14026,7 @@
         <v>0.457670482220452</v>
       </c>
       <c r="K178">
-        <v>31.39738972578274</v>
+        <v>-0.1860261027421726</v>
       </c>
       <c r="L178">
         <v>-0.0252790427543122</v>
@@ -14056,13 +14056,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U178">
-        <v>0.9996992028876525</v>
+        <v>-0.0003007971123475395</v>
       </c>
       <c r="V178">
-        <v>0.9997487815907148</v>
+        <v>-0.0002512184092852143</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14097,7 +14097,7 @@
         <v>0.4019740637922283</v>
       </c>
       <c r="K179">
-        <v>28.67200429549463</v>
+        <v>-0.2132799570450537</v>
       </c>
       <c r="L179">
         <v>-0.02527432552433394</v>
@@ -14127,13 +14127,13 @@
         <v>-0.3500000000000227</v>
       </c>
       <c r="U179">
-        <v>0.9996907543921235</v>
+        <v>-0.0003092456078764849</v>
       </c>
       <c r="V179">
-        <v>0.9997152142593895</v>
+        <v>-0.000284785740610527</v>
       </c>
       <c r="W179">
-        <v>0.9989934574735783</v>
+        <v>-0.001006542526421739</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14168,7 +14168,7 @@
         <v>0.3371839286653213</v>
       </c>
       <c r="K180">
-        <v>25.21597227106024</v>
+        <v>-0.2478402772893976</v>
       </c>
       <c r="L180">
         <v>-0.02587963286396377</v>
@@ -14198,13 +14198,13 @@
         <v>-0.4062500000000568</v>
       </c>
       <c r="U180">
-        <v>0.9996404952804554</v>
+        <v>-0.0003595047195446011</v>
       </c>
       <c r="V180">
-        <v>0.9996145918863214</v>
+        <v>-0.0003854081136785981</v>
       </c>
       <c r="W180">
-        <v>0.9984886649874055</v>
+        <v>-0.001511335012594484</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14239,7 +14239,7 @@
         <v>0.422015449380176</v>
       </c>
       <c r="K181">
-        <v>29.67727597925345</v>
+        <v>-0.2032272402074655</v>
       </c>
       <c r="L181">
         <v>-0.02644866386678951</v>
@@ -14269,13 +14269,13 @@
         <v>-0.3937500000000682</v>
       </c>
       <c r="U181">
-        <v>0.9996570931535721</v>
+        <v>-0.0003429068464279039</v>
       </c>
       <c r="V181">
-        <v>0.9996814966305696</v>
+        <v>-0.0003185033694304007</v>
       </c>
       <c r="W181">
-        <v>1.000756811301716</v>
+        <v>0.0007568113017155653</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14310,7 +14310,7 @@
         <v>0.5113117869747599</v>
       </c>
       <c r="K182">
-        <v>33.83231649362496</v>
+        <v>-0.1616768350637504</v>
       </c>
       <c r="L182">
         <v>-0.02658965431263912</v>
@@ -14340,13 +14340,13 @@
         <v>-0.3812500000000227</v>
       </c>
       <c r="U182">
-        <v>0.9997071742313324</v>
+        <v>-0.0002928257686676261</v>
       </c>
       <c r="V182">
-        <v>0.9998323132388698</v>
+        <v>-0.0001676867611302146</v>
       </c>
       <c r="W182">
-        <v>1.000756238971515</v>
+        <v>0.0007562389715149997</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14381,7 +14381,7 @@
         <v>0.4957780453231231</v>
       </c>
       <c r="K183">
-        <v>33.14516126729373</v>
+        <v>-0.1685483873270627</v>
       </c>
       <c r="L183">
         <v>-0.026457082095918</v>
@@ -14411,13 +14411,13 @@
         <v>-0.4250000000000114</v>
       </c>
       <c r="U183">
-        <v>0.9997070884592852</v>
+        <v>-0.0002929115407147576</v>
       </c>
       <c r="V183">
-        <v>0.9997987421383648</v>
+        <v>-0.0002012578616351623</v>
       </c>
       <c r="W183">
-        <v>0.9997481108312342</v>
+        <v>-0.0002518891687658398</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14452,7 +14452,7 @@
         <v>0.6556737040802174</v>
       </c>
       <c r="K184">
-        <v>39.60162575901187</v>
+        <v>-0.1039837424098813</v>
       </c>
       <c r="L184">
         <v>-0.02561411161938258</v>
@@ -14482,13 +14482,13 @@
         <v>-0.3937500000000114</v>
       </c>
       <c r="U184">
-        <v>0.9997070026369762</v>
+        <v>-0.0002929973630237948</v>
       </c>
       <c r="V184">
-        <v>0.9999161256772849</v>
+        <v>-8.387432271506068E-05</v>
       </c>
       <c r="W184">
-        <v>1.001259763164525</v>
+        <v>0.00125976316452503</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14523,7 +14523,7 @@
         <v>0.7566604359268071</v>
       </c>
       <c r="K185">
-        <v>43.07380188292316</v>
+        <v>-0.06926198117076843</v>
       </c>
       <c r="L185">
         <v>-0.0240266833542489</v>
@@ -14553,13 +14553,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U185">
-        <v>0.9998492714788141</v>
+        <v>-0.0001507285211859166</v>
       </c>
       <c r="V185">
-        <v>0.999949671185076</v>
+        <v>-5.032881492395003E-05</v>
       </c>
       <c r="W185">
-        <v>1.000754906894816</v>
+        <v>0.0007549068948162763</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14594,7 +14594,7 @@
         <v>0.756660435926807</v>
       </c>
       <c r="K186">
-        <v>43.07380188292315</v>
+        <v>-0.06926198117076848</v>
       </c>
       <c r="L186">
         <v>-0.02200145000530401</v>
@@ -14624,13 +14624,13 @@
         <v>-0.2874999999999659</v>
       </c>
       <c r="U186">
-        <v>0.9998911241017739</v>
+        <v>-0.0001088758982260574</v>
       </c>
       <c r="V186">
-        <v>0.9999496686519587</v>
+        <v>-5.033134804133255E-05</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14665,7 +14665,7 @@
         <v>0.9804537474981968</v>
       </c>
       <c r="K187">
-        <v>49.50652085345354</v>
+        <v>-0.004934791465464605</v>
       </c>
       <c r="L187">
         <v>-0.01921079827497876</v>
@@ -14695,13 +14695,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U187">
-        <v>0.9998994882275586</v>
+        <v>-0.000100511772441414</v>
       </c>
       <c r="V187">
-        <v>1.000050333881414</v>
+        <v>5.033388141351125E-05</v>
       </c>
       <c r="W187">
-        <v>1.001508674880563</v>
+        <v>0.001508674880563277</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14736,7 +14736,7 @@
         <v>0.8771390841551557</v>
       </c>
       <c r="K188">
-        <v>46.72744239140543</v>
+        <v>-0.03272557608594573</v>
       </c>
       <c r="L188">
         <v>-0.01633814157869709</v>
@@ -14766,13 +14766,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U188">
-        <v>0.9999246085929451</v>
+        <v>-7.539140705492553E-05</v>
       </c>
       <c r="V188">
-        <v>1.000067108464055</v>
+        <v>6.710846405511006E-05</v>
       </c>
       <c r="W188">
-        <v>0.999246798895305</v>
+        <v>-0.0007532011046950116</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14807,7 +14807,7 @@
         <v>0.9141125356415118</v>
       </c>
       <c r="K189">
-        <v>47.75646774264234</v>
+        <v>-0.02243532257357667</v>
       </c>
       <c r="L189">
         <v>-0.01344764993485781</v>
@@ -14837,13 +14837,13 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="U189">
-        <v>0.9999497352724347</v>
+        <v>-5.026472756530787E-05</v>
       </c>
       <c r="V189">
-        <v>1.000067103960811</v>
+        <v>6.710396081111014E-05</v>
       </c>
       <c r="W189">
-        <v>1.000251256281407</v>
+        <v>0.0002512562814069863</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14878,7 +14878,7 @@
         <v>1.030870803493118</v>
       </c>
       <c r="K190">
-        <v>50.76003858640393</v>
+        <v>0.007600385864039327</v>
       </c>
       <c r="L190">
         <v>-0.01040689580048278</v>
@@ -14908,13 +14908,13 @@
         <v>0.3312500000000114</v>
       </c>
       <c r="U190">
-        <v>0.999949732745765</v>
+        <v>-5.026725423495915E-05</v>
       </c>
       <c r="V190">
-        <v>1.000100649187258</v>
+        <v>0.0001006491872579396</v>
       </c>
       <c r="W190">
-        <v>1.000753579502637</v>
+        <v>0.0007535795026374359</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14949,7 +14949,7 @@
         <v>0.8556087134258263</v>
       </c>
       <c r="K191">
-        <v>46.109328288624</v>
+        <v>-0.03890671711376004</v>
       </c>
       <c r="L191">
         <v>-0.007888402497551598</v>
@@ -14979,13 +14979,13 @@
         <v>0.4499999999999886</v>
       </c>
       <c r="U191">
-        <v>0.9999162170314018</v>
+        <v>-8.378296859823386E-05</v>
       </c>
       <c r="V191">
-        <v>1.000067092705345</v>
+        <v>6.709270534543954E-05</v>
       </c>
       <c r="W191">
-        <v>0.9987449799196787</v>
+        <v>-0.001255020080321301</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15020,7 +15020,7 @@
         <v>0.8556087134258263</v>
       </c>
       <c r="K192">
-        <v>46.109328288624</v>
+        <v>-0.03890671711376004</v>
       </c>
       <c r="L192">
         <v>-0.005818146982228998</v>
@@ -15050,13 +15050,13 @@
         <v>0.4875000000000114</v>
       </c>
       <c r="U192">
-        <v>0.9999245890101053</v>
+        <v>-7.541098989471973E-05</v>
       </c>
       <c r="V192">
-        <v>1.00008386025527</v>
+        <v>8.386025527040708E-05</v>
       </c>
       <c r="W192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15091,7 +15091,7 @@
         <v>0.8556087134258263</v>
       </c>
       <c r="K193">
-        <v>46.109328288624</v>
+        <v>-0.03890671711376004</v>
       </c>
       <c r="L193">
         <v>-0.004130240514263596</v>
@@ -15121,13 +15121,13 @@
         <v>0.4812499999999886</v>
       </c>
       <c r="U193">
-        <v>0.9999162036920654</v>
+        <v>-8.37963079346471E-05</v>
       </c>
       <c r="V193">
-        <v>1.000083853223318</v>
+        <v>8.385322331805334E-05</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15162,7 +15162,7 @@
         <v>0.8556087134258263</v>
       </c>
       <c r="K194">
-        <v>46.109328288624</v>
+        <v>-0.03890671711376004</v>
       </c>
       <c r="L194">
         <v>-0.002766532658873232</v>
@@ -15192,13 +15192,13 @@
         <v>0.4749999999999659</v>
       </c>
       <c r="U194">
-        <v>0.9999329573357243</v>
+        <v>-6.704266427570715E-05</v>
       </c>
       <c r="V194">
-        <v>1.00015092314658</v>
+        <v>0.0001509231465799399</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15233,7 +15233,7 @@
         <v>1.022594425443076</v>
       </c>
       <c r="K195">
-        <v>50.55855057145543</v>
+        <v>0.005585505714554295</v>
       </c>
       <c r="L195">
         <v>-0.001309946387598905</v>
@@ -15263,13 +15263,13 @@
         <v>0.3937500000000114</v>
       </c>
       <c r="U195">
-        <v>0.9999664764203521</v>
+        <v>-3.352357964792052E-05</v>
       </c>
       <c r="V195">
-        <v>1.000318567452466</v>
+        <v>0.0003185674524661675</v>
       </c>
       <c r="W195">
-        <v>1.001005277707967</v>
+        <v>0.001005277707966989</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15304,7 +15304,7 @@
         <v>1.066538033868649</v>
       </c>
       <c r="K196">
-        <v>51.60989134431964</v>
+        <v>0.01609891344319636</v>
       </c>
       <c r="L196">
         <v>0.0002063898714804571</v>
@@ -15334,13 +15334,13 @@
         <v>0.3187500000000227</v>
       </c>
       <c r="U196">
-        <v>0.9999832376482424</v>
+        <v>-1.676235175762653E-05</v>
       </c>
       <c r="V196">
-        <v>1.000284943262768</v>
+        <v>0.000284943262768067</v>
       </c>
       <c r="W196">
-        <v>1.000251067034898</v>
+        <v>0.0002510670348983002</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15375,7 +15375,7 @@
         <v>1.297820183477008</v>
       </c>
       <c r="K197">
-        <v>56.48049367871671</v>
+        <v>0.06480493678716714</v>
       </c>
       <c r="L197">
         <v>0.002119195824280159</v>
@@ -15405,13 +15405,13 @@
         <v>0.2812499999999432</v>
       </c>
       <c r="U197">
-        <v>1.000075431847326</v>
+        <v>7.543184732594632E-05</v>
       </c>
       <c r="V197">
-        <v>1.000318375280673</v>
+        <v>0.0003183752806730222</v>
       </c>
       <c r="W197">
-        <v>1.001255020080321</v>
+        <v>0.00125502008032119</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15446,7 +15446,7 @@
         <v>1.443893120071768</v>
       </c>
       <c r="K198">
-        <v>59.08168029988833</v>
+        <v>0.09081680299888328</v>
       </c>
       <c r="L198">
         <v>0.004417095452569996</v>
@@ -15476,13 +15476,13 @@
         <v>0.2437500000000341</v>
       </c>
       <c r="U198">
-        <v>1.000092187526189</v>
+        <v>9.21875261894467E-05</v>
       </c>
       <c r="V198">
-        <v>1.000385278992244</v>
+        <v>0.0003852789922442756</v>
       </c>
       <c r="W198">
-        <v>1.000752068187516</v>
+        <v>0.0007520681875157198</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15517,7 +15517,7 @@
         <v>1.700161429887124</v>
       </c>
       <c r="K199">
-        <v>62.96517723231818</v>
+        <v>0.1296517723231818</v>
       </c>
       <c r="L199">
         <v>0.007243228961779074</v>
@@ -15547,13 +15547,13 @@
         <v>0.2937499999999886</v>
       </c>
       <c r="U199">
-        <v>1.000150838410163</v>
+        <v>0.0001508384101633897</v>
       </c>
       <c r="V199">
-        <v>1.000385130609511</v>
+        <v>0.000385130609511064</v>
       </c>
       <c r="W199">
-        <v>1.00125250501002</v>
+        <v>0.001252505010020055</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15588,7 +15588,7 @@
         <v>1.808063876125163</v>
       </c>
       <c r="K200">
-        <v>64.38827447971389</v>
+        <v>0.1438827447971388</v>
       </c>
       <c r="L200">
         <v>0.01036556088094453</v>
@@ -15618,13 +15618,13 @@
         <v>0.3874999999999886</v>
       </c>
       <c r="U200">
-        <v>1.000159194309222</v>
+        <v>0.0001591943092222881</v>
       </c>
       <c r="V200">
-        <v>1.000368243978374</v>
+        <v>0.0003682439783738722</v>
       </c>
       <c r="W200">
-        <v>1.000500375281461</v>
+        <v>0.000500375281460963</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15659,7 +15659,7 @@
         <v>2.035226920836856</v>
       </c>
       <c r="K201">
-        <v>67.05353418108569</v>
+        <v>0.1705353418108569</v>
       </c>
       <c r="L201">
         <v>0.01379610939993158</v>
@@ -15689,13 +15689,13 @@
         <v>0.5250000000000909</v>
       </c>
       <c r="U201">
-        <v>1.00019267822736</v>
+        <v>0.0001926782273604655</v>
       </c>
       <c r="V201">
-        <v>1.000435037229148</v>
+        <v>0.0004350372291475058</v>
       </c>
       <c r="W201">
-        <v>1.001000250062516</v>
+        <v>0.001000250062515695</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15730,7 +15730,7 @@
         <v>1.725734921517942</v>
       </c>
       <c r="K202">
-        <v>63.31264672490209</v>
+        <v>0.133126467249021</v>
       </c>
       <c r="L202">
         <v>0.0168692053420428</v>
@@ -15760,13 +15760,13 @@
         <v>0.6437500000000114</v>
       </c>
       <c r="U202">
-        <v>1.000167514008359</v>
+        <v>0.0001675140083590154</v>
       </c>
       <c r="V202">
-        <v>1.000284323727651</v>
+        <v>0.0002843237276513033</v>
       </c>
       <c r="W202">
-        <v>0.9992505620784411</v>
+        <v>-0.0007494379215589042</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15801,7 +15801,7 @@
         <v>1.307234076906361</v>
       </c>
       <c r="K203">
-        <v>56.65806040187984</v>
+        <v>0.06658060401879839</v>
       </c>
       <c r="L203">
         <v>0.01891885997273455</v>
@@ -15831,13 +15831,13 @@
         <v>0.7124999999999773</v>
       </c>
       <c r="U203">
-        <v>1.000150737356904</v>
+        <v>0.0001507373569042958</v>
       </c>
       <c r="V203">
-        <v>1.000234082397004</v>
+        <v>0.000234082397003732</v>
       </c>
       <c r="W203">
-        <v>0.9984999999999999</v>
+        <v>-0.001500000000000057</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15872,7 +15872,7 @@
         <v>1.159270918943041</v>
       </c>
       <c r="K204">
-        <v>53.68807168998052</v>
+        <v>0.03688071689980521</v>
       </c>
       <c r="L204">
         <v>0.01987431567927856</v>
@@ -15902,13 +15902,13 @@
         <v>0.7312500000000455</v>
       </c>
       <c r="U204">
-        <v>1.000117222496672</v>
+        <v>0.0001172224966716762</v>
       </c>
       <c r="V204">
-        <v>1.000167162582328</v>
+        <v>0.000167162582327629</v>
       </c>
       <c r="W204">
-        <v>0.999248873309965</v>
+        <v>-0.0007511266900349645</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15943,7 +15943,7 @@
         <v>1.114989046920429</v>
       </c>
       <c r="K205">
-        <v>52.71843126298599</v>
+        <v>0.02718431262985999</v>
       </c>
       <c r="L205">
         <v>0.01994222070835427</v>
@@ -15973,13 +15973,13 @@
         <v>0.6875000000000568</v>
       </c>
       <c r="U205">
-        <v>1.000100464649002</v>
+        <v>0.000100464649001708</v>
       </c>
       <c r="V205">
-        <v>1.000100280786201</v>
+        <v>0.0001002807862011679</v>
       </c>
       <c r="W205">
-        <v>0.9997494362315209</v>
+        <v>-0.0002505637684790951</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16014,7 +16014,7 @@
         <v>1.155197505619976</v>
       </c>
       <c r="K206">
-        <v>53.60054021070638</v>
+        <v>0.03600540210706382</v>
       </c>
       <c r="L206">
         <v>0.01948708340311201</v>
@@ -16044,13 +16044,13 @@
         <v>0.6312500000000227</v>
       </c>
       <c r="U206">
-        <v>1.00013393940916</v>
+        <v>0.0001339394091597335</v>
       </c>
       <c r="V206">
-        <v>1.000200541461947</v>
+        <v>0.0002005414619472567</v>
       </c>
       <c r="W206">
-        <v>1.000250626566416</v>
+        <v>0.0002506265664161678</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16085,7 +16085,7 @@
         <v>1.239846892355841</v>
       </c>
       <c r="K207">
-        <v>55.3540912366464</v>
+        <v>0.05354091236646397</v>
       </c>
       <c r="L207">
         <v>0.01885605647664054</v>
@@ -16115,13 +16115,13 @@
         <v>0.4937499999999773</v>
       </c>
       <c r="U207">
-        <v>1.000159031747759</v>
+        <v>0.0001590317477591086</v>
       </c>
       <c r="V207">
-        <v>1.000233918128655</v>
+        <v>0.0002339181286550307</v>
       </c>
       <c r="W207">
-        <v>1.000501127536958</v>
+        <v>0.0005011275369581902</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16156,7 +16156,7 @@
         <v>1.284399201164179</v>
       </c>
       <c r="K208">
-        <v>56.22481396901301</v>
+        <v>0.0622481396901301</v>
       </c>
       <c r="L208">
         <v>0.01818140065509685</v>
@@ -16186,13 +16186,13 @@
         <v>0.3374999999999773</v>
       </c>
       <c r="U208">
-        <v>1.000167375221772</v>
+        <v>0.0001673752217721258</v>
       </c>
       <c r="V208">
-        <v>1.000250567954029</v>
+        <v>0.0002505679540290018</v>
       </c>
       <c r="W208">
-        <v>1.000250438266967</v>
+        <v>0.0002504382669670235</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16227,7 +16227,7 @@
         <v>1.378193535497575</v>
       </c>
       <c r="K209">
-        <v>57.95127751069359</v>
+        <v>0.07951277510693588</v>
       </c>
       <c r="L209">
         <v>0.01763979881391979</v>
@@ -16257,13 +16257,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U209">
-        <v>1.000217551375594</v>
+        <v>0.0002175513755942049</v>
       </c>
       <c r="V209">
-        <v>1.000283905876852</v>
+        <v>0.0002839058768517866</v>
       </c>
       <c r="W209">
-        <v>1.00050075112669</v>
+        <v>0.0005007511266901243</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16298,7 +16298,7 @@
         <v>1.378193535497575</v>
       </c>
       <c r="K210">
-        <v>57.95127751069359</v>
+        <v>0.07951277510693588</v>
       </c>
       <c r="L210">
         <v>0.01714892901486136</v>
@@ -16328,13 +16328,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U210">
-        <v>1.000267697301277</v>
+        <v>0.0002676973012765149</v>
       </c>
       <c r="V210">
-        <v>1.000217042874315</v>
+        <v>0.000217042874315343</v>
       </c>
       <c r="W210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16369,7 +16369,7 @@
         <v>1.482120775756155</v>
       </c>
       <c r="K211">
-        <v>59.71187180868106</v>
+        <v>0.09711871808681061</v>
       </c>
       <c r="L211">
         <v>0.01684020910217549</v>
@@ -16399,13 +16399,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U211">
-        <v>1.000259262356779</v>
+        <v>0.0002592623567785335</v>
       </c>
       <c r="V211">
-        <v>1.000233687759769</v>
+        <v>0.0002336877597690634</v>
       </c>
       <c r="W211">
-        <v>1.000500500500501</v>
+        <v>0.0005005005005005447</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16440,7 +16440,7 @@
         <v>1.70091496577422</v>
       </c>
       <c r="K212">
-        <v>62.97550968201811</v>
+        <v>0.1297550968201812</v>
       </c>
       <c r="L212">
         <v>0.01696533201074749</v>
@@ -16470,13 +16470,13 @@
         <v>-0.03124999999994316</v>
       </c>
       <c r="U212">
-        <v>1.000267556291335</v>
+        <v>0.0002675562913354579</v>
       </c>
       <c r="V212">
-        <v>1.000216945079519</v>
+        <v>0.0002169450795186378</v>
       </c>
       <c r="W212">
-        <v>1.001000500250125</v>
+        <v>0.001000500250124992</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16511,7 +16511,7 @@
         <v>1.70091496577422</v>
       </c>
       <c r="K213">
-        <v>62.97550968201811</v>
+        <v>0.1297550968201812</v>
       </c>
       <c r="L213">
         <v>0.01728316651216457</v>
@@ -16541,13 +16541,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U213">
-        <v>1.000275843621743</v>
+        <v>0.0002758436217429328</v>
       </c>
       <c r="V213">
-        <v>1.000166844634277</v>
+        <v>0.0001668446342766305</v>
       </c>
       <c r="W213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16582,7 +16582,7 @@
         <v>1.700914965774221</v>
       </c>
       <c r="K214">
-        <v>62.97550968201811</v>
+        <v>0.1297550968201812</v>
       </c>
       <c r="L214">
         <v>0.01763424895397614</v>
@@ -16612,13 +16612,13 @@
         <v>0.1124999999999545</v>
       </c>
       <c r="U214">
-        <v>1.000233984590444</v>
+        <v>0.0002339845904435478</v>
       </c>
       <c r="V214">
-        <v>1.000083408400894</v>
+        <v>8.340840089404722E-05</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16653,7 +16653,7 @@
         <v>1.598908303799345</v>
       </c>
       <c r="K215">
-        <v>61.52230540269159</v>
+        <v>0.1152230540269159</v>
       </c>
       <c r="L215">
         <v>0.01782733886656841</v>
@@ -16683,13 +16683,13 @@
         <v>0.1875000000000568</v>
       </c>
       <c r="U215">
-        <v>1.000200511303825</v>
+        <v>0.000200511303825035</v>
       </c>
       <c r="V215">
-        <v>1.000033360577805</v>
+        <v>3.336057780511936E-05</v>
       </c>
       <c r="W215">
-        <v>0.9997501249375313</v>
+        <v>-0.0002498750624686519</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16724,7 +16724,7 @@
         <v>1.725164390456704</v>
       </c>
       <c r="K216">
-        <v>63.30496598656889</v>
+        <v>0.1330496598656888</v>
       </c>
       <c r="L216">
         <v>0.01802987550170694</v>
@@ -16754,13 +16754,13 @@
         <v>0.2749999999999773</v>
       </c>
       <c r="U216">
-        <v>1.000217177032693</v>
+        <v>0.0002171770326933053</v>
       </c>
       <c r="V216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W216">
-        <v>1.000499875031242</v>
+        <v>0.0004998750312421585</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16795,7 +16795,7 @@
         <v>1.791614962381611</v>
       </c>
       <c r="K217">
-        <v>64.17844102874166</v>
+        <v>0.1417844102874166</v>
       </c>
       <c r="L217">
         <v>0.01825059383631704</v>
@@ -16825,13 +16825,13 @@
         <v>0.3687499999999773</v>
       </c>
       <c r="U217">
-        <v>1.00017537413148</v>
+        <v>0.0001753741314804991</v>
       </c>
       <c r="V217">
-        <v>1.000066718929828</v>
+        <v>6.671892982845762E-05</v>
       </c>
       <c r="W217">
-        <v>1.000249812640519</v>
+        <v>0.0002498126405194867</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16866,7 +16866,7 @@
         <v>1.931510903276231</v>
       </c>
       <c r="K218">
-        <v>65.8878976406873</v>
+        <v>0.158878976406873</v>
       </c>
       <c r="L218">
         <v>0.01858403161738831</v>
@@ -16896,13 +16896,13 @@
         <v>0.4562499999999545</v>
       </c>
       <c r="U218">
-        <v>1.000217091804784</v>
+        <v>0.0002170918047843529</v>
       </c>
       <c r="V218">
-        <v>1.000200143436129</v>
+        <v>0.0002001434361289522</v>
       </c>
       <c r="W218">
-        <v>1.000499500499501</v>
+        <v>0.0004995004995005381</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16937,7 +16937,7 @@
         <v>2.152399231004495</v>
       </c>
       <c r="K219">
-        <v>68.2781295539983</v>
+        <v>0.182781295539983</v>
       </c>
       <c r="L219">
         <v>0.01917018017912387</v>
@@ -16967,13 +16967,13 @@
         <v>0.5000000000000568</v>
       </c>
       <c r="U219">
-        <v>1.000233740431251</v>
+        <v>0.0002337404312511282</v>
       </c>
       <c r="V219">
-        <v>1.000300155080125</v>
+        <v>0.0003001550801249309</v>
       </c>
       <c r="W219">
-        <v>1.000748876684972</v>
+        <v>0.000748876684972366</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17008,7 +17008,7 @@
         <v>1.997577623703713</v>
       </c>
       <c r="K220">
-        <v>66.63972962393444</v>
+        <v>0.1663972962393444</v>
       </c>
       <c r="L220">
         <v>0.01971061763174409</v>
@@ -17038,13 +17038,13 @@
         <v>0.46875</v>
       </c>
       <c r="U220">
-        <v>1.000200302122368</v>
+        <v>0.0002003021223679902</v>
       </c>
       <c r="V220">
-        <v>1.000300065014086</v>
+        <v>0.0003000650140863037</v>
       </c>
       <c r="W220">
-        <v>0.9997505612372164</v>
+        <v>-0.0002494387627836048</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17079,7 +17079,7 @@
         <v>2.224724303465623</v>
       </c>
       <c r="K221">
-        <v>68.98959706647491</v>
+        <v>0.1898959706647492</v>
       </c>
       <c r="L221">
         <v>0.02039038307406322</v>
@@ -17109,13 +17109,13 @@
         <v>0.4499999999999886</v>
       </c>
       <c r="U221">
-        <v>1.000267016012616</v>
+        <v>0.0002670160126163612</v>
       </c>
       <c r="V221">
-        <v>1.00033330555787</v>
+        <v>0.000333305557870256</v>
       </c>
       <c r="W221">
-        <v>1.000748502994012</v>
+        <v>0.0007485029940119681</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17150,7 +17150,7 @@
         <v>2.224724303465623</v>
       </c>
       <c r="K222">
-        <v>68.98959706647491</v>
+        <v>0.1898959706647492</v>
       </c>
       <c r="L222">
         <v>0.02103653168002636</v>
@@ -17180,13 +17180,13 @@
         <v>0.4375</v>
       </c>
       <c r="U222">
-        <v>1.000266944734098</v>
+        <v>0.0002669447340979403</v>
       </c>
       <c r="V222">
-        <v>1.000299875052062</v>
+        <v>0.0002998750520617488</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17221,7 +17221,7 @@
         <v>1.665734679399359</v>
       </c>
       <c r="K223">
-        <v>62.48688934694285</v>
+        <v>0.1248688934694284</v>
       </c>
       <c r="L223">
         <v>0.02117955935269889</v>
@@ -17251,13 +17251,13 @@
         <v>0.4249999999999545</v>
       </c>
       <c r="U223">
-        <v>1.000233514306921</v>
+        <v>0.0002335143069214229</v>
       </c>
       <c r="V223">
-        <v>1.000216511500092</v>
+        <v>0.0002165115000916096</v>
       </c>
       <c r="W223">
-        <v>0.9990027424582397</v>
+        <v>-0.0009972575417602769</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17292,7 +17292,7 @@
         <v>1.471180760500727</v>
       </c>
       <c r="K224">
-        <v>59.53351466699775</v>
+        <v>0.09533514666997756</v>
       </c>
       <c r="L224">
         <v>0.0207492458121008</v>
@@ -17322,13 +17322,13 @@
         <v>0.3812500000000227</v>
       </c>
       <c r="U224">
-        <v>1.000216784091383</v>
+        <v>0.0002167840913827046</v>
       </c>
       <c r="V224">
-        <v>1.000149860130545</v>
+        <v>0.0001498601305447433</v>
       </c>
       <c r="W224">
-        <v>0.999500873471425</v>
+        <v>-0.000499126528574978</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17363,7 +17363,7 @@
         <v>1.717070578817424</v>
       </c>
       <c r="K225">
-        <v>63.1956560938789</v>
+        <v>0.1319565609387889</v>
       </c>
       <c r="L225">
         <v>0.02028800968534143</v>
@@ -17393,13 +17393,13 @@
         <v>0.3625000000000114</v>
       </c>
       <c r="U225">
-        <v>1.000216737106226</v>
+        <v>0.0002167371062262724</v>
       </c>
       <c r="V225">
-        <v>1.000216432198452</v>
+        <v>0.0002164321984516882</v>
       </c>
       <c r="W225">
-        <v>1.000998751560549</v>
+        <v>0.0009987515605491826</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17434,7 +17434,7 @@
         <v>1.612715247451057</v>
       </c>
       <c r="K226">
-        <v>61.72564151506401</v>
+        <v>0.1172564151506401</v>
       </c>
       <c r="L226">
         <v>0.01967232324840692</v>
@@ -17464,13 +17464,13 @@
         <v>0.3125</v>
       </c>
       <c r="U226">
-        <v>1.000200021669014</v>
+        <v>0.0002000216690138945</v>
       </c>
       <c r="V226">
-        <v>1.000166450281301</v>
+        <v>0.0001664502813010227</v>
       </c>
       <c r="W226">
-        <v>0.9997505612372164</v>
+        <v>-0.0002494387627836048</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17505,7 +17505,7 @@
         <v>1.515746987373702</v>
       </c>
       <c r="K227">
-        <v>60.25037473883876</v>
+        <v>0.1025037473883876</v>
       </c>
       <c r="L227">
         <v>0.0188395524403861</v>
@@ -17535,13 +17535,13 @@
         <v>0.2312499999999886</v>
       </c>
       <c r="U227">
-        <v>1.00014998625126</v>
+        <v>0.0001499862512603922</v>
       </c>
       <c r="V227">
-        <v>1.000083211290108</v>
+        <v>8.321129010768757E-05</v>
       </c>
       <c r="W227">
-        <v>0.999750499001996</v>
+        <v>-0.0002495009980040264</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17576,7 +17576,7 @@
         <v>1.425522898779552</v>
       </c>
       <c r="K228">
-        <v>58.77177657225297</v>
+        <v>0.08771776572252976</v>
       </c>
       <c r="L228">
         <v>0.01776871279631153</v>
@@ -17606,13 +17606,13 @@
         <v>0.1812499999999204</v>
       </c>
       <c r="U228">
-        <v>1.000116638479034</v>
+        <v>0.0001166384790343145</v>
       </c>
       <c r="V228">
-        <v>1.000066563493252</v>
+        <v>6.656349325218081E-05</v>
       </c>
       <c r="W228">
-        <v>0.9997504367357126</v>
+        <v>-0.000249563264287378</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17647,7 +17647,7 @@
         <v>1.425522898779553</v>
       </c>
       <c r="K229">
-        <v>58.77177657225298</v>
+        <v>0.08771776572252987</v>
       </c>
       <c r="L229">
         <v>0.01655727213722069</v>
@@ -17677,13 +17677,13 @@
         <v>0.09375</v>
       </c>
       <c r="U229">
-        <v>1.000074973134627</v>
+        <v>7.49731346267879E-05</v>
       </c>
       <c r="V229">
-        <v>1.000066559062848</v>
+        <v>6.655906284813717E-05</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17718,7 +17718,7 @@
         <v>1.689343417992308</v>
       </c>
       <c r="K230">
-        <v>62.81620289510902</v>
+        <v>0.1281620289510902</v>
       </c>
       <c r="L230">
         <v>0.01564172853841121</v>
@@ -17748,13 +17748,13 @@
         <v>0.03125000000005684</v>
       </c>
       <c r="U230">
-        <v>1.00009162696165</v>
+        <v>9.162696164999318E-05</v>
       </c>
       <c r="V230">
-        <v>1.000149747924328</v>
+        <v>0.0001497479243275368</v>
       </c>
       <c r="W230">
-        <v>1.00099850224663</v>
+        <v>0.0009985022466298954</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17789,7 +17789,7 @@
         <v>1.579672369392495</v>
       </c>
       <c r="K231">
-        <v>61.23538741334439</v>
+        <v>0.1123538741334439</v>
       </c>
       <c r="L231">
         <v>0.01481568352853498</v>
@@ -17819,13 +17819,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U231">
-        <v>1.000049973763774</v>
+        <v>4.997376377380292E-05</v>
       </c>
       <c r="V231">
-        <v>1.000099817002163</v>
+        <v>9.981700216266098E-05</v>
       </c>
       <c r="W231">
-        <v>0.9997506234413964</v>
+        <v>-0.0002493765586035757</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17860,7 +17860,7 @@
         <v>1.240569455325697</v>
       </c>
       <c r="K232">
-        <v>55.36848913016015</v>
+        <v>0.05368489130160148</v>
       </c>
       <c r="L232">
         <v>0.01367850765252028</v>
@@ -17890,13 +17890,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U232">
-        <v>1.000041642722101</v>
+        <v>4.164272210149811E-05</v>
       </c>
       <c r="V232">
-        <v>1.000016634506621</v>
+        <v>1.663450662059418E-05</v>
       </c>
       <c r="W232">
-        <v>0.9990022449488651</v>
+        <v>-0.0009977550511348632</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17931,7 +17931,7 @@
         <v>1.297060668753258</v>
       </c>
       <c r="K233">
-        <v>56.46610411283758</v>
+        <v>0.06466104112837578</v>
       </c>
       <c r="L233">
         <v>0.01246661694091812</v>
@@ -17961,13 +17961,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U233">
-        <v>1.000099938371338</v>
+        <v>9.993837133781547E-05</v>
       </c>
       <c r="V233">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W233">
-        <v>1.000249687890137</v>
+        <v>0.0002496878901374622</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18002,7 +18002,7 @@
         <v>1.297060668753258</v>
       </c>
       <c r="K234">
-        <v>56.46610411283758</v>
+        <v>0.06466104112837578</v>
       </c>
       <c r="L234">
         <v>0.01124135242920985</v>
@@ -18032,13 +18032,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U234">
-        <v>1.000124910480822</v>
+        <v>0.0001249104808218604</v>
       </c>
       <c r="V234">
-        <v>0.9999500973102451</v>
+        <v>-4.990268975491041E-05</v>
       </c>
       <c r="W234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18073,7 +18073,7 @@
         <v>1.152749887730773</v>
       </c>
       <c r="K235">
-        <v>53.54778529083534</v>
+        <v>0.03547785290835348</v>
       </c>
       <c r="L235">
         <v>0.009863247670795139</v>
@@ -18103,13 +18103,13 @@
         <v>-0.08749999999992042</v>
       </c>
       <c r="U235">
-        <v>1.0001165685548</v>
+        <v>0.0001165685547996897</v>
       </c>
       <c r="V235">
-        <v>0.9999334597597898</v>
+        <v>-6.654024021024441E-05</v>
       </c>
       <c r="W235">
-        <v>0.9995007488766848</v>
+        <v>-0.0004992511233151697</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18144,7 +18144,7 @@
         <v>1.152749887730774</v>
       </c>
       <c r="K236">
-        <v>53.54778529083534</v>
+        <v>0.03547785290835348</v>
       </c>
       <c r="L236">
         <v>0.008444541127427775</v>
@@ -18174,13 +18174,13 @@
         <v>-0.08750000000003411</v>
       </c>
       <c r="U236">
-        <v>1.000108229613287</v>
+        <v>0.0001082296132872695</v>
       </c>
       <c r="V236">
-        <v>0.9998835468308102</v>
+        <v>-0.0001164531691898452</v>
       </c>
       <c r="W236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18215,7 +18215,7 @@
         <v>1.026235916982943</v>
       </c>
       <c r="K237">
-        <v>50.64740528886706</v>
+        <v>0.006474052888670645</v>
       </c>
       <c r="L237">
         <v>0.006879056695802202</v>
@@ -18245,13 +18245,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U237">
-        <v>1.000074920085242</v>
+        <v>7.492008524234706E-05</v>
       </c>
       <c r="V237">
-        <v>0.9998502570587159</v>
+        <v>-0.0001497429412841145</v>
       </c>
       <c r="W237">
-        <v>0.9995004995004996</v>
+        <v>-0.0004995004995004271</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18286,7 +18286,7 @@
         <v>1.083998924468193</v>
       </c>
       <c r="K238">
-        <v>52.01533032195849</v>
+        <v>0.02015330321958497</v>
       </c>
       <c r="L238">
         <v>0.005390371973055875</v>
@@ -18316,13 +18316,13 @@
         <v>-0.1187500000000341</v>
       </c>
       <c r="U238">
-        <v>1.000074914472644</v>
+        <v>7.491447264373896E-05</v>
       </c>
       <c r="V238">
-        <v>0.9999334376144041</v>
+        <v>-6.656238559588079E-05</v>
       </c>
       <c r="W238">
-        <v>1.000249875062469</v>
+        <v>0.0002498750624688739</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18357,7 +18357,7 @@
         <v>1.083998924468193</v>
       </c>
       <c r="K239">
-        <v>52.01533032195849</v>
+        <v>0.02015330321958497</v>
       </c>
       <c r="L239">
         <v>0.004023465872101976</v>
@@ -18387,13 +18387,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U239">
-        <v>1.000058262447356</v>
+        <v>5.826244735573916E-05</v>
       </c>
       <c r="V239">
-        <v>0.999966716591779</v>
+        <v>-3.32834082209521E-05</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18428,7 +18428,7 @@
         <v>1.148002256861786</v>
       </c>
       <c r="K240">
-        <v>53.44511409122111</v>
+        <v>0.03445114091221113</v>
       </c>
       <c r="L240">
         <v>0.002893720378333488</v>
@@ -18458,13 +18458,13 @@
         <v>-0.1749999999999545</v>
       </c>
       <c r="U240">
-        <v>1.000066581774904</v>
+        <v>6.658177490370676E-05</v>
       </c>
       <c r="V240">
-        <v>0.9999167887098921</v>
+        <v>-8.321129010790962E-05</v>
       </c>
       <c r="W240">
-        <v>1.000249812640519</v>
+        <v>0.0002498126405194867</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18499,7 +18499,7 @@
         <v>1.215374185697185</v>
       </c>
       <c r="K241">
-        <v>54.86089860321735</v>
+        <v>0.04860898603217345</v>
       </c>
       <c r="L241">
         <v>0.002060018710855791</v>
@@ -18529,13 +18529,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U241">
-        <v>1.000058255174308</v>
+        <v>5.825517430779747E-05</v>
       </c>
       <c r="V241">
-        <v>0.9999500690711184</v>
+        <v>-4.99309288816141E-05</v>
       </c>
       <c r="W241">
-        <v>1.00024975024975</v>
+        <v>0.000249750249750269</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18570,7 +18570,7 @@
         <v>1.28629200552392</v>
       </c>
       <c r="K242">
-        <v>56.26105512402198</v>
+        <v>0.06261055124021975</v>
       </c>
       <c r="L242">
         <v>0.001542200932767832</v>
@@ -18600,13 +18600,13 @@
         <v>-0.1500000000000341</v>
       </c>
       <c r="U242">
-        <v>1.000033286731909</v>
+        <v>3.328673190861053E-05</v>
       </c>
       <c r="V242">
-        <v>0.9999833555259654</v>
+        <v>-1.664447403459945E-05</v>
       </c>
       <c r="W242">
-        <v>1.000249687890137</v>
+        <v>0.0002496878901374622</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18641,7 +18641,7 @@
         <v>1.435592678843321</v>
       </c>
       <c r="K243">
-        <v>58.94223165119273</v>
+        <v>0.08942231651192734</v>
       </c>
       <c r="L243">
         <v>0.001424970506090522</v>
@@ -18671,13 +18671,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U243">
-        <v>1.000049928435909</v>
+        <v>4.992843590856388E-05</v>
       </c>
       <c r="V243">
-        <v>1.000033289502155</v>
+        <v>3.328950215530924E-05</v>
       </c>
       <c r="W243">
-        <v>1.000499251123315</v>
+        <v>0.0004992511233150587</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18712,7 +18712,7 @@
         <v>1.514171980590352</v>
       </c>
       <c r="K244">
-        <v>60.22547352686706</v>
+        <v>0.1022547352686707</v>
       </c>
       <c r="L244">
         <v>0.001643615653113039</v>
@@ -18742,13 +18742,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U244">
-        <v>1.000058246933715</v>
+        <v>5.824693371492273E-05</v>
       </c>
       <c r="V244">
-        <v>1.000049932591002</v>
+        <v>4.993259100238845E-05</v>
       </c>
       <c r="W244">
-        <v>1.000249500998004</v>
+        <v>0.0002495009980039153</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18783,7 +18783,7 @@
         <v>1.596887035060957</v>
       </c>
       <c r="K245">
-        <v>61.49235656003317</v>
+        <v>0.1149235656003317</v>
       </c>
       <c r="L245">
         <v>0.002136729810716298</v>
@@ -18813,13 +18813,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U245">
-        <v>1.000074884552981</v>
+        <v>7.488455298076957E-05</v>
       </c>
       <c r="V245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W245">
-        <v>1.000249438762784</v>
+        <v>0.0002494387627838268</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18854,7 +18854,7 @@
         <v>1.683955513451068</v>
       </c>
       <c r="K246">
-        <v>62.74155830868501</v>
+        <v>0.1274155830868502</v>
       </c>
       <c r="L246">
         <v>0.002847814045616124</v>
@@ -18884,13 +18884,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U246">
-        <v>1.000066559062849</v>
+        <v>6.655906284858126E-05</v>
       </c>
       <c r="V246">
-        <v>1.000033286731908</v>
+        <v>3.328673190838849E-05</v>
       </c>
       <c r="W246">
-        <v>1.000249376558604</v>
+        <v>0.0002493765586035757</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18925,7 +18925,7 @@
         <v>1.542576764325044</v>
       </c>
       <c r="K247">
-        <v>60.66982070980023</v>
+        <v>0.1066982070980024</v>
       </c>
       <c r="L247">
         <v>0.003544306972426178</v>
@@ -18955,13 +18955,13 @@
         <v>0.1875000000000568</v>
       </c>
       <c r="U247">
-        <v>1.000049915974776</v>
+        <v>4.991597477599363E-05</v>
       </c>
       <c r="V247">
-        <v>1.000083214059847</v>
+        <v>8.321405984745844E-05</v>
       </c>
       <c r="W247">
-        <v>0.9997506856145599</v>
+        <v>-0.0002493143854400692</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18996,7 +18996,7 @@
         <v>1.310878694426872</v>
       </c>
       <c r="K248">
-        <v>56.72641742676965</v>
+        <v>0.06726417426769649</v>
       </c>
       <c r="L248">
         <v>0.003992803988782131</v>
@@ -19026,13 +19026,13 @@
         <v>0.21875</v>
       </c>
       <c r="U248">
-        <v>1.000016637827765</v>
+        <v>1.663782776506473E-05</v>
       </c>
       <c r="V248">
-        <v>1.000033282854338</v>
+        <v>3.328285433767952E-05</v>
       </c>
       <c r="W248">
-        <v>0.9995012468827931</v>
+        <v>-0.0004987531172069293</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19067,7 +19067,7 @@
         <v>0.8891400136539103</v>
       </c>
       <c r="K249">
-        <v>47.06586103875731</v>
+        <v>-0.02934138961242688</v>
       </c>
       <c r="L249">
         <v>0.003702464394313591</v>
@@ -19097,13 +19097,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U249">
-        <v>0.9999417685716663</v>
+        <v>-5.823142833372152E-05</v>
       </c>
       <c r="V249">
-        <v>0.9999334365067478</v>
+        <v>-6.656349325218081E-05</v>
       </c>
       <c r="W249">
-        <v>0.998502994011976</v>
+        <v>-0.001497005988024047</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19138,7 +19138,7 @@
         <v>0.7603858313393707</v>
       </c>
       <c r="K250">
-        <v>43.19427126727322</v>
+        <v>-0.06805728732726779</v>
       </c>
       <c r="L250">
         <v>0.002696885843948104</v>
@@ -19168,13 +19168,13 @@
         <v>0.1624999999999659</v>
       </c>
       <c r="U250">
-        <v>0.9999251266607322</v>
+        <v>-7.487333926781137E-05</v>
       </c>
       <c r="V250">
-        <v>0.9999167900946931</v>
+        <v>-8.320990530685801E-05</v>
       </c>
       <c r="W250">
-        <v>0.9992503748125937</v>
+        <v>-0.0007496251874062887</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19209,7 +19209,7 @@
         <v>0.7603858313393708</v>
       </c>
       <c r="K251">
-        <v>43.19427126727323</v>
+        <v>-0.06805728732726768</v>
       </c>
       <c r="L251">
         <v>0.001312328247774459</v>
@@ -19239,13 +19239,13 @@
         <v>0.08124999999995453</v>
       </c>
       <c r="U251">
-        <v>0.9999001614057275</v>
+        <v>-9.983859427253883E-05</v>
       </c>
       <c r="V251">
-        <v>0.9999167831702281</v>
+        <v>-8.32168297718594E-05</v>
       </c>
       <c r="W251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19280,7 +19280,7 @@
         <v>0.686908769558593</v>
       </c>
       <c r="K252">
-        <v>40.71997146225839</v>
+        <v>-0.09280028537741614</v>
       </c>
       <c r="L252">
         <v>-0.0004001670582063302</v>
@@ -19310,13 +19310,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U252">
-        <v>0.9998835100098186</v>
+        <v>-0.0001164899901814342</v>
       </c>
       <c r="V252">
-        <v>0.9999167762446112</v>
+        <v>-8.32237553888282E-05</v>
       </c>
       <c r="W252">
-        <v>0.9994998749687423</v>
+        <v>-0.0005001250312577366</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19351,7 +19351,7 @@
         <v>0.6234892258189527</v>
       </c>
       <c r="K253">
-        <v>38.4042724708838</v>
+        <v>-0.115957275291162</v>
       </c>
       <c r="L253">
         <v>-0.002382598476594809</v>
@@ -19381,13 +19381,13 @@
         <v>-0.1687499999999318</v>
       </c>
       <c r="U253">
-        <v>0.9999001398042739</v>
+        <v>-9.986019572605365E-05</v>
       </c>
       <c r="V253">
-        <v>0.9998668309085461</v>
+        <v>-0.0001331690914538886</v>
       </c>
       <c r="W253">
-        <v>0.9994996247185389</v>
+        <v>-0.000500375281461074</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19422,7 +19422,7 @@
         <v>0.4337818132732161</v>
       </c>
       <c r="K254">
-        <v>30.2543810541804</v>
+        <v>-0.197456189458196</v>
       </c>
       <c r="L254">
         <v>-0.005211827595802769</v>
@@ -19452,13 +19452,13 @@
         <v>-0.375</v>
       </c>
       <c r="U254">
-        <v>0.9998418722327639</v>
+        <v>-0.0001581277672361159</v>
       </c>
       <c r="V254">
-        <v>0.9997169779908768</v>
+        <v>-0.0002830220091232238</v>
       </c>
       <c r="W254">
-        <v>0.997747183979975</v>
+        <v>-0.002252816020025028</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19493,7 +19493,7 @@
         <v>0.4188753691511823</v>
       </c>
       <c r="K255">
-        <v>29.52164638686817</v>
+        <v>-0.2047835361313183</v>
       </c>
       <c r="L255">
         <v>-0.008446034617903143</v>
@@ -19523,13 +19523,13 @@
         <v>-0.5749999999999886</v>
       </c>
       <c r="U255">
-        <v>0.9998002280729501</v>
+        <v>-0.0001997719270498965</v>
       </c>
       <c r="V255">
-        <v>0.9996835917334177</v>
+        <v>-0.000316408266582302</v>
       </c>
       <c r="W255">
-        <v>0.9997491219267436</v>
+        <v>-0.0002508780732564109</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19564,7 +19564,7 @@
         <v>0.4188753691511823</v>
       </c>
       <c r="K256">
-        <v>29.52164638686817</v>
+        <v>-0.2047835361313183</v>
       </c>
       <c r="L256">
         <v>-0.01168925226137455</v>
@@ -19594,13 +19594,13 @@
         <v>-0.7437499999999773</v>
       </c>
       <c r="U256">
-        <v>0.9998085136496466</v>
+        <v>-0.0001914863503533759</v>
       </c>
       <c r="V256">
-        <v>0.9996668332500417</v>
+        <v>-0.0003331667499583135</v>
       </c>
       <c r="W256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19635,7 +19635,7 @@
         <v>0.4569517363175444</v>
       </c>
       <c r="K257">
-        <v>31.36354656966833</v>
+        <v>-0.1863645343033167</v>
       </c>
       <c r="L257">
         <v>-0.01459838250060996</v>
@@ -19665,13 +19665,13 @@
         <v>-0.8250000000000455</v>
       </c>
       <c r="U257">
-        <v>0.9998251311516362</v>
+        <v>-0.0001748688483638183</v>
       </c>
       <c r="V257">
-        <v>0.9996667222129645</v>
+        <v>-0.000333277787035513</v>
       </c>
       <c r="W257">
-        <v>1.000250941028858</v>
+        <v>0.0002509410288582536</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19706,7 +19706,7 @@
         <v>0.7775948282447127</v>
       </c>
       <c r="K258">
-        <v>43.7442107666655</v>
+        <v>-0.06255789233334502</v>
       </c>
       <c r="L258">
         <v>-0.01633962197677879</v>
@@ -19736,13 +19736,13 @@
         <v>-0.8124999999999432</v>
       </c>
       <c r="U258">
-        <v>0.9999000574669564</v>
+        <v>-9.994253304357326E-05</v>
       </c>
       <c r="V258">
-        <v>0.9997666277712953</v>
+        <v>-0.0002333722287046758</v>
       </c>
       <c r="W258">
-        <v>1.002007024586051</v>
+        <v>0.002007024586051065</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19777,7 +19777,7 @@
         <v>0.6653163576965345</v>
       </c>
       <c r="K259">
-        <v>39.95134946111981</v>
+        <v>-0.1004865053888019</v>
       </c>
       <c r="L259">
         <v>-0.01756679237795072</v>
@@ -19807,13 +19807,13 @@
         <v>-0.8125</v>
       </c>
       <c r="U259">
-        <v>0.999866729969931</v>
+        <v>-0.0001332700300690215</v>
       </c>
       <c r="V259">
-        <v>0.9996832066159795</v>
+        <v>-0.000316793384020464</v>
       </c>
       <c r="W259">
-        <v>0.99899849774662</v>
+        <v>-0.001001502253380027</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19848,7 +19848,7 @@
         <v>0.5255324681995999</v>
       </c>
       <c r="K260">
-        <v>34.44911722002362</v>
+        <v>-0.1555088277997638</v>
       </c>
       <c r="L260">
         <v>-0.01897739867044628</v>
@@ -19878,13 +19878,13 @@
         <v>-0.8250000000000455</v>
       </c>
       <c r="U260">
-        <v>0.9997750768487436</v>
+        <v>-0.0002249231512564398</v>
       </c>
       <c r="V260">
-        <v>0.9995496772687094</v>
+        <v>-0.0004503227312906422</v>
       </c>
       <c r="W260">
-        <v>0.9982456140350877</v>
+        <v>-0.001754385964912286</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19919,7 +19919,7 @@
         <v>0.5255324681995999</v>
       </c>
       <c r="K261">
-        <v>34.44911722002362</v>
+        <v>-0.1555088277997638</v>
       </c>
       <c r="L261">
         <v>-0.02034073171034895</v>
@@ -19949,13 +19949,13 @@
         <v>-0.8062500000000341</v>
       </c>
       <c r="U261">
-        <v>0.9997833586081623</v>
+        <v>-0.0002166413918377463</v>
       </c>
       <c r="V261">
-        <v>0.9995327882529618</v>
+        <v>-0.000467211747038232</v>
       </c>
       <c r="W261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19990,7 +19990,7 @@
         <v>0.4638300052610981</v>
       </c>
       <c r="K262">
-        <v>31.68605668650483</v>
+        <v>-0.1831394331349517</v>
       </c>
       <c r="L262">
         <v>-0.02187904897808865</v>
@@ -20020,13 +20020,13 @@
         <v>-0.6937500000000227</v>
       </c>
       <c r="U262">
-        <v>0.9997833116644997</v>
+        <v>-0.0002166883355002591</v>
       </c>
       <c r="V262">
-        <v>0.9994824880638377</v>
+        <v>-0.0005175119361623404</v>
       </c>
       <c r="W262">
-        <v>0.9989957318604067</v>
+        <v>-0.001004268139593312</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20061,7 +20061,7 @@
         <v>0.449928468143254</v>
       </c>
       <c r="K263">
-        <v>31.0310803621521</v>
+        <v>-0.189689196378479</v>
       </c>
       <c r="L263">
         <v>-0.02343745107640757</v>
@@ -20091,13 +20091,13 @@
         <v>-0.5812500000000114</v>
       </c>
       <c r="U263">
-        <v>0.9997665927543723</v>
+        <v>-0.0002334072456277037</v>
       </c>
       <c r="V263">
-        <v>0.9994989226837699</v>
+        <v>-0.0005010773162300586</v>
       </c>
       <c r="W263">
-        <v>0.9997486805730084</v>
+        <v>-0.0002513194269916363</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20132,7 +20132,7 @@
         <v>0.4814770889745312</v>
       </c>
       <c r="K264">
-        <v>32.4997998658087</v>
+        <v>-0.175002001341913</v>
       </c>
       <c r="L264">
         <v>-0.02473305882463036</v>
@@ -20162,13 +20162,13 @@
         <v>-0.4750000000000227</v>
       </c>
       <c r="U264">
-        <v>0.9997748761819</v>
+        <v>-0.0002251238181000259</v>
       </c>
       <c r="V264">
-        <v>0.9996156481342224</v>
+        <v>-0.0003843518657775657</v>
       </c>
       <c r="W264">
-        <v>1.000251382604324</v>
+        <v>0.0002513826043237799</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20203,7 +20203,7 @@
         <v>0.4660016068673482</v>
       </c>
       <c r="K265">
-        <v>31.78725075637074</v>
+        <v>-0.1821274924362926</v>
       </c>
       <c r="L265">
         <v>-0.02578847327912234</v>
@@ -20233,13 +20233,13 @@
         <v>-0.4250000000000114</v>
       </c>
       <c r="U265">
-        <v>0.9997831652864304</v>
+        <v>-0.0002168347135695914</v>
       </c>
       <c r="V265">
-        <v>0.9996489351031461</v>
+        <v>-0.000351064896853881</v>
       </c>
       <c r="W265">
-        <v>0.9997486805730084</v>
+        <v>-0.0002513194269916363</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20274,7 +20274,7 @@
         <v>0.4660016068673481</v>
       </c>
       <c r="K266">
-        <v>31.78725075637072</v>
+        <v>-0.1821274924362928</v>
       </c>
       <c r="L266">
         <v>-0.0265377568376817</v>
@@ -20304,13 +20304,13 @@
         <v>-0.4937499999999773</v>
       </c>
       <c r="U266">
-        <v>0.9997831182589402</v>
+        <v>-0.0002168817410598267</v>
       </c>
       <c r="V266">
-        <v>0.9996488118133019</v>
+        <v>-0.0003511881866981037</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20345,7 +20345,7 @@
         <v>0.4350162283986936</v>
       </c>
       <c r="K267">
-        <v>30.31437692409372</v>
+        <v>-0.1968562307590628</v>
       </c>
       <c r="L267">
         <v>-0.02713987897005636</v>
@@ -20375,13 +20375,13 @@
         <v>-0.5249999999999773</v>
       </c>
       <c r="U267">
-        <v>0.9997830712110469</v>
+        <v>-0.0002169287889530747</v>
       </c>
       <c r="V267">
-        <v>0.9996486884368307</v>
+        <v>-0.0003513115631692543</v>
       </c>
       <c r="W267">
-        <v>0.9994972347913524</v>
+        <v>-0.0005027652086475598</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20416,7 +20416,7 @@
         <v>0.4700120174486407</v>
       </c>
       <c r="K268">
-        <v>31.97334524274132</v>
+        <v>-0.1802665475725868</v>
       </c>
       <c r="L268">
         <v>-0.02742502220965773</v>
@@ -20446,13 +20446,13 @@
         <v>-0.4750000000000227</v>
       </c>
       <c r="U268">
-        <v>0.9997830241427365</v>
+        <v>-0.0002169758572635461</v>
       </c>
       <c r="V268">
-        <v>0.9996987699774079</v>
+        <v>-0.0003012300225920805</v>
       </c>
       <c r="W268">
-        <v>1.000251509054326</v>
+        <v>0.0002515090543258047</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20487,7 +20487,7 @@
         <v>0.4700120174486407</v>
       </c>
       <c r="K269">
-        <v>31.97334524274132</v>
+        <v>-0.1802665475725868</v>
       </c>
       <c r="L269">
         <v>-0.02740042014968714</v>
@@ -20517,13 +20517,13 @@
         <v>-0.4375000000000568</v>
       </c>
       <c r="U269">
-        <v>0.9997829770539972</v>
+        <v>-0.0002170229460027873</v>
       </c>
       <c r="V269">
-        <v>0.9998493396052697</v>
+        <v>-0.0001506603947303287</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20558,7 +20558,7 @@
         <v>0.4524669344672639</v>
       </c>
       <c r="K270">
-        <v>31.15161686164097</v>
+        <v>-0.1884838313835903</v>
       </c>
       <c r="L270">
         <v>-0.0271813940064925</v>
@@ -20588,13 +20588,13 @@
         <v>-0.4124999999999659</v>
       </c>
       <c r="U270">
-        <v>0.9997662322482613</v>
+        <v>-0.0002337677517386672</v>
       </c>
       <c r="V270">
-        <v>0.9998493169032949</v>
+        <v>-0.0001506830967050732</v>
       </c>
       <c r="W270">
-        <v>0.9997485541865728</v>
+        <v>-0.0002514458134271758</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20629,7 +20629,7 @@
         <v>0.4524669344672639</v>
       </c>
       <c r="K271">
-        <v>31.15161686164097</v>
+        <v>-0.1884838313835903</v>
       </c>
       <c r="L271">
         <v>-0.02675981720010885</v>
@@ -20659,13 +20659,13 @@
         <v>-0.3812499999999659</v>
       </c>
       <c r="U271">
-        <v>0.9997578267876975</v>
+        <v>-0.0002421732123024656</v>
       </c>
       <c r="V271">
-        <v>0.9998492941944774</v>
+        <v>-0.0001507058055225663</v>
       </c>
       <c r="W271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20700,7 +20700,7 @@
         <v>0.3882346283744085</v>
       </c>
       <c r="K272">
-        <v>27.96606715026425</v>
+        <v>-0.2203393284973575</v>
       </c>
       <c r="L272">
         <v>-0.02651011865587478</v>
@@ -20730,13 +20730,13 @@
         <v>-0.3874999999999886</v>
       </c>
       <c r="U272">
-        <v>0.9997160040093551</v>
+        <v>-0.0002839959906448808</v>
       </c>
       <c r="V272">
-        <v>0.9997655334114888</v>
+        <v>-0.0002344665885112285</v>
       </c>
       <c r="W272">
-        <v>0.9989939637826961</v>
+        <v>-0.001006036217303885</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20771,7 +20771,7 @@
         <v>0.3271300780638485</v>
       </c>
       <c r="K273">
-        <v>24.64943591219777</v>
+        <v>-0.2535056408780223</v>
       </c>
       <c r="L273">
         <v>-0.02674074176433664</v>
@@ -20801,13 +20801,13 @@
         <v>-0.4062499999999432</v>
       </c>
       <c r="U273">
-        <v>0.9996574369600455</v>
+        <v>-0.0003425630399545021</v>
       </c>
       <c r="V273">
-        <v>0.9995477083891718</v>
+        <v>-0.0004522916108281594</v>
       </c>
       <c r="W273">
-        <v>0.9987411883182276</v>
+        <v>-0.001258811681772443</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20842,7 +20842,7 @@
         <v>0.2975520092370353</v>
       </c>
       <c r="K274">
-        <v>22.931798272348</v>
+        <v>-0.27068201727652</v>
       </c>
       <c r="L274">
         <v>-0.02742496896445429</v>
@@ -20872,13 +20872,13 @@
         <v>-0.3937500000000114</v>
       </c>
       <c r="U274">
-        <v>0.9996238873333613</v>
+        <v>-0.0003761126666387282</v>
       </c>
       <c r="V274">
-        <v>0.9995642628500563</v>
+        <v>-0.0004357371499437157</v>
       </c>
       <c r="W274">
-        <v>0.999243761028485</v>
+        <v>-0.0007562389715149997</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20913,7 +20913,7 @@
         <v>0.4244528411656605</v>
       </c>
       <c r="K275">
-        <v>29.79760571212182</v>
+        <v>-0.2020239428787818</v>
       </c>
       <c r="L275">
         <v>-0.02787620100082608</v>
@@ -20943,13 +20943,13 @@
         <v>-0.3562500000000455</v>
       </c>
       <c r="U275">
-        <v>0.9996488294314381</v>
+        <v>-0.0003511705685619315</v>
       </c>
       <c r="V275">
-        <v>0.9997485035963987</v>
+        <v>-0.0002514964036013367</v>
       </c>
       <c r="W275">
-        <v>1.001009081735621</v>
+        <v>0.001009081735620754</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20984,7 +20984,7 @@
         <v>0.4912427527070327</v>
       </c>
       <c r="K276">
-        <v>32.94183672076772</v>
+        <v>-0.1705816327923227</v>
       </c>
       <c r="L276">
         <v>-0.02787377034346998</v>
@@ -21014,13 +21014,13 @@
         <v>-0.3625000000000114</v>
       </c>
       <c r="U276">
-        <v>0.9996570702086017</v>
+        <v>-0.0003429297913982721</v>
       </c>
       <c r="V276">
-        <v>0.9997819816193734</v>
+        <v>-0.0002180183806266278</v>
       </c>
       <c r="W276">
-        <v>1.000504032258065</v>
+        <v>0.0005040322580645018</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21055,7 +21055,7 @@
         <v>0.4589744742492877</v>
       </c>
       <c r="K277">
-        <v>31.45870488827106</v>
+        <v>-0.1854129511172894</v>
       </c>
       <c r="L277">
         <v>-0.02767805507197194</v>
@@ -21085,13 +21085,13 @@
         <v>-0.3812499999999091</v>
       </c>
       <c r="U277">
-        <v>0.9996485855568664</v>
+        <v>-0.0003514144431335797</v>
       </c>
       <c r="V277">
-        <v>0.9998154826805333</v>
+        <v>-0.0001845173194666705</v>
       </c>
       <c r="W277">
-        <v>0.9994962216624685</v>
+        <v>-0.0005037783375314575</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21126,7 +21126,7 @@
         <v>0.4589744742492877</v>
       </c>
       <c r="K278">
-        <v>31.45870488827106</v>
+        <v>-0.1854129511172894</v>
       </c>
       <c r="L278">
         <v>-0.02727720558120175</v>
@@ -21156,13 +21156,13 @@
         <v>-0.4125000000000227</v>
       </c>
       <c r="U278">
-        <v>0.9996652019250889</v>
+        <v>-0.0003347980749111024</v>
       </c>
       <c r="V278">
-        <v>0.999832226025099</v>
+        <v>-0.0001677739749009755</v>
       </c>
       <c r="W278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21197,7 +21197,7 @@
         <v>0.4589744742492878</v>
       </c>
       <c r="K279">
-        <v>31.45870488827107</v>
+        <v>-0.1854129511172893</v>
       </c>
       <c r="L279">
         <v>-0.02667850118438997</v>
@@ -21227,13 +21227,13 @@
         <v>-0.4499999999999886</v>
       </c>
       <c r="U279">
-        <v>0.9997153263281281</v>
+        <v>-0.0002846736718719045</v>
       </c>
       <c r="V279">
-        <v>0.9998154176594961</v>
+        <v>-0.0001845823405038916</v>
       </c>
       <c r="W279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21268,7 +21268,7 @@
         <v>0.3979910111886461</v>
       </c>
       <c r="K280">
-        <v>28.46878184504585</v>
+        <v>-0.2153121815495415</v>
       </c>
       <c r="L280">
         <v>-0.02626685597990141</v>
@@ -21298,13 +21298,13 @@
         <v>-0.4562499999999545</v>
       </c>
       <c r="U280">
-        <v>0.999706870126716</v>
+        <v>-0.0002931298732840038</v>
       </c>
       <c r="V280">
-        <v>0.9997650336505378</v>
+        <v>-0.0002349663494621845</v>
       </c>
       <c r="W280">
-        <v>0.9989919354838709</v>
+        <v>-0.001008064516129115</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21339,7 +21339,7 @@
         <v>0.5378530789347836</v>
       </c>
       <c r="K281">
-        <v>34.97428241372288</v>
+        <v>-0.1502571758627713</v>
       </c>
       <c r="L281">
         <v>-0.02553368040056861</v>
@@ -21369,13 +21369,13 @@
         <v>-0.3812500000000227</v>
       </c>
       <c r="U281">
-        <v>0.9997402945562389</v>
+        <v>-0.0002597054437610824</v>
       </c>
       <c r="V281">
-        <v>0.9998321274488409</v>
+        <v>-0.0001678725511591317</v>
       </c>
       <c r="W281">
-        <v>1.001009081735621</v>
+        <v>0.001009081735620754</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21410,7 +21410,7 @@
         <v>0.5378530789347836</v>
       </c>
       <c r="K282">
-        <v>34.97428241372288</v>
+        <v>-0.1502571758627713</v>
       </c>
       <c r="L282">
         <v>-0.02455946528858309</v>
@@ -21440,13 +21440,13 @@
         <v>-0.2687500000000114</v>
       </c>
       <c r="U282">
-        <v>0.9997569866342647</v>
+        <v>-0.0002430133657352895</v>
       </c>
       <c r="V282">
-        <v>0.9998656794103328</v>
+        <v>-0.000134320589667225</v>
       </c>
       <c r="W282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21481,7 +21481,7 @@
         <v>0.9252826294780679</v>
       </c>
       <c r="K283">
-        <v>48.0595739716878</v>
+        <v>-0.01940426028312203</v>
       </c>
       <c r="L283">
         <v>-0.02249672369022052</v>
@@ -21511,13 +21511,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U283">
-        <v>0.9998575092618981</v>
+        <v>-0.000142490738101908</v>
       </c>
       <c r="V283">
-        <v>1.000016792329264</v>
+        <v>1.679232926377061E-05</v>
       </c>
       <c r="W283">
-        <v>1.002520161290323</v>
+        <v>0.002520161290322509</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21552,7 +21552,7 @@
         <v>1.047628803333846</v>
       </c>
       <c r="K284">
-        <v>51.16302337748667</v>
+        <v>0.01163023377486672</v>
       </c>
       <c r="L284">
         <v>-0.01954870031580184</v>
@@ -21582,13 +21582,13 @@
         <v>-0.04374999999993179</v>
       </c>
       <c r="U284">
-        <v>0.9999580849868808</v>
+        <v>-4.19150131192314E-05</v>
       </c>
       <c r="V284">
-        <v>1.000067168189146</v>
+        <v>6.71681891455389E-05</v>
       </c>
       <c r="W284">
-        <v>1.000754147812971</v>
+        <v>0.0007541478129713397</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21623,7 +21623,7 @@
         <v>1.133485767443157</v>
       </c>
       <c r="K285">
-        <v>53.12834914298796</v>
+        <v>0.03128349142987963</v>
       </c>
       <c r="L285">
         <v>-0.0159972136182256</v>
@@ -21653,13 +21653,13 @@
         <v>0.1062500000000455</v>
       </c>
       <c r="U285">
-        <v>0.9999832332919754</v>
+        <v>-1.676670802464031E-05</v>
       </c>
       <c r="V285">
-        <v>1.000117536436296</v>
+        <v>0.0001175364362955289</v>
       </c>
       <c r="W285">
-        <v>1.000502386335092</v>
+        <v>0.0005023863350916979</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21694,7 +21694,7 @@
         <v>0.9599697855058695</v>
       </c>
       <c r="K286">
-        <v>48.9788053165371</v>
+        <v>-0.010211946834629</v>
       </c>
       <c r="L286">
         <v>-0.0126139436630319</v>
@@ -21724,13 +21724,13 @@
         <v>0.2249999999999659</v>
       </c>
       <c r="U286">
-        <v>0.9999496990325448</v>
+        <v>-5.030096745517465E-05</v>
       </c>
       <c r="V286">
-        <v>1.000050366838473</v>
+        <v>5.036683847348122E-05</v>
       </c>
       <c r="W286">
-        <v>0.9989957318604067</v>
+        <v>-0.001004268139593312</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21765,7 +21765,7 @@
         <v>0.8883925809421914</v>
       </c>
       <c r="K287">
-        <v>47.04490951235035</v>
+        <v>-0.02955090487649648</v>
       </c>
       <c r="L287">
         <v>-0.009685314100883828</v>
@@ -21795,13 +21795,13 @@
         <v>0.3312500000000114</v>
       </c>
       <c r="U287">
-        <v>0.9999245447533451</v>
+        <v>-7.545524665486525E-05</v>
       </c>
       <c r="V287">
-        <v>1.000083940502972</v>
+        <v>8.394050297155786E-05</v>
       </c>
       <c r="W287">
-        <v>0.9994973611460166</v>
+        <v>-0.0005026388539833837</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21836,7 +21836,7 @@
         <v>0.9276357045248889</v>
       </c>
       <c r="K288">
-        <v>48.12297792302651</v>
+        <v>-0.01877022076973489</v>
       </c>
       <c r="L288">
         <v>-0.007091935757043862</v>
@@ -21866,13 +21866,13 @@
         <v>0.4687499999999432</v>
       </c>
       <c r="U288">
-        <v>0.999865847216749</v>
+        <v>-0.0001341527832510181</v>
       </c>
       <c r="V288">
-        <v>1.000184653606621</v>
+        <v>0.0001846536066205662</v>
       </c>
       <c r="W288">
-        <v>1.000251445813427</v>
+        <v>0.0002514458134272868</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21907,7 +21907,7 @@
         <v>0.9689442556645467</v>
       </c>
       <c r="K289">
-        <v>49.21136049824398</v>
+        <v>-0.007886395017560222</v>
       </c>
       <c r="L289">
         <v>-0.004749534556605541</v>
@@ -21937,13 +21937,13 @@
         <v>0.53125</v>
       </c>
       <c r="U289">
-        <v>0.9999077575869384</v>
+        <v>-9.224241306160508E-05</v>
       </c>
       <c r="V289">
-        <v>1.000251753885401</v>
+        <v>0.0002517538854014401</v>
       </c>
       <c r="W289">
-        <v>1.000251382604324</v>
+        <v>0.0002513826043237799</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21978,7 +21978,7 @@
         <v>0.8253845148567507</v>
       </c>
       <c r="K290">
-        <v>45.21702184602589</v>
+        <v>-0.04782978153974105</v>
       </c>
       <c r="L290">
         <v>-0.003057577582283511</v>
@@ -22008,13 +22008,13 @@
         <v>0.5500000000000114</v>
       </c>
       <c r="U290">
-        <v>0.9999329084199934</v>
+        <v>-6.709158000661741E-05</v>
       </c>
       <c r="V290">
-        <v>1.000117455576623</v>
+        <v>0.0001174555766227936</v>
       </c>
       <c r="W290">
-        <v>0.9989947222920332</v>
+        <v>-0.001005277707966767</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22049,7 +22049,7 @@
         <v>0.7656773981067994</v>
       </c>
       <c r="K291">
-        <v>43.36451261865709</v>
+        <v>-0.06635487381342903</v>
       </c>
       <c r="L291">
         <v>-0.00203964315994804</v>
@@ -22079,13 +22079,13 @@
         <v>0.4562500000000114</v>
       </c>
       <c r="U291">
-        <v>0.999916129898014</v>
+        <v>-8.387010198596112E-05</v>
       </c>
       <c r="V291">
-        <v>1.00005033219247</v>
+        <v>5.033219247030374E-05</v>
       </c>
       <c r="W291">
-        <v>0.9994968553459119</v>
+        <v>-0.0005031446540880724</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22120,7 +22120,7 @@
         <v>0.6871876747891943</v>
       </c>
       <c r="K292">
-        <v>40.72977091152915</v>
+        <v>-0.09270229088470849</v>
       </c>
       <c r="L292">
         <v>-0.001762351175112724</v>
@@ -22150,13 +22150,13 @@
         <v>0.3187500000000227</v>
       </c>
       <c r="U292">
-        <v>0.999924510576907</v>
+        <v>-7.548942309298923E-05</v>
       </c>
       <c r="V292">
-        <v>1.000033553106179</v>
+        <v>3.355310617880747E-05</v>
       </c>
       <c r="W292">
-        <v>0.9992449030958973</v>
+        <v>-0.0007550969041026923</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22191,7 +22191,7 @@
         <v>0.6202584138077776</v>
       </c>
       <c r="K293">
-        <v>38.28144995402956</v>
+        <v>-0.1171855004597044</v>
       </c>
       <c r="L293">
         <v>-0.002219865258185118</v>
@@ -22221,13 +22221,13 @@
         <v>0.125</v>
       </c>
       <c r="U293">
-        <v>0.9999077281840067</v>
+        <v>-9.227181599325007E-05</v>
       </c>
       <c r="V293">
-        <v>0.999983224009797</v>
+        <v>-1.677599020299958E-05</v>
       </c>
       <c r="W293">
-        <v>0.9992443324937027</v>
+        <v>-0.0007556675062972973</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22262,7 +22262,7 @@
         <v>0.5997621426728554</v>
       </c>
       <c r="K294">
-        <v>37.49070731670041</v>
+        <v>-0.1250929268329959</v>
       </c>
       <c r="L294">
         <v>-0.003176961811888091</v>
@@ -22292,13 +22292,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U294">
-        <v>0.9998909414271572</v>
+        <v>-0.0001090585728428239</v>
       </c>
       <c r="V294">
-        <v>0.9999664474567173</v>
+        <v>-3.355254328274437E-05</v>
       </c>
       <c r="W294">
-        <v>0.9997479203428284</v>
+        <v>-0.0002520796571715556</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22333,7 +22333,7 @@
         <v>0.5997621426728553</v>
       </c>
       <c r="K295">
-        <v>37.49070731670041</v>
+        <v>-0.1250929268329959</v>
       </c>
       <c r="L295">
         <v>-0.004364236124249019</v>
@@ -22363,13 +22363,13 @@
         <v>-0.1500000000000341</v>
       </c>
       <c r="U295">
-        <v>0.9998993195680811</v>
+        <v>-0.0001006804319189092</v>
       </c>
       <c r="V295">
-        <v>1.000033553669094</v>
+        <v>3.355366909363333E-05</v>
       </c>
       <c r="W295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22404,7 +22404,7 @@
         <v>0.7462207749359595</v>
       </c>
       <c r="K296">
-        <v>42.73347251657376</v>
+        <v>-0.07266527483426244</v>
       </c>
       <c r="L296">
         <v>-0.005233055867633124</v>
@@ -22434,13 +22434,13 @@
         <v>-0.2874999999999659</v>
       </c>
       <c r="U296">
-        <v>0.9999328729536737</v>
+        <v>-6.712704632627631E-05</v>
       </c>
       <c r="V296">
-        <v>1.000033552543283</v>
+        <v>3.35525432828554E-05</v>
       </c>
       <c r="W296">
-        <v>1.00100857286939</v>
+        <v>0.001008572869389823</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22475,7 +22475,7 @@
         <v>0.6060674021324195</v>
       </c>
       <c r="K297">
-        <v>37.7361125272655</v>
+        <v>-0.122638874727345</v>
       </c>
       <c r="L297">
         <v>-0.006384279059318668</v>
@@ -22505,13 +22505,13 @@
         <v>-0.4500000000000455</v>
       </c>
       <c r="U297">
-        <v>0.9998993026709966</v>
+        <v>-0.0001006973290034185</v>
       </c>
       <c r="V297">
-        <v>0.9999328971649053</v>
+        <v>-6.710283509470116E-05</v>
       </c>
       <c r="W297">
-        <v>0.9984886649874055</v>
+        <v>-0.001511335012594484</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22546,7 +22546,7 @@
         <v>0.5354889877071478</v>
       </c>
       <c r="K298">
-        <v>34.87416660061892</v>
+        <v>-0.1512583339938108</v>
       </c>
       <c r="L298">
         <v>-0.007976630460337173</v>
@@ -22576,13 +22576,13 @@
         <v>-0.5875000000000341</v>
       </c>
       <c r="U298">
-        <v>0.9998573310841999</v>
+        <v>-0.0001426689158000594</v>
       </c>
       <c r="V298">
-        <v>0.9996980169781565</v>
+        <v>-0.0003019830218434771</v>
       </c>
       <c r="W298">
-        <v>0.9989909182643795</v>
+        <v>-0.001009081735620532</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22617,7 +22617,7 @@
         <v>0.5661345345368816</v>
       </c>
       <c r="K299">
-        <v>36.14852505019896</v>
+        <v>-0.1385147494980103</v>
       </c>
       <c r="L299">
         <v>-0.00961434910921526</v>
@@ -22647,13 +22647,13 @@
         <v>-0.6312500000000227</v>
       </c>
       <c r="U299">
-        <v>0.9998657042135303</v>
+        <v>-0.0001342957864697292</v>
       </c>
       <c r="V299">
-        <v>0.9996643619520709</v>
+        <v>-0.0003356380479291321</v>
       </c>
       <c r="W299">
-        <v>1.000252525252525</v>
+        <v>0.0002525252525253929</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22688,7 +22688,7 @@
         <v>0.7274268862722858</v>
       </c>
       <c r="K300">
-        <v>42.11042979897356</v>
+        <v>-0.07889570201026436</v>
       </c>
       <c r="L300">
         <v>-0.01068224137391302</v>
@@ -22718,13 +22718,13 @@
         <v>-0.5875000000000341</v>
       </c>
       <c r="U300">
-        <v>0.9999160538598436</v>
+        <v>-8.394614015638791E-05</v>
       </c>
       <c r="V300">
-        <v>0.9997146118721463</v>
+        <v>-0.0002853881278537251</v>
       </c>
       <c r="W300">
-        <v>1.001262307498107</v>
+        <v>0.00126230749810663</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22759,7 +22759,7 @@
         <v>0.7613831708481488</v>
       </c>
       <c r="K301">
-        <v>43.22643610143751</v>
+        <v>-0.06773563898562496</v>
       </c>
       <c r="L301">
         <v>-0.01120639221489159</v>
@@ -22789,13 +22789,13 @@
         <v>-0.4875000000000114</v>
       </c>
       <c r="U301">
-        <v>0.9999244421310677</v>
+        <v>-7.555786893231886E-05</v>
       </c>
       <c r="V301">
-        <v>0.9997984920488319</v>
+        <v>-0.0002015079511681339</v>
       </c>
       <c r="W301">
-        <v>1.000252143217347</v>
+        <v>0.0002521432173474558</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22830,7 +22830,7 @@
         <v>0.8328700857447229</v>
       </c>
       <c r="K302">
-        <v>45.44075939819353</v>
+        <v>-0.04559240601806475</v>
       </c>
       <c r="L302">
         <v>-0.01114360342243646</v>
@@ -22860,13 +22860,13 @@
         <v>-0.3874999999999318</v>
       </c>
       <c r="U302">
-        <v>0.9999748121405484</v>
+        <v>-2.518785945160307E-05</v>
       </c>
       <c r="V302">
-        <v>0.9998656342901291</v>
+        <v>-0.0001343657098709095</v>
       </c>
       <c r="W302">
-        <v>1.000504159314343</v>
+        <v>0.0005041593143433332</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22901,7 +22901,7 @@
         <v>0.5593031644925825</v>
       </c>
       <c r="K303">
-        <v>35.86878916356122</v>
+        <v>-0.1413121083643878</v>
       </c>
       <c r="L303">
         <v>-0.01188028141660025</v>
@@ -22931,13 +22931,13 @@
         <v>-0.3812500000000227</v>
       </c>
       <c r="U303">
-        <v>0.9999076421890479</v>
+        <v>-9.235781095207063E-05</v>
       </c>
       <c r="V303">
-        <v>0.9996304446422872</v>
+        <v>-0.0003695553577127697</v>
       </c>
       <c r="W303">
-        <v>0.9967246157722349</v>
+        <v>-0.003275384227765077</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -22972,7 +22972,7 @@
         <v>0.878457396469845</v>
       </c>
       <c r="K304">
-        <v>46.76482938184895</v>
+        <v>-0.03235170618151045</v>
       </c>
       <c r="L304">
         <v>-0.01191131291598713</v>
@@ -23002,13 +23002,13 @@
         <v>-0.3437499999999432</v>
       </c>
       <c r="U304">
-        <v>1.00003358776062</v>
+        <v>3.358776061990199E-05</v>
       </c>
       <c r="V304">
-        <v>0.999815154010318</v>
+        <v>-0.0001848459896820476</v>
       </c>
       <c r="W304">
-        <v>1.003033367037411</v>
+        <v>0.003033367037411416</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23043,7 +23043,7 @@
         <v>0.7705902325109751</v>
       </c>
       <c r="K305">
-        <v>43.5216583917419</v>
+        <v>-0.06478341608258098</v>
       </c>
       <c r="L305">
         <v>-0.01192784525776527</v>
@@ -23073,13 +23073,13 @@
         <v>-0.2562500000000227</v>
       </c>
       <c r="U305">
-        <v>0.9999580167093496</v>
+        <v>-4.198329065041584E-05</v>
       </c>
       <c r="V305">
-        <v>0.999798312548321</v>
+        <v>-0.0002016874516790335</v>
       </c>
       <c r="W305">
-        <v>0.9987399193548387</v>
+        <v>-0.001260080645161255</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23114,7 +23114,7 @@
         <v>0.7327079742376507</v>
       </c>
       <c r="K306">
-        <v>42.28687032851131</v>
+        <v>-0.07713129671488689</v>
       </c>
       <c r="L306">
         <v>-0.01207459663217273</v>
@@ -23144,13 +23144,13 @@
         <v>-0.1562499999999432</v>
       </c>
       <c r="U306">
-        <v>0.9999244269040223</v>
+        <v>-7.557309597772122E-05</v>
       </c>
       <c r="V306">
-        <v>0.9997982718622866</v>
+        <v>-0.0002017281377133529</v>
       </c>
       <c r="W306">
-        <v>0.9994953318193288</v>
+        <v>-0.0005046681806711861</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23185,7 +23185,7 @@
         <v>0.9914451062306646</v>
       </c>
       <c r="K307">
-        <v>49.78520889823753</v>
+        <v>-0.002147911017624737</v>
       </c>
       <c r="L307">
         <v>-0.01132991889203542</v>
@@ -23215,13 +23215,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U307">
-        <v>1.000025192935901</v>
+        <v>2.5192935900753E-05</v>
       </c>
       <c r="V307">
-        <v>1.000016814070014</v>
+        <v>1.681407001385971E-05</v>
       </c>
       <c r="W307">
-        <v>1.002524614996213</v>
+        <v>0.002524614996213037</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23256,7 +23256,7 @@
         <v>0.9651585427291537</v>
       </c>
       <c r="K308">
-        <v>49.11352044852169</v>
+        <v>-0.008864795514783086</v>
       </c>
       <c r="L308">
         <v>-0.01014285373944389</v>
@@ -23286,13 +23286,13 @@
         <v>0.03125</v>
       </c>
       <c r="U308">
-        <v>1.000016794867489</v>
+        <v>1.679486748851211E-05</v>
       </c>
       <c r="V308">
-        <v>1.000050441361917</v>
+        <v>5.044136191689752E-05</v>
       </c>
       <c r="W308">
-        <v>0.9997481742634097</v>
+        <v>-0.0002518257365903276</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23327,7 +23327,7 @@
         <v>0.8074196191627744</v>
       </c>
       <c r="K309">
-        <v>44.67250496798214</v>
+        <v>-0.05327495032017859</v>
       </c>
       <c r="L309">
         <v>-0.009368466977518598</v>
@@ -23357,13 +23357,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U309">
-        <v>0.9999580135364358</v>
+        <v>-4.198646356423641E-05</v>
       </c>
       <c r="V309">
-        <v>0.9999495611822858</v>
+        <v>-5.043881771416014E-05</v>
       </c>
       <c r="W309">
-        <v>0.9982367758186398</v>
+        <v>-0.001763224181360212</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23398,7 +23398,7 @@
         <v>0.881148870364626</v>
       </c>
       <c r="K310">
-        <v>46.84099617239924</v>
+        <v>-0.03159003827600765</v>
       </c>
       <c r="L310">
         <v>-0.008584190654624102</v>
@@ -23428,13 +23428,13 @@
         <v>-0.03124999999994316</v>
       </c>
       <c r="U310">
-        <v>1.000016795290601</v>
+        <v>1.679529060072404E-05</v>
       </c>
       <c r="V310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W310">
-        <v>1.000757002271007</v>
+        <v>0.0007570022710068347</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23469,7 +23469,7 @@
         <v>0.858928465933317</v>
       </c>
       <c r="K311">
-        <v>46.20556851293751</v>
+        <v>-0.03794431487062488</v>
       </c>
       <c r="L311">
         <v>-0.007904376631630152</v>
@@ -23499,13 +23499,13 @@
         <v>0.08750000000003411</v>
       </c>
       <c r="U311">
-        <v>0.9999748074872148</v>
+        <v>-2.51925127852104E-05</v>
       </c>
       <c r="V311">
-        <v>0.999915931063472</v>
+        <v>-8.40689365280145E-05</v>
       </c>
       <c r="W311">
-        <v>0.9997478567826525</v>
+        <v>-0.0002521432173474558</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23540,7 +23540,7 @@
         <v>0.8367179747054425</v>
       </c>
       <c r="K312">
-        <v>45.55505996175751</v>
+        <v>-0.04444940038242484</v>
       </c>
       <c r="L312">
         <v>-0.007394157240234678</v>
@@ -23570,13 +23570,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U312">
-        <v>0.9999664091367149</v>
+        <v>-3.359086328513783E-05</v>
       </c>
       <c r="V312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W312">
-        <v>0.9997477931904161</v>
+        <v>-0.0002522068095839325</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23611,7 +23611,7 @@
         <v>0.7935198066483294</v>
       </c>
       <c r="K313">
-        <v>44.24371583223455</v>
+        <v>-0.05756284167765452</v>
       </c>
       <c r="L313">
         <v>-0.007175832552133278</v>
@@ -23641,13 +23641,13 @@
         <v>0.07500000000004547</v>
       </c>
       <c r="U313">
-        <v>0.9998656320333232</v>
+        <v>-0.0001343679666767628</v>
       </c>
       <c r="V313">
-        <v>1.000033630401883</v>
+        <v>3.363040188331112E-05</v>
       </c>
       <c r="W313">
-        <v>0.9994954591321897</v>
+        <v>-0.0005045408678102659</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23682,7 +23682,7 @@
         <v>0.7935198066483294</v>
       </c>
       <c r="K314">
-        <v>44.24371583223455</v>
+        <v>-0.05756284167765452</v>
       </c>
       <c r="L314">
         <v>-0.007122197416768916</v>
@@ -23712,13 +23712,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U314">
-        <v>0.999840416596674</v>
+        <v>-0.0001595834033260024</v>
       </c>
       <c r="V314">
-        <v>1.000016814635459</v>
+        <v>1.681463545888384E-05</v>
       </c>
       <c r="W314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23753,7 +23753,7 @@
         <v>0.730810093215856</v>
       </c>
       <c r="K315">
-        <v>42.22358628947016</v>
+        <v>-0.07776413710529839</v>
       </c>
       <c r="L315">
         <v>-0.007421207590629168</v>
@@ -23783,13 +23783,13 @@
         <v>-0.06250000000005684</v>
       </c>
       <c r="U315">
-        <v>0.9997983887904168</v>
+        <v>-0.0002016112095831746</v>
       </c>
       <c r="V315">
-        <v>0.9998822995308795</v>
+        <v>-0.0001177004691205186</v>
       </c>
       <c r="W315">
-        <v>0.9992428066633013</v>
+        <v>-0.0007571933366986583</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23824,7 +23824,7 @@
         <v>0.7308100932158561</v>
       </c>
       <c r="K316">
-        <v>42.22358628947017</v>
+        <v>-0.07776413710529828</v>
       </c>
       <c r="L316">
         <v>-0.007887899938222382</v>
@@ -23854,13 +23854,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U316">
-        <v>0.9998319567792836</v>
+        <v>-0.0001680432207163962</v>
       </c>
       <c r="V316">
-        <v>0.9998654693438267</v>
+        <v>-0.000134530656173304</v>
       </c>
       <c r="W316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23895,7 +23895,7 @@
         <v>0.9059398037396039</v>
       </c>
       <c r="K317">
-        <v>47.53244577620335</v>
+        <v>-0.02467554223796647</v>
       </c>
       <c r="L317">
         <v>-0.00784707367598457</v>
@@ -23925,13 +23925,13 @@
         <v>-0.1187500000000341</v>
       </c>
       <c r="U317">
-        <v>0.999899157121608</v>
+        <v>-0.0001008428783919602</v>
       </c>
       <c r="V317">
-        <v>0.9999327256214471</v>
+        <v>-6.727437855291729E-05</v>
       </c>
       <c r="W317">
-        <v>1.001515534225815</v>
+        <v>0.00151553422581463</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -23966,7 +23966,7 @@
         <v>0.9673888249760006</v>
       </c>
       <c r="K318">
-        <v>49.17120666209951</v>
+        <v>-0.008287933379004853</v>
       </c>
       <c r="L318">
         <v>-0.007289147612230593</v>
@@ -23996,13 +23996,13 @@
         <v>-0.09375000000005684</v>
       </c>
       <c r="U318">
-        <v>0.9999075513720218</v>
+        <v>-9.24486279781922E-05</v>
       </c>
       <c r="V318">
-        <v>1.000185016987923</v>
+        <v>0.0001850169879233921</v>
       </c>
       <c r="W318">
-        <v>1.000504413619168</v>
+        <v>0.0005044136191676429</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24037,7 +24037,7 @@
         <v>0.9673888249760008</v>
       </c>
       <c r="K319">
-        <v>49.17120666209952</v>
+        <v>-0.008287933379004797</v>
       </c>
       <c r="L319">
         <v>-0.006426857414267414</v>
@@ -24067,13 +24067,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U319">
-        <v>0.9998991376267081</v>
+        <v>-0.0001008623732918768</v>
       </c>
       <c r="V319">
-        <v>0.9999831833851844</v>
+        <v>-1.68166148155624E-05</v>
       </c>
       <c r="W319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24108,7 +24108,7 @@
         <v>0.9673888249760008</v>
       </c>
       <c r="K320">
-        <v>49.17120666209952</v>
+        <v>-0.008287933379004797</v>
       </c>
       <c r="L320">
         <v>-0.005411647247628931</v>
@@ -24138,13 +24138,13 @@
         <v>-0.09374999999994316</v>
       </c>
       <c r="U320">
-        <v>0.9999327516349761</v>
+        <v>-6.724836502391973E-05</v>
       </c>
       <c r="V320">
-        <v>1.000067267590475</v>
+        <v>6.72675904749287E-05</v>
       </c>
       <c r="W320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24179,7 +24179,7 @@
         <v>0.9026918916396126</v>
       </c>
       <c r="K321">
-        <v>47.44288319123141</v>
+        <v>-0.02557116808768589</v>
       </c>
       <c r="L321">
         <v>-0.004532367858726178</v>
@@ -24209,13 +24209,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U321">
-        <v>0.999932747112329</v>
+        <v>-6.725288767095439E-05</v>
       </c>
       <c r="V321">
-        <v>1.000067263065851</v>
+        <v>6.726306585069786E-05</v>
       </c>
       <c r="W321">
-        <v>0.9994958406856567</v>
+        <v>-0.0005041593143433332</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24250,7 +24250,7 @@
         <v>0.9026918916396128</v>
       </c>
       <c r="K322">
-        <v>47.44288319123141</v>
+        <v>-0.02557116808768589</v>
       </c>
       <c r="L322">
         <v>-0.003774968592368197</v>
@@ -24280,13 +24280,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U322">
-        <v>0.9999579641181713</v>
+        <v>-4.203588182871698E-05</v>
       </c>
       <c r="V322">
-        <v>0.9998991121872477</v>
+        <v>-0.0001008878127523039</v>
       </c>
       <c r="W322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24321,7 +24321,7 @@
         <v>0.8404146948238991</v>
       </c>
       <c r="K323">
-        <v>45.66441993685095</v>
+        <v>-0.04335580063149053</v>
       </c>
       <c r="L323">
         <v>-0.00330957651243687</v>
@@ -24351,13 +24351,13 @@
         <v>0.04375000000004547</v>
       </c>
       <c r="U323">
-        <v>0.9999663698808653</v>
+        <v>-3.363011913470881E-05</v>
       </c>
       <c r="V323">
-        <v>0.9998822856758485</v>
+        <v>-0.0001177143241515299</v>
       </c>
       <c r="W323">
-        <v>0.9994955863808324</v>
+        <v>-0.0005044136191676429</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24392,7 +24392,7 @@
         <v>0.7338307454573032</v>
       </c>
       <c r="K324">
-        <v>42.32424343494688</v>
+        <v>-0.07675756565053121</v>
       </c>
       <c r="L324">
         <v>-0.003406026180786795</v>
@@ -24422,13 +24422,13 @@
         <v>0.1124999999999545</v>
       </c>
       <c r="U324">
-        <v>0.999941145312224</v>
+        <v>-5.885468777599989E-05</v>
       </c>
       <c r="V324">
-        <v>0.9999327267528886</v>
+        <v>-6.727324711142124E-05</v>
       </c>
       <c r="W324">
-        <v>0.9989906636386575</v>
+        <v>-0.001009336361342483</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24463,7 +24463,7 @@
         <v>0.93407765618459</v>
       </c>
       <c r="K325">
-        <v>48.29576791798896</v>
+        <v>-0.01704232082011037</v>
       </c>
       <c r="L325">
         <v>-0.003273381153842802</v>
@@ -24493,13 +24493,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U325">
-        <v>0.9999915916925923</v>
+        <v>-8.408307407670179E-06</v>
       </c>
       <c r="V325">
-        <v>0.9999831805567236</v>
+        <v>-1.681944327636131E-05</v>
       </c>
       <c r="W325">
-        <v>1.001515534225815</v>
+        <v>0.00151553422581463</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24534,7 +24534,7 @@
         <v>0.9692086931542961</v>
       </c>
       <c r="K326">
-        <v>49.21818071002972</v>
+        <v>-0.007818192899702814</v>
       </c>
       <c r="L326">
         <v>-0.002906628040479658</v>
@@ -24564,13 +24564,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U326">
-        <v>0.9999663664875682</v>
+        <v>-3.363351243179658E-05</v>
       </c>
       <c r="V326">
-        <v>1.000016819726175</v>
+        <v>1.681972617473271E-05</v>
       </c>
       <c r="W326">
-        <v>1.000252206809584</v>
+        <v>0.0002522068095838215</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24605,7 +24605,7 @@
         <v>0.8724220851730441</v>
       </c>
       <c r="K327">
-        <v>46.59323835589224</v>
+        <v>-0.03406761644107759</v>
       </c>
       <c r="L327">
         <v>-0.002686318405113721</v>
@@ -24635,13 +24635,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U327">
-        <v>0.9999915913390792</v>
+        <v>-8.408660920777855E-06</v>
       </c>
       <c r="V327">
-        <v>0.9999831805567234</v>
+        <v>-1.681944327658336E-05</v>
       </c>
       <c r="W327">
-        <v>0.9992435703479576</v>
+        <v>-0.0007564296520423675</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24676,7 +24676,7 @@
         <v>0.6814131765443383</v>
       </c>
       <c r="K328">
-        <v>40.52621842447954</v>
+        <v>-0.09473781575520462</v>
       </c>
       <c r="L328">
         <v>-0.003293702195591018</v>
@@ -24706,13 +24706,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U328">
-        <v>0.9999579563418655</v>
+        <v>-4.204365813453848E-05</v>
       </c>
       <c r="V328">
-        <v>0.9998822619167761</v>
+        <v>-0.0001177380832239061</v>
       </c>
       <c r="W328">
-        <v>0.9979813272773151</v>
+        <v>-0.002018672722684856</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Tomra Systems 21.12.2020.xlsx
+++ b/data_clean/Tomra Systems 21.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1421,13 +1424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W328"/>
+  <dimension ref="A1:X328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,10 +1500,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>407</v>
@@ -1557,7 +1563,7 @@
         <v>407</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1568,10 +1574,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>404.3</v>
@@ -1628,7 +1637,7 @@
         <v>405.65</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>405.65</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1639,10 +1648,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>405.1</v>
@@ -1699,21 +1711,24 @@
         <v>405.4666666666667</v>
       </c>
       <c r="T4">
+        <v>405.4666666666667</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>-0.0004519495459960332</v>
       </c>
       <c r="V4">
         <v>-0.0004519495459960332</v>
       </c>
       <c r="W4">
+        <v>-0.0004519495459960332</v>
+      </c>
+      <c r="X4">
         <v>0.001978728666831575</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>407.9</v>
@@ -1770,21 +1785,24 @@
         <v>406.075</v>
       </c>
       <c r="T5">
+        <v>405.7666666666667</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.001500328839197484</v>
       </c>
       <c r="V5">
         <v>0.001500328839197484</v>
       </c>
       <c r="W5">
+        <v>0.001500328839197484</v>
+      </c>
+      <c r="X5">
         <v>0.006911873611453956</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>406.6</v>
@@ -1841,21 +1859,24 @@
         <v>406.18</v>
       </c>
       <c r="T6">
+        <v>406.5333333333334</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.000258572923721001</v>
       </c>
       <c r="V6">
         <v>0.000258572923721001</v>
       </c>
       <c r="W6">
+        <v>0.000258572923721001</v>
+      </c>
+      <c r="X6">
         <v>-0.003187055650894721</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>404.4</v>
@@ -1912,21 +1933,24 @@
         <v>405.8833333333334</v>
       </c>
       <c r="T7">
+        <v>406.3</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>-0.0007303822607381827</v>
       </c>
       <c r="V7">
         <v>-0.0007303822607381827</v>
       </c>
       <c r="W7">
+        <v>-0.0007303822607381827</v>
+      </c>
+      <c r="X7">
         <v>-0.00541072306935575</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>405.1</v>
@@ -1983,21 +2007,24 @@
         <v>405.7714285714286</v>
       </c>
       <c r="T8">
+        <v>405.3666666666667</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>-0.0002757067184447903</v>
       </c>
       <c r="V8">
         <v>-0.0002757067184447903</v>
       </c>
       <c r="W8">
+        <v>-0.0002757067184447903</v>
+      </c>
+      <c r="X8">
         <v>0.001730959446093028</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>404.5</v>
@@ -2054,21 +2081,24 @@
         <v>405.6125</v>
       </c>
       <c r="T9">
+        <v>404.6666666666667</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>-0.000391670187297577</v>
       </c>
       <c r="V9">
         <v>-0.000391670187297577</v>
       </c>
       <c r="W9">
+        <v>-0.000391670187297577</v>
+      </c>
+      <c r="X9">
         <v>-0.001481115773883102</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>404.1</v>
@@ -2125,21 +2155,24 @@
         <v>405.4444444444445</v>
       </c>
       <c r="T10">
+        <v>404.5666666666667</v>
+      </c>
+      <c r="U10">
         <v>-0.1944444444444571</v>
-      </c>
-      <c r="U10">
-        <v>-0.0004143253858190921</v>
       </c>
       <c r="V10">
         <v>-0.0004143253858190921</v>
       </c>
       <c r="W10">
+        <v>-0.0004143253858190921</v>
+      </c>
+      <c r="X10">
         <v>-0.0009888751545117369</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>404.6</v>
@@ -2196,21 +2229,24 @@
         <v>405.36</v>
       </c>
       <c r="T11">
+        <v>404.4</v>
+      </c>
+      <c r="U11">
         <v>-0.07250000000004775</v>
-      </c>
-      <c r="U11">
-        <v>-0.0002082762400658078</v>
       </c>
       <c r="V11">
         <v>-0.0002082762400658078</v>
       </c>
       <c r="W11">
+        <v>-0.0002082762400658078</v>
+      </c>
+      <c r="X11">
         <v>0.001237317495669465</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>405.4</v>
@@ -2267,21 +2303,24 @@
         <v>405.3636363636364</v>
       </c>
       <c r="T12">
+        <v>404.7</v>
+      </c>
+      <c r="U12">
         <v>-0.03863636363638534</v>
-      </c>
-      <c r="U12">
-        <v>8.970701688371108E-06</v>
       </c>
       <c r="V12">
         <v>8.970701688371108E-06</v>
       </c>
       <c r="W12">
+        <v>8.970701688371108E-06</v>
+      </c>
+      <c r="X12">
         <v>0.001977261492832394</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>406.6</v>
@@ -2338,21 +2377,24 @@
         <v>405.4666666666667</v>
       </c>
       <c r="T13">
+        <v>405.5333333333334</v>
+      </c>
+      <c r="U13">
         <v>-0.3041666666667311</v>
-      </c>
-      <c r="U13">
-        <v>0.0002541676011065253</v>
       </c>
       <c r="V13">
         <v>0.0002541676011065253</v>
       </c>
       <c r="W13">
+        <v>0.0002541676011065253</v>
+      </c>
+      <c r="X13">
         <v>0.002960039467192921</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>406.3</v>
@@ -2409,21 +2451,24 @@
         <v>405.5307692307692</v>
       </c>
       <c r="T14">
+        <v>406.1</v>
+      </c>
+      <c r="U14">
         <v>-0.4057692307691809</v>
-      </c>
-      <c r="U14">
-        <v>0.0001580957680922257</v>
       </c>
       <c r="V14">
         <v>0.0001580957680922257</v>
       </c>
       <c r="W14">
+        <v>0.0001580957680922257</v>
+      </c>
+      <c r="X14">
         <v>-0.0007378258730940113</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>406.5</v>
@@ -2480,21 +2525,24 @@
         <v>405.6</v>
       </c>
       <c r="T15">
+        <v>406.4666666666667</v>
+      </c>
+      <c r="U15">
         <v>-0.2124999999999773</v>
-      </c>
-      <c r="U15">
-        <v>0.0001707164399931127</v>
       </c>
       <c r="V15">
         <v>0.0001707164399931127</v>
       </c>
       <c r="W15">
+        <v>0.0001707164399931127</v>
+      </c>
+      <c r="X15">
         <v>0.0004922471080481827</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>407</v>
@@ -2551,21 +2599,24 @@
         <v>405.6933333333333</v>
       </c>
       <c r="T16">
+        <v>406.6</v>
+      </c>
+      <c r="U16">
         <v>-0.06833333333332803</v>
-      </c>
-      <c r="U16">
-        <v>0.0002301117685734599</v>
       </c>
       <c r="V16">
         <v>0.0002301117685734599</v>
       </c>
       <c r="W16">
+        <v>0.0002301117685734599</v>
+      </c>
+      <c r="X16">
         <v>0.001230012300122985</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>406.5</v>
@@ -2622,21 +2673,24 @@
         <v>405.66</v>
       </c>
       <c r="T17">
+        <v>406.6666666666667</v>
+      </c>
+      <c r="U17">
         <v>0.1312500000000227</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.0001242728497714563</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-8.216386761761285E-05</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-0.001228501228501266</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>406.4</v>
@@ -2693,21 +2747,24 @@
         <v>405.8</v>
       </c>
       <c r="T18">
+        <v>406.6333333333334</v>
+      </c>
+      <c r="U18">
         <v>0.4562500000000114</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>9.51411849881012E-05</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0003451166001084971</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-0.0002460024600247079</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>408.5</v>
@@ -2764,21 +2821,24 @@
         <v>406.0266666666667</v>
       </c>
       <c r="T19">
+        <v>407.1333333333334</v>
+      </c>
+      <c r="U19">
         <v>0.6812500000000341</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.0003720723463267461</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0005585674388040029</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.005167322834645827</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>409</v>
@@ -2835,21 +2895,24 @@
         <v>406.1</v>
       </c>
       <c r="T20">
+        <v>407.9666666666667</v>
+      </c>
+      <c r="U20">
         <v>0.8874999999999886</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.0003976108772505427</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0001806121108629544</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.001223990208078396</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>409.4</v>
@@ -2906,21 +2969,24 @@
         <v>406.2866666666667</v>
       </c>
       <c r="T21">
+        <v>408.9666666666667</v>
+      </c>
+      <c r="U21">
         <v>1.143750000000068</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.000406957152855103</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.000459656898957661</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.0009779951100243878</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>408.6</v>
@@ -2977,21 +3043,24 @@
         <v>406.5666666666667</v>
       </c>
       <c r="T22">
+        <v>409</v>
+      </c>
+      <c r="U22">
         <v>1.306249999999977</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0002742789628034092</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.000689168567349796</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-0.001954079140205067</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>408.1</v>
@@ -3048,21 +3117,24 @@
         <v>406.7666666666667</v>
       </c>
       <c r="T23">
+        <v>408.7</v>
+      </c>
+      <c r="U23">
         <v>1.274999999999977</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0001933488012375584</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0004919242436665083</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-0.001223690651003473</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>408.5</v>
@@ -3119,21 +3191,24 @@
         <v>407.0333333333334</v>
       </c>
       <c r="T24">
+        <v>408.4</v>
+      </c>
+      <c r="U24">
         <v>1.25</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.0002192900351398741</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0006555764975826328</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.000980151923548167</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>408.3</v>
@@ -3190,21 +3265,24 @@
         <v>407.3133333333333</v>
       </c>
       <c r="T25">
+        <v>408.3</v>
+      </c>
+      <c r="U25">
         <v>1.237500000000011</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0001804735626285137</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0006879043485381597</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-0.0004895960832312918</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>408</v>
@@ -3261,21 +3339,24 @@
         <v>407.54</v>
       </c>
       <c r="T26">
+        <v>408.2666666666667</v>
+      </c>
+      <c r="U26">
         <v>1.193750000000023</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0001364935903347408</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0005564921354566099</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.0007347538574578039</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>408.1</v>
@@ -3332,21 +3413,24 @@
         <v>407.72</v>
       </c>
       <c r="T27">
+        <v>408.1333333333334</v>
+      </c>
+      <c r="U27">
         <v>0.9250000000000114</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0001354346126984929</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0004416744368651582</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.0002450980392156854</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>408.1</v>
@@ -3403,21 +3487,24 @@
         <v>407.82</v>
       </c>
       <c r="T28">
+        <v>408.0666666666667</v>
+      </c>
+      <c r="U28">
         <v>0.6437499999999545</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.0001253854376372932</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0002452663592660276</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>407.5</v>
@@ -3474,21 +3561,24 @@
         <v>407.9</v>
       </c>
       <c r="T29">
+        <v>407.9</v>
+      </c>
+      <c r="U29">
         <v>0.3499999999999659</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>6.373544327997749E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0001961649747437288</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.001470227885322251</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>407</v>
@@ -3545,21 +3635,24 @@
         <v>407.9333333333333</v>
       </c>
       <c r="T30">
+        <v>407.5333333333333</v>
+      </c>
+      <c r="U30">
         <v>0.1062499999999886</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1.695317532979246E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>8.171937566392451E-05</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.001226993865030668</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>408</v>
@@ -3616,21 +3709,24 @@
         <v>408</v>
       </c>
       <c r="T31">
+        <v>407.5</v>
+      </c>
+      <c r="U31">
         <v>0</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>9.776165369768108E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.000163425396306538</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.002457002457002533</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>407.5</v>
@@ -3687,21 +3783,24 @@
         <v>408.0666666666667</v>
       </c>
       <c r="T32">
+        <v>407.5</v>
+      </c>
+      <c r="U32">
         <v>-0.15625</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>4.096547429832675E-05</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0001633986928104569</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-0.001225490196078427</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>407.4</v>
@@ -3758,21 +3857,24 @@
         <v>408.1333333333333</v>
       </c>
       <c r="T33">
+        <v>407.6333333333334</v>
+      </c>
+      <c r="U33">
         <v>-0.3249999999999886</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0002539755364208141</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0001633719980396187</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.0002453987730062224</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>407.6</v>
@@ -3829,21 +3931,24 @@
         <v>408.0733333333334</v>
       </c>
       <c r="T34">
+        <v>407.5</v>
+      </c>
+      <c r="U34">
         <v>-0.4500000000000455</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0002047669751823467</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-0.0001470107807904908</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.0004909180166914329</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>407.6</v>
@@ -3900,21 +4005,24 @@
         <v>407.98</v>
       </c>
       <c r="T35">
+        <v>407.5333333333334</v>
+      </c>
+      <c r="U35">
         <v>-0.4562500000000114</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-2.456700651021215E-05</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-0.0002287170606591893</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>407.7</v>
@@ -3971,21 +4079,24 @@
         <v>407.8666666666667</v>
       </c>
       <c r="T36">
+        <v>407.6333333333334</v>
+      </c>
+      <c r="U36">
         <v>-0.4249999999999545</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>9.00812368973547E-05</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-0.0002777913950029465</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.0002453385672227526</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>407.7</v>
@@ -4042,21 +4153,24 @@
         <v>407.8066666666667</v>
       </c>
       <c r="T37">
+        <v>407.6666666666667</v>
+      </c>
+      <c r="U37">
         <v>-0.2937500000000455</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.000270219368996738</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-0.0001471068976789391</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>408</v>
@@ -4113,21 +4227,24 @@
         <v>407.8</v>
       </c>
       <c r="T38">
+        <v>407.8</v>
+      </c>
+      <c r="U38">
         <v>-0.1312500000000227</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.0002374013556436516</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-1.634761570024068E-05</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.0007358351729211954</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>407.9</v>
@@ -4184,21 +4301,24 @@
         <v>407.76</v>
       </c>
       <c r="T39">
+        <v>407.8666666666666</v>
+      </c>
+      <c r="U39">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.0002782665629985637</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-9.808729769500424E-05</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-0.0002450980392157964</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>408.1</v>
@@ -4255,21 +4375,24 @@
         <v>407.7466666666667</v>
       </c>
       <c r="T40">
+        <v>408</v>
+      </c>
+      <c r="U40">
         <v>-0.03125</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>0.0003272813555994514</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-3.26989732520877E-05</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.0004903162539839911</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>408</v>
@@ -4326,21 +4449,24 @@
         <v>407.7466666666667</v>
       </c>
       <c r="T41">
+        <v>408</v>
+      </c>
+      <c r="U41">
         <v>0.06249999999994316</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>0.0002780981359244983</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>-0.0002450379808870418</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>407.7</v>
@@ -4397,21 +4523,24 @@
         <v>407.72</v>
       </c>
       <c r="T42">
+        <v>407.9333333333334</v>
+      </c>
+      <c r="U42">
         <v>0.09374999999994316</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.0001880729068712839</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-6.540008502020633E-05</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>-0.0007352941176470562</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>407.6</v>
@@ -4468,21 +4597,24 @@
         <v>407.6866666666666</v>
       </c>
       <c r="T43">
+        <v>407.7666666666667</v>
+      </c>
+      <c r="U43">
         <v>0.1250000000000568</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>8.175545308874987E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-8.175545308897192E-05</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>-0.0002452783909736578</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>407.5</v>
@@ -4539,21 +4671,24 @@
         <v>407.6866666666666</v>
       </c>
       <c r="T44">
+        <v>407.6</v>
+      </c>
+      <c r="U44">
         <v>0.1375000000000455</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>9.809852361719607E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>-0.0002453385672228636</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>407.5</v>
@@ -4610,21 +4745,24 @@
         <v>407.72</v>
       </c>
       <c r="T45">
+        <v>407.5333333333333</v>
+      </c>
+      <c r="U45">
         <v>0.1125000000000682</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>8.174075103406508E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>8.176213758948059E-05</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>407.7</v>
@@ -4681,21 +4819,24 @@
         <v>407.7</v>
       </c>
       <c r="T46">
+        <v>407.5666666666667</v>
+      </c>
+      <c r="U46">
         <v>0.03125</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>5.721384902068749E-05</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-4.905327185322772E-05</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.0004907975460122227</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>406.7</v>
@@ -4752,21 +4893,24 @@
         <v>407.6466666666666</v>
       </c>
       <c r="T47">
+        <v>407.3</v>
+      </c>
+      <c r="U47">
         <v>-0.03749999999996589</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>1.634587879539851E-05</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-0.0001308151418526471</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>-0.002452783909737577</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>406.8</v>
@@ -4823,21 +4967,24 @@
         <v>407.6066666666667</v>
       </c>
       <c r="T48">
+        <v>407.0666666666667</v>
+      </c>
+      <c r="U48">
         <v>-0.15625</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>3.269122322380191E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-9.812419251953308E-05</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>0.0002458814851242774</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>406.9</v>
@@ -4894,21 +5041,24 @@
         <v>407.56</v>
       </c>
       <c r="T49">
+        <v>406.8</v>
+      </c>
+      <c r="U49">
         <v>-0.2624999999999886</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>-0.0001307606181708554</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>-0.0001144894587919998</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.0002458210422811025</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>406.8</v>
@@ -4965,21 +5115,24 @@
         <v>407.5066666666667</v>
       </c>
       <c r="T50">
+        <v>406.8333333333333</v>
+      </c>
+      <c r="U50">
         <v>-0.3249999999999886</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>-0.0001798193632758238</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-0.000130860077861672</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>-0.0002457606291471626</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>406.4</v>
@@ -5036,21 +5189,24 @@
         <v>407.42</v>
       </c>
       <c r="T51">
+        <v>406.7</v>
+      </c>
+      <c r="U51">
         <v>-0.4000000000000341</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>-0.0002452523237659321</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-0.0002126754572523426</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>-0.000983284169124965</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>406.1</v>
@@ -5107,21 +5263,24 @@
         <v>407.3133333333333</v>
       </c>
       <c r="T52">
+        <v>406.4333333333333</v>
+      </c>
+      <c r="U52">
         <v>-0.4750000000000796</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-0.0002044270726858644</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-0.0002618100895063202</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>-0.0007381889763778959</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>406.6</v>
@@ -5178,21 +5337,24 @@
         <v>407.22</v>
       </c>
       <c r="T53">
+        <v>406.3666666666666</v>
+      </c>
+      <c r="U53">
         <v>-0.5187499999999545</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-0.0001226813229954216</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-0.0002291438204822249</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.001231223836493545</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>406.7</v>
@@ -5249,21 +5411,24 @@
         <v>407.14</v>
       </c>
       <c r="T54">
+        <v>406.4666666666667</v>
+      </c>
+      <c r="U54">
         <v>-0.5625</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-0.0001472356506589945</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>-0.0001964540052058483</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0.0002459419576978927</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>406.7</v>
@@ -5320,21 +5485,24 @@
         <v>407.0466666666667</v>
       </c>
       <c r="T55">
+        <v>406.6666666666667</v>
+      </c>
+      <c r="U55">
         <v>-0.4875000000000114</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>-0.0001308954063893308</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-0.0002292413747932986</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>406.5</v>
@@ -5391,21 +5559,24 @@
         <v>406.9466666666667</v>
       </c>
       <c r="T56">
+        <v>406.6333333333334</v>
+      </c>
+      <c r="U56">
         <v>-0.4250000000000114</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>-0.0001227305083497665</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>-0.0002456720769118403</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-0.0004917629702483328</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>406.3</v>
@@ -5462,21 +5633,24 @@
         <v>406.8533333333334</v>
       </c>
       <c r="T57">
+        <v>406.5</v>
+      </c>
+      <c r="U57">
         <v>-0.3937500000000114</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>-0.0001472946875714642</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-0.0002293502834113115</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>-0.0004920049200491938</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>406</v>
@@ -5533,21 +5707,24 @@
         <v>406.7466666666667</v>
       </c>
       <c r="T58">
+        <v>406.2666666666667</v>
+      </c>
+      <c r="U58">
         <v>-0.3874999999999886</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-0.0001718691175749409</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-0.0002621747394637719</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.0007383706620723851</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>406</v>
@@ -5604,21 +5781,24 @@
         <v>406.6466666666667</v>
       </c>
       <c r="T59">
+        <v>406.1</v>
+      </c>
+      <c r="U59">
         <v>-0.3375000000000341</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-0.000122784758318506</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-0.0002458532747656728</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>406.2</v>
@@ -5675,21 +5855,24 @@
         <v>406.5600000000001</v>
       </c>
       <c r="T60">
+        <v>406.0666666666667</v>
+      </c>
+      <c r="U60">
         <v>-0.2437500000000341</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-6.549324600890749E-05</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>-0.0002131252356672997</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0.0004926108374383453</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>406.3</v>
@@ -5746,21 +5929,24 @@
         <v>406.4666666666666</v>
       </c>
       <c r="T61">
+        <v>406.1666666666667</v>
+      </c>
+      <c r="U61">
         <v>-0.2062500000000682</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-0.0001391822632674788</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>-0.0002295684113867713</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.0002461841457410685</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>406.4</v>
@@ -5817,21 +6003,24 @@
         <v>406.4466666666667</v>
       </c>
       <c r="T62">
+        <v>406.3</v>
+      </c>
+      <c r="U62">
         <v>-0.1624999999999659</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-9.007164790164612E-05</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-4.920452681644871E-05</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.0002461235540240914</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>406.8</v>
@@ -5888,21 +6077,24 @@
         <v>406.4466666666667</v>
       </c>
       <c r="T63">
+        <v>406.5</v>
+      </c>
+      <c r="U63">
         <v>-0.15625</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-4.913441538234586E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>0</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0.0009842519685039353</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>406.6</v>
@@ -5959,21 +6151,24 @@
         <v>406.4266666666666</v>
       </c>
       <c r="T64">
+        <v>406.6000000000001</v>
+      </c>
+      <c r="U64">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-8.18947161528305E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>-4.92069480211299E-05</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>-0.000491642084562427</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>406.4</v>
@@ -6030,21 +6225,24 @@
         <v>406.4</v>
       </c>
       <c r="T65">
+        <v>406.6</v>
+      </c>
+      <c r="U65">
         <v>-0.08750000000003411</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-9.828170813630521E-05</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>-6.561249261849422E-05</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>-0.0004918839153961185</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>406.4</v>
@@ -6101,21 +6299,24 @@
         <v>406.4</v>
       </c>
       <c r="T66">
+        <v>406.4666666666667</v>
+      </c>
+      <c r="U66">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-0.000106482315744727</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>406.4</v>
@@ -6172,21 +6373,24 @@
         <v>406.42</v>
       </c>
       <c r="T67">
+        <v>406.3999999999999</v>
+      </c>
+      <c r="U67">
         <v>0.03750000000002274</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-0.00010649365543558</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>4.921259842505243E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>406.4</v>
@@ -6243,21 +6447,24 @@
         <v>406.4066666666667</v>
       </c>
       <c r="T68">
+        <v>406.3999999999999</v>
+      </c>
+      <c r="U68">
         <v>0.04375000000004547</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-0.0001310830738980862</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-3.280678444284035E-05</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>406.1</v>
@@ -6314,21 +6521,24 @@
         <v>406.3666666666667</v>
       </c>
       <c r="T69">
+        <v>406.3</v>
+      </c>
+      <c r="U69">
         <v>0.04999999999995453</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-0.0001474877912883699</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>-9.842358229039672E-05</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>-0.0007381889763778959</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>406.1</v>
@@ -6385,21 +6595,24 @@
         <v>406.3266666666667</v>
       </c>
       <c r="T70">
+        <v>406.2</v>
+      </c>
+      <c r="U70">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-0.0001638994968284901</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-9.843327044545269E-05</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>406.3</v>
@@ -6456,21 +6669,24 @@
         <v>406.3133333333333</v>
       </c>
       <c r="T71">
+        <v>406.1666666666667</v>
+      </c>
+      <c r="U71">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-0.0001393374096355648</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-3.281432016932762E-05</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0.0004924895345974623</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>406.5</v>
@@ -6527,21 +6743,24 @@
         <v>406.3266666666667</v>
       </c>
       <c r="T72">
+        <v>406.3</v>
+      </c>
+      <c r="U72">
         <v>0</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>-9.836952512121133E-05</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>3.281539698418712E-05</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0.0004922471080481827</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>406.9</v>
@@ -6598,21 +6817,24 @@
         <v>406.3866666666666</v>
       </c>
       <c r="T73">
+        <v>406.5666666666667</v>
+      </c>
+      <c r="U73">
         <v>0.02500000000003411</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-5.738786820463915E-05</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.0001476644407618632</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0.0009840098400983877</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>406.7</v>
@@ -6669,21 +6891,24 @@
         <v>406.4333333333333</v>
       </c>
       <c r="T74">
+        <v>406.7</v>
+      </c>
+      <c r="U74">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-6.558989915561586E-05</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.0001148331638178846</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>-0.0004915212582944362</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>406.6</v>
@@ -6740,21 +6965,24 @@
         <v>406.46</v>
       </c>
       <c r="T75">
+        <v>406.7333333333333</v>
+      </c>
+      <c r="U75">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-7.379347665659175E-05</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>6.561141638639079E-05</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>-0.0002458814851240554</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>406</v>
@@ -6811,21 +7039,24 @@
         <v>406.4399999999999</v>
       </c>
       <c r="T76">
+        <v>406.4333333333333</v>
+      </c>
+      <c r="U76">
         <v>-0.03125</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-0.0001393979647896781</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-4.920533385832648E-05</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>-0.001475651746187912</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>406.2</v>
@@ -6882,21 +7113,24 @@
         <v>406.4266666666666</v>
       </c>
       <c r="T77">
+        <v>406.2666666666667</v>
+      </c>
+      <c r="U77">
         <v>-0.01249999999993179</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-4.100511743865276E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>-3.280517009474071E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0.0004926108374383453</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>406.3</v>
@@ -6953,21 +7187,24 @@
         <v>406.3933333333333</v>
       </c>
       <c r="T78">
+        <v>406.1666666666667</v>
+      </c>
+      <c r="U78">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-4.100679892726777E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>-8.201561577314553E-05</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.0002461841457410685</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>406.3</v>
@@ -7024,21 +7261,24 @@
         <v>406.3733333333333</v>
       </c>
       <c r="T79">
+        <v>406.2666666666667</v>
+      </c>
+      <c r="U79">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>-4.92101766645936E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>-4.92134057317184E-05</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>406.1</v>
@@ -7095,21 +7335,24 @@
         <v>406.3533333333334</v>
       </c>
       <c r="T80">
+        <v>406.2333333333333</v>
+      </c>
+      <c r="U80">
         <v>0.03124999999994316</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>-5.74146981626722E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>-4.921582781014511E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.0004922471080481827</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>405.7</v>
@@ -7166,21 +7409,24 @@
         <v>406.3066666666667</v>
       </c>
       <c r="T81">
+        <v>406.0333333333333</v>
+      </c>
+      <c r="U81">
         <v>-0.07500000000004547</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>-5.741799479952459E-05</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>-0.0001148425836300371</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>-0.0009849790691948135</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>405.4</v>
@@ -7237,21 +7483,24 @@
         <v>406.24</v>
       </c>
       <c r="T82">
+        <v>405.7333333333333</v>
+      </c>
+      <c r="U82">
         <v>-0.1750000000000114</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-5.742129181507405E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>-0.0001640796770912001</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>-0.0007394626571358698</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>404.9</v>
@@ -7308,21 +7557,24 @@
         <v>406.14</v>
       </c>
       <c r="T83">
+        <v>405.3333333333333</v>
+      </c>
+      <c r="U83">
         <v>-0.2937499999999886</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-0.0001394597166506362</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>-0.0002461599054744967</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>-0.00123334977799705</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>404.9</v>
@@ -7379,21 +7631,24 @@
         <v>406.06</v>
       </c>
       <c r="T84">
+        <v>405.0666666666666</v>
+      </c>
+      <c r="U84">
         <v>-0.3374999999999773</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-0.000147683825339251</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>-0.0001969764120747231</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>403.7</v>
@@ -7450,21 +7705,24 @@
         <v>405.9</v>
       </c>
       <c r="T85">
+        <v>404.5</v>
+      </c>
+      <c r="U85">
         <v>-0.5</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-0.0002461760651216727</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-0.0003940304388514448</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>-0.002963694739441802</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>404.4</v>
@@ -7521,21 +7779,24 @@
         <v>405.7733333333333</v>
       </c>
       <c r="T86">
+        <v>404.3333333333333</v>
+      </c>
+      <c r="U86">
         <v>-0.6312499999999659</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-0.0001723656778896965</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-0.0003120637266978976</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.001733960862026152</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>404.1</v>
@@ -7592,21 +7853,24 @@
         <v>405.6133333333333</v>
       </c>
       <c r="T87">
+        <v>404.0666666666667</v>
+      </c>
+      <c r="U87">
         <v>-0.7687500000000114</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-0.0001806046973638065</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-0.0003943088095158531</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>-0.0007418397626112183</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>403.5</v>
@@ -7663,21 +7927,24 @@
         <v>405.3866666666667</v>
       </c>
       <c r="T88">
+        <v>404</v>
+      </c>
+      <c r="U88">
         <v>-0.90625</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>-0.0002052696833100276</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-0.0005588244962362321</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>-0.001484780994803314</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>403.2</v>
@@ -7734,21 +8001,24 @@
         <v>405.1533333333334</v>
       </c>
       <c r="T89">
+        <v>403.6000000000001</v>
+      </c>
+      <c r="U89">
         <v>-0.9875000000000682</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>-0.0002299492469161057</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>-0.0005755821602420053</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>-0.0007434944237918462</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>403.1</v>
@@ -7805,21 +8075,24 @@
         <v>404.92</v>
       </c>
       <c r="T90">
+        <v>403.2666666666667</v>
+      </c>
+      <c r="U90">
         <v>-1.049999999999955</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-0.0002546452217058182</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-0.0005759136458625136</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>-0.0002480158730158166</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>403</v>
@@ -7876,21 +8149,24 @@
         <v>404.72</v>
       </c>
       <c r="T91">
+        <v>403.1</v>
+      </c>
+      <c r="U91">
         <v>-1.0625</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-0.0002711429909535434</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>-0.0004939247258717305</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>-0.0002480774001488717</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>402.5</v>
@@ -7947,21 +8223,24 @@
         <v>404.4733333333334</v>
       </c>
       <c r="T92">
+        <v>402.8666666666666</v>
+      </c>
+      <c r="U92">
         <v>-1.143750000000011</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-0.0003205286256718898</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>-0.0006094748632800018</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>-0.001240694789081842</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>402.7</v>
@@ -8018,21 +8297,24 @@
         <v>404.2333333333333</v>
       </c>
       <c r="T93">
+        <v>402.7333333333333</v>
+      </c>
+      <c r="U93">
         <v>-1.050000000000011</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-0.0003370740329674549</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>-0.0005933642102486925</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0.0004968944099379424</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>402.3</v>
@@ -8089,21 +8371,24 @@
         <v>403.9666666666666</v>
       </c>
       <c r="T94">
+        <v>402.5</v>
+      </c>
+      <c r="U94">
         <v>-1.0625</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-0.0003536358701911047</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-0.0006596850004123578</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>-0.000993295257015081</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>402.7</v>
@@ -8160,21 +8445,24 @@
         <v>403.74</v>
       </c>
       <c r="T95">
+        <v>402.5666666666667</v>
+      </c>
+      <c r="U95">
         <v>-1.012499999999989</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-0.0003043989765610933</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>-0.0005611024011882293</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.00099428287347747</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>402.7</v>
@@ -8231,21 +8519,24 @@
         <v>403.54</v>
       </c>
       <c r="T96">
+        <v>402.5666666666666</v>
+      </c>
+      <c r="U96">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-0.0003044916635119854</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-0.0004953683063357861</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>402.8</v>
@@ -8302,21 +8593,24 @@
         <v>403.3666666666667</v>
       </c>
       <c r="T97">
+        <v>402.7333333333333</v>
+      </c>
+      <c r="U97">
         <v>-0.7687499999999545</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-0.0002963523959268466</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>-0.0004295319753513382</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0.0002483238142538813</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>402.5</v>
@@ -8373,21 +8667,24 @@
         <v>403.2066666666667</v>
       </c>
       <c r="T98">
+        <v>402.6666666666667</v>
+      </c>
+      <c r="U98">
         <v>-0.6625000000000227</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-0.0003211436005962076</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-0.0003966614329393714</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.000744786494538241</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>402.5</v>
@@ -8444,21 +8741,24 @@
         <v>403.0466666666667</v>
       </c>
       <c r="T99">
+        <v>402.6</v>
+      </c>
+      <c r="U99">
         <v>-0.5750000000000455</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-0.0002965354771750084</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-0.0003968188356674451</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>402.4</v>
@@ -8515,21 +8815,24 @@
         <v>402.96</v>
       </c>
       <c r="T100">
+        <v>402.4666666666667</v>
+      </c>
+      <c r="U100">
         <v>-0.4312499999999773</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-0.0003048629764513811</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>-0.0002150288634897857</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>-0.0002484472049689712</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>402</v>
@@ -8586,21 +8889,24 @@
         <v>402.8</v>
       </c>
       <c r="T101">
+        <v>402.3</v>
+      </c>
+      <c r="U101">
         <v>-0.4124999999999659</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-0.0003544082618335276</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-0.000397061743100946</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0009940357852882276</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>402</v>
@@ -8657,21 +8963,24 @@
         <v>402.66</v>
       </c>
       <c r="T102">
+        <v>402.1333333333334</v>
+      </c>
+      <c r="U102">
         <v>-0.3000000000000114</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>-0.0003710238609567762</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>-0.0003475670307846457</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>401.1</v>
@@ -8728,21 +9037,24 @@
         <v>402.5</v>
       </c>
       <c r="T103">
+        <v>401.7</v>
+      </c>
+      <c r="U103">
         <v>-0.3125</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-0.0004783860245296534</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-0.0003973575721452072</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>-0.002238805970149249</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>401.2</v>
@@ -8799,21 +9111,24 @@
         <v>402.3666666666667</v>
       </c>
       <c r="T104">
+        <v>401.4333333333333</v>
+      </c>
+      <c r="U104">
         <v>-0.3562499999999886</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-0.0004538590396341302</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>-0.0003312629399585543</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0.0002493143854398472</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>400.5</v>
@@ -8870,21 +9185,24 @@
         <v>402.1933333333333</v>
       </c>
       <c r="T105">
+        <v>400.9333333333333</v>
+      </c>
+      <c r="U105">
         <v>-0.4750000000000227</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-0.0005035994980517877</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-0.0004307845248944231</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>-0.001744765702891282</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>400.5</v>
@@ -8941,21 +9259,24 @@
         <v>402.0266666666666</v>
       </c>
       <c r="T106">
+        <v>400.7333333333333</v>
+      </c>
+      <c r="U106">
         <v>-0.5625</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-0.0004542939033758131</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-0.0004143944040180259</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>400.6</v>
@@ -9012,21 +9333,24 @@
         <v>401.9</v>
       </c>
       <c r="T107">
+        <v>400.5333333333333</v>
+      </c>
+      <c r="U107">
         <v>-0.6499999999999773</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-0.0004627640234027286</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-0.0003150703104272123</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.0002496878901374622</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>400</v>
@@ -9083,21 +9407,24 @@
         <v>401.72</v>
       </c>
       <c r="T108">
+        <v>400.3666666666666</v>
+      </c>
+      <c r="U108">
         <v>-0.7937499999999886</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-0.0005208505572273925</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-0.0004478726051255766</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>-0.001497753369945176</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>399.8</v>
@@ -9154,21 +9481,24 @@
         <v>401.5533333333333</v>
       </c>
       <c r="T109">
+        <v>400.1333333333334</v>
+      </c>
+      <c r="U109">
         <v>-0.8875000000000455</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-0.0005376655389474072</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-0.0004148826711806164</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>-0.0004999999999999449</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>400.4</v>
@@ -9225,21 +9555,24 @@
         <v>401.4</v>
       </c>
       <c r="T110">
+        <v>400.0666666666667</v>
+      </c>
+      <c r="U110">
         <v>-0.96875</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>-0.0004717449597776424</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-0.0003818504806336609</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0.001500750375187598</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>400.4</v>
@@ -9296,21 +9629,24 @@
         <v>401.2466666666667</v>
       </c>
       <c r="T111">
+        <v>400.2</v>
+      </c>
+      <c r="U111">
         <v>-0.9124999999999659</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>-0.0004388470742148209</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-0.0003819963461217935</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>400.4</v>
@@ -9367,21 +9703,24 @@
         <v>401.0866666666667</v>
       </c>
       <c r="T112">
+        <v>400.4</v>
+      </c>
+      <c r="U112">
         <v>-0.8687500000000341</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>-0.0004141884391722916</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>-0.0003987572067056799</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>400.6</v>
@@ -9438,21 +9777,24 @@
         <v>400.96</v>
       </c>
       <c r="T113">
+        <v>400.4666666666666</v>
+      </c>
+      <c r="U113">
         <v>-0.7187499999999432</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-0.0003563496535949895</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>-0.0003158087196450943</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0.0004995004995005381</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>400.2</v>
@@ -9509,21 +9851,24 @@
         <v>400.8066666666667</v>
       </c>
       <c r="T114">
+        <v>400.4</v>
+      </c>
+      <c r="U114">
         <v>-0.6125000000000682</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>-0.0003896373056994085</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>-0.0003824155360467874</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>-0.0009985022466301174</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>400</v>
@@ -9580,21 +9925,24 @@
         <v>400.6466666666667</v>
       </c>
       <c r="T115">
+        <v>400.2666666666667</v>
+      </c>
+      <c r="U115">
         <v>-0.5312500000000568</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>-0.0003068553135729957</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>-0.0003991949568369346</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>-0.0004997501249375258</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>400.3</v>
@@ -9651,21 +9999,24 @@
         <v>400.5333333333334</v>
       </c>
       <c r="T116">
+        <v>400.1666666666667</v>
+      </c>
+      <c r="U116">
         <v>-0.3625000000000114</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>-0.0003401332326760098</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>-0.0002828760171057487</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>0.0007500000000000284</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>400.6</v>
@@ -9722,21 +10073,24 @@
         <v>400.44</v>
       </c>
       <c r="T117">
+        <v>400.3</v>
+      </c>
+      <c r="U117">
         <v>-0.1750000000000114</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-0.0002904564315352465</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>-0.0002330226364847254</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>0.0007494379215589042</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>400.4</v>
@@ -9793,21 +10147,24 @@
         <v>400.3933333333333</v>
       </c>
       <c r="T118">
+        <v>400.4333333333333</v>
+      </c>
+      <c r="U118">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-0.0002573361557299814</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>-0.0001165384743448961</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>-0.0004992511233151697</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>399.6</v>
@@ -9864,21 +10221,24 @@
         <v>400.2866666666667</v>
       </c>
       <c r="T119">
+        <v>400.2</v>
+      </c>
+      <c r="U119">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-0.0002989189099423806</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>-0.0002664047020428661</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>-0.00199800199800193</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>400.3</v>
@@ -9935,21 +10295,24 @@
         <v>400.2733333333334</v>
       </c>
       <c r="T120">
+        <v>400.1</v>
+      </c>
+      <c r="U120">
         <v>-0.03750000000002274</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-0.0002325620026909503</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-3.330946155255532E-05</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>0.001751751751751796</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>400.4</v>
@@ -10006,21 +10369,24 @@
         <v>400.2666666666667</v>
       </c>
       <c r="T121">
+        <v>400.1000000000001</v>
+      </c>
+      <c r="U121">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-0.0002160006646173551</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>-1.665528555494511E-05</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>0.0002498126405194867</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>400</v>
@@ -10077,21 +10443,24 @@
         <v>400.2266666666666</v>
       </c>
       <c r="T122">
+        <v>400.2333333333333</v>
+      </c>
+      <c r="U122">
         <v>-0.04999999999995453</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-0.0002077378182543388</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>-9.99333777482736E-05</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>-0.0009990009990009652</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>399.9</v>
@@ -10148,21 +10517,24 @@
         <v>400.22</v>
       </c>
       <c r="T123">
+        <v>400.1</v>
+      </c>
+      <c r="U123">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-0.0002327147000890095</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>-1.665722757093757E-05</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>-0.0002500000000000835</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>400.4</v>
@@ -10219,21 +10591,24 @@
         <v>400.26</v>
       </c>
       <c r="T124">
+        <v>400.1</v>
+      </c>
+      <c r="U124">
         <v>-0.03125</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-0.0001579503038464658</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>9.994503023325052E-05</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0.001250312578144452</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>399.8</v>
@@ -10290,21 +10665,24 @@
         <v>400.22</v>
       </c>
       <c r="T125">
+        <v>400.0333333333333</v>
+      </c>
+      <c r="U125">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>-0.0002411201277106034</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-9.993504222249872E-05</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>-0.001498501498501392</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>400</v>
@@ -10361,21 +10739,24 @@
         <v>400.1933333333334</v>
       </c>
       <c r="T126">
+        <v>400.0666666666667</v>
+      </c>
+      <c r="U126">
         <v>-0.15625</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>-0.0002245452957760907</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-6.663002015550035E-05</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.0005002501250626068</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>399.8</v>
@@ -10432,21 +10813,24 @@
         <v>400.1533333333334</v>
       </c>
       <c r="T127">
+        <v>399.8666666666666</v>
+      </c>
+      <c r="U127">
         <v>-0.09375000000005684</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-0.0002495508085444964</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-9.995169001653093E-05</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>-0.0004999999999999449</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>400</v>
@@ -10503,21 +10887,24 @@
         <v>400.1133333333334</v>
       </c>
       <c r="T128">
+        <v>399.9333333333334</v>
+      </c>
+      <c r="U128">
         <v>-0.1062500000000455</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-0.0002080109164128707</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-9.996168135539829E-05</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0.0005002501250626068</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>400.1</v>
@@ -10574,21 +10961,24 @@
         <v>400.1066666666666</v>
       </c>
       <c r="T129">
+        <v>399.9666666666667</v>
+      </c>
+      <c r="U129">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-0.0001997320261981628</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-1.666194578231472E-05</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>0.0002500000000000835</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>399.8</v>
@@ -10645,21 +11035,24 @@
         <v>400.0933333333333</v>
       </c>
       <c r="T130">
+        <v>399.9666666666667</v>
+      </c>
+      <c r="U130">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-0.0002164195876375175</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-3.332444681414248E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0007498125468633488</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>399.9</v>
@@ -10716,21 +11109,24 @@
         <v>400.0666666666667</v>
       </c>
       <c r="T131">
+        <v>399.9333333333333</v>
+      </c>
+      <c r="U131">
         <v>-0.1062499999999318</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>-0.0001748382745959676</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-6.66511147398019E-05</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>0.0002501250625310814</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>399.9</v>
@@ -10787,21 +11183,24 @@
         <v>400.02</v>
       </c>
       <c r="T132">
+        <v>399.8666666666666</v>
+      </c>
+      <c r="U132">
         <v>-0.1437500000000114</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>-0.0001748688483638183</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-0.0001166472254623407</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>400.3</v>
@@ -10858,21 +11257,24 @@
         <v>400.0133333333334</v>
       </c>
       <c r="T133">
+        <v>400.0333333333333</v>
+      </c>
+      <c r="U133">
         <v>-0.06250000000005684</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>-6.662835536230816E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-1.666583337500693E-05</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>0.001000250062515695</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>401.2</v>
@@ -10929,21 +11331,24 @@
         <v>400.12</v>
       </c>
       <c r="T134">
+        <v>400.4666666666666</v>
+      </c>
+      <c r="U134">
         <v>0.03749999999996589</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>0.0002666577780738866</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0.002248313764676491</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>401.1</v>
@@ -11000,21 +11405,24 @@
         <v>400.1733333333333</v>
       </c>
       <c r="T135">
+        <v>400.8666666666667</v>
+      </c>
+      <c r="U135">
         <v>0.1062500000000455</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>4.99745962470044E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>0.0001332933453295215</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>-0.0002492522432701039</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>401.4</v>
@@ -11071,21 +11479,24 @@
         <v>400.24</v>
       </c>
       <c r="T136">
+        <v>401.2333333333333</v>
+      </c>
+      <c r="U136">
         <v>0.2125000000000341</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>7.495814836699921E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>0.0001665944757274218</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0.0007479431563199856</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>401.4</v>
@@ -11142,21 +11553,24 @@
         <v>400.3333333333333</v>
       </c>
       <c r="T137">
+        <v>401.3</v>
+      </c>
+      <c r="U137">
         <v>0.3125</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>6.662447116845271E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>0.0002331934172827843</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>401.1</v>
@@ -11213,21 +11627,24 @@
         <v>400.4133333333333</v>
       </c>
       <c r="T138">
+        <v>401.3</v>
+      </c>
+      <c r="U138">
         <v>0.40625</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>9.160254488516095E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>0.0001998334721065032</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>-0.0007473841554558325</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>401.3</v>
@@ -11284,21 +11701,24 @@
         <v>400.4733333333334</v>
       </c>
       <c r="T139">
+        <v>401.2666666666667</v>
+      </c>
+      <c r="U139">
         <v>0.4937499999999773</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>0.0001249011199466743</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>0.0001498451600014938</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>0.0004986287708801385</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>401.6</v>
@@ -11355,21 +11775,24 @@
         <v>400.5933333333333</v>
       </c>
       <c r="T140">
+        <v>401.3333333333333</v>
+      </c>
+      <c r="U140">
         <v>0.6312499999999659</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>9.990841728413358E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>0.0002996454195867138</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0.0007475703962123159</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>401.4</v>
@@ -11426,21 +11849,24 @@
         <v>400.6866666666667</v>
       </c>
       <c r="T141">
+        <v>401.4333333333333</v>
+      </c>
+      <c r="U141">
         <v>0.6687499999999886</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>8.324869715781169E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>0.000232987734860135</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>-0.0004980079681276006</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>401.8</v>
@@ -11497,21 +11923,24 @@
         <v>400.8199999999999</v>
       </c>
       <c r="T142">
+        <v>401.6</v>
+      </c>
+      <c r="U142">
         <v>0.6312500000000227</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>0.0001165384743448961</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>0.0003327620917423779</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0.0009965122072745913</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>401.2</v>
@@ -11568,21 +11997,24 @@
         <v>400.9</v>
       </c>
       <c r="T143">
+        <v>401.4666666666667</v>
+      </c>
+      <c r="U143">
         <v>0.5562499999999773</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>4.993924059060184E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>0.0001995908387806278</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>-0.001493280238924921</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>401.1</v>
@@ -11639,21 +12071,24 @@
         <v>400.9666666666666</v>
       </c>
       <c r="T144">
+        <v>401.3666666666666</v>
+      </c>
+      <c r="U144">
         <v>0.4499999999999886</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>7.490512018093476E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>0.0001662925085224032</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>-0.0002492522432701039</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>400.7</v>
@@ -11710,21 +12145,24 @@
         <v>401.0266666666666</v>
       </c>
       <c r="T145">
+        <v>401</v>
+      </c>
+      <c r="U145">
         <v>0.3250000000000455</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>5.825517430779747E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>0.0001496383739296725</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>-0.0009972575417602769</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>400.6</v>
@@ -11781,21 +12219,24 @@
         <v>401.0733333333334</v>
       </c>
       <c r="T146">
+        <v>400.8</v>
+      </c>
+      <c r="U146">
         <v>0.2124999999999773</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>2.49650489314579E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>0.0001163679888287472</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>-0.000249563264287378</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>400.6</v>
@@ -11852,21 +12293,24 @@
         <v>401.12</v>
       </c>
       <c r="T147">
+        <v>400.6333333333334</v>
+      </c>
+      <c r="U147">
         <v>0.08124999999995453</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>0</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>0.0001163544488953505</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>401</v>
@@ -11923,21 +12367,24 @@
         <v>401.1666666666667</v>
       </c>
       <c r="T148">
+        <v>400.7333333333333</v>
+      </c>
+      <c r="U148">
         <v>-0.06250000000005684</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>4.99288513868823E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>0.0001163409121127668</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>0.0009985022466298954</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>400.7</v>
@@ -11994,21 +12441,24 @@
         <v>401.1333333333333</v>
       </c>
       <c r="T149">
+        <v>400.7666666666667</v>
+      </c>
+      <c r="U149">
         <v>-0.1749999999999545</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>9.153165747188829E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-8.309098462822018E-05</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>-0.0007481296758105049</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>400.7</v>
@@ -12065,21 +12515,24 @@
         <v>401.1066666666667</v>
       </c>
       <c r="T150">
+        <v>400.8</v>
+      </c>
+      <c r="U150">
         <v>-0.28125</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>3.328119279810693E-05</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>-6.647831145079053E-05</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>400.8</v>
@@ -12136,21 +12589,24 @@
         <v>401.0666666666667</v>
       </c>
       <c r="T151">
+        <v>400.7333333333333</v>
+      </c>
+      <c r="U151">
         <v>-0.3125</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>3.328008519676295E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>-9.972409666592075E-05</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0.0002495632642876</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>400.5</v>
@@ -12207,21 +12663,24 @@
         <v>401.0066666666667</v>
       </c>
       <c r="T152">
+        <v>400.6666666666667</v>
+      </c>
+      <c r="U152">
         <v>-0.3312499999999545</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>4.159872208719939E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>-0.000149601063829663</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>-0.0007485029940119681</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>400.4</v>
@@ -12278,21 +12737,24 @@
         <v>400.96</v>
       </c>
       <c r="T153">
+        <v>400.5666666666666</v>
+      </c>
+      <c r="U153">
         <v>-0.3062499999999773</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>4.159699170558362E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>-0.000116373792622082</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>-0.0002496878901373512</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>400.9</v>
@@ -12349,21 +12811,24 @@
         <v>400.9333333333333</v>
       </c>
       <c r="T154">
+        <v>400.6</v>
+      </c>
+      <c r="U154">
         <v>-0.2562500000000227</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>4.159526146785275E-05</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>-6.650704974719979E-05</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0.001248751248751345</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>399.5</v>
@@ -12420,21 +12885,24 @@
         <v>400.7933333333334</v>
       </c>
       <c r="T155">
+        <v>400.2666666666667</v>
+      </c>
+      <c r="U155">
         <v>-0.28125</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-2.495611882424864E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>-0.0003491852344529311</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>-0.003492142678972243</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>399</v>
@@ -12491,21 +12959,24 @@
         <v>400.6333333333333</v>
       </c>
       <c r="T156">
+        <v>399.8</v>
+      </c>
+      <c r="U156">
         <v>-0.3687500000000341</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-8.318913882610079E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>-0.0003992082369966843</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>-0.001251564455569509</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>399.5</v>
@@ -12562,21 +13033,24 @@
         <v>400.4800000000001</v>
       </c>
       <c r="T157">
+        <v>399.3333333333333</v>
+      </c>
+      <c r="U157">
         <v>-0.4000000000000341</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-2.495881795050447E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-0.0003827273483648641</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>0.001253132832080173</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>398.9</v>
@@ -12633,21 +13107,24 @@
         <v>400.3266666666667</v>
       </c>
       <c r="T158">
+        <v>399.1333333333334</v>
+      </c>
+      <c r="U158">
         <v>-0.4437500000000227</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-9.151794999784357E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>-0.0003828738846719526</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>-0.001501877346683389</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>398.7</v>
@@ -12704,21 +13181,24 @@
         <v>400.1666666666667</v>
       </c>
       <c r="T159">
+        <v>399.0333333333333</v>
+      </c>
+      <c r="U159">
         <v>-0.5500000000000114</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-0.0001164880516542066</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>-0.0003996735998933465</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.0005013787916771095</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>399</v>
@@ -12775,21 +13255,24 @@
         <v>400.0533333333333</v>
       </c>
       <c r="T160">
+        <v>398.8666666666666</v>
+      </c>
+      <c r="U160">
         <v>-0.6062500000000455</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-6.657235582918641E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>-0.0002832153269470838</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0.0007524454477050302</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>398.9</v>
@@ -12846,21 +13329,24 @@
         <v>399.94</v>
       </c>
       <c r="T161">
+        <v>398.8666666666666</v>
+      </c>
+      <c r="U161">
         <v>-0.6812500000000341</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-8.322098500346264E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-0.000283295560591923</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>-0.0002506265664160567</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>398.8</v>
@@ -12917,21 +13403,24 @@
         <v>399.8199999999999</v>
       </c>
       <c r="T162">
+        <v>398.8999999999999</v>
+      </c>
+      <c r="U162">
         <v>-0.8312499999999545</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>-9.155070244359909E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-0.0003000450067511817</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>-0.0002506893958384993</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>398.9</v>
@@ -12988,21 +13477,24 @@
         <v>399.68</v>
       </c>
       <c r="T163">
+        <v>398.8666666666666</v>
+      </c>
+      <c r="U163">
         <v>-0.8000000000000114</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>-0.0001165297442173863</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>-0.0003501575709067284</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>0.0002507522567702924</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>398.7</v>
@@ -13059,21 +13551,24 @@
         <v>399.5466666666667</v>
       </c>
       <c r="T164">
+        <v>398.8</v>
+      </c>
+      <c r="U164">
         <v>-0.6937499999999659</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>-0.0002081130803230913</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>-0.0003336002135041483</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>-0.0005013787916771095</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>398.7</v>
@@ -13130,21 +13625,24 @@
         <v>399.4133333333333</v>
       </c>
       <c r="T165">
+        <v>398.7666666666667</v>
+      </c>
+      <c r="U165">
         <v>-0.6687499999999886</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>-0.0001998301443771888</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>-0.0003337115397451518</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>398.6</v>
@@ -13201,21 +13699,24 @@
         <v>399.2666666666667</v>
       </c>
       <c r="T166">
+        <v>398.6666666666667</v>
+      </c>
+      <c r="U166">
         <v>-0.5749999999999886</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>-0.0002331817651860524</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>-0.0003672052343436372</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>-0.0002508151492349731</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>398</v>
@@ -13272,21 +13773,24 @@
         <v>399.1</v>
       </c>
       <c r="T167">
+        <v>398.4333333333333</v>
+      </c>
+      <c r="U167">
         <v>-0.4874999999999545</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>-0.0002832153269473059</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>-0.0004174319585906749</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>-0.001505268439538465</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>398.1</v>
@@ -13343,21 +13847,24 @@
         <v>398.9466666666667</v>
       </c>
       <c r="T168">
+        <v>398.2333333333333</v>
+      </c>
+      <c r="U168">
         <v>-0.4499999999999318</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>-0.0002499666711104354</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>-0.0003841977783346495</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0.0002512562814069863</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>397.9</v>
@@ -13414,21 +13921,24 @@
         <v>398.7466666666667</v>
       </c>
       <c r="T169">
+        <v>398</v>
+      </c>
+      <c r="U169">
         <v>-0.4187500000000455</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>-0.000283366392745843</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-0.0005013201430432712</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>-0.000502386335091809</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>398</v>
@@ -13485,21 +13995,24 @@
         <v>398.6466666666666</v>
       </c>
       <c r="T170">
+        <v>398</v>
+      </c>
+      <c r="U170">
         <v>-0.3375000000000341</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>-0.0003001200480192701</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-0.0002507857954926473</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>0.0002513194269917474</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>398</v>
@@ -13556,21 +14069,24 @@
         <v>398.58</v>
       </c>
       <c r="T171">
+        <v>397.9666666666667</v>
+      </c>
+      <c r="U171">
         <v>-0.3562499999999886</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-0.0002835318055972591</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-0.0001672324698563932</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>398</v>
@@ -13627,21 +14143,24 @@
         <v>398.48</v>
       </c>
       <c r="T172">
+        <v>398</v>
+      </c>
+      <c r="U172">
         <v>-0.3812499999999659</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-0.0003169783620560196</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-0.0002508906618495788</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>397.6</v>
@@ -13698,21 +14217,24 @@
         <v>398.3933333333333</v>
       </c>
       <c r="T173">
+        <v>397.8666666666666</v>
+      </c>
+      <c r="U173">
         <v>-0.3999999999999204</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-0.0003003905076599533</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-0.0002174931406009328</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>-0.001005025125628056</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>397.7</v>
@@ -13769,21 +14291,24 @@
         <v>398.3266666666667</v>
       </c>
       <c r="T174">
+        <v>397.7666666666667</v>
+      </c>
+      <c r="U174">
         <v>-0.4375</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>-0.0002837873931622603</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>-0.0001673388108902607</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>0.0002515090543258047</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>397.8</v>
@@ -13840,21 +14365,24 @@
         <v>398.2466666666667</v>
       </c>
       <c r="T175">
+        <v>397.7</v>
+      </c>
+      <c r="U175">
         <v>-0.4062499999999432</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-0.0002421226643513075</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-0.0002008401814257432</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>0.0002514458134272868</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>397.5</v>
@@ -13911,21 +14439,24 @@
         <v>398.1533333333333</v>
       </c>
       <c r="T176">
+        <v>397.6666666666667</v>
+      </c>
+      <c r="U176">
         <v>-0.3874999999999886</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>-0.0002588834606872537</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-0.000234360614024931</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>-0.0007541478129713397</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>397.4</v>
@@ -13982,21 +14513,24 @@
         <v>398.0600000000001</v>
       </c>
       <c r="T177">
+        <v>397.5666666666666</v>
+      </c>
+      <c r="U177">
         <v>-0.3562499999999886</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-0.0002673037405819256</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>-0.0002344155517972624</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>-0.0002515723270440917</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>397.4</v>
@@ -14053,21 +14587,24 @@
         <v>397.96</v>
       </c>
       <c r="T178">
+        <v>397.4333333333333</v>
+      </c>
+      <c r="U178">
         <v>-0.34375</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>-0.0003007971123475395</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>-0.0002512184092852143</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>397</v>
@@ -14124,21 +14661,24 @@
         <v>397.8466666666666</v>
       </c>
       <c r="T179">
+        <v>397.2666666666667</v>
+      </c>
+      <c r="U179">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-0.0003092456078764849</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-0.000284785740610527</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>-0.001006542526421739</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>396.4</v>
@@ -14195,21 +14735,24 @@
         <v>397.6933333333333</v>
       </c>
       <c r="T180">
+        <v>396.9333333333333</v>
+      </c>
+      <c r="U180">
         <v>-0.4062500000000568</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>-0.0003595047195446011</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-0.0003854081136785981</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>-0.001511335012594484</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>396.7</v>
@@ -14266,21 +14809,24 @@
         <v>397.5666666666667</v>
       </c>
       <c r="T181">
+        <v>396.7</v>
+      </c>
+      <c r="U181">
         <v>-0.3937500000000682</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>-0.0003429068464279039</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-0.0003185033694304007</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0.0007568113017155653</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>397</v>
@@ -14337,21 +14883,24 @@
         <v>397.5</v>
       </c>
       <c r="T182">
+        <v>396.7</v>
+      </c>
+      <c r="U182">
         <v>-0.3812500000000227</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>-0.0002928257686676261</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-0.0001676867611302146</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0.0007562389715149997</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>396.9</v>
@@ -14408,21 +14957,24 @@
         <v>397.42</v>
       </c>
       <c r="T183">
+        <v>396.8666666666666</v>
+      </c>
+      <c r="U183">
         <v>-0.4250000000000114</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>-0.0002929115407147576</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-0.0002012578616351623</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>-0.0002518891687658398</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>397.4</v>
@@ -14479,21 +15031,24 @@
         <v>397.3866666666666</v>
       </c>
       <c r="T184">
+        <v>397.1</v>
+      </c>
+      <c r="U184">
         <v>-0.3937500000000114</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-0.0002929973630237948</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-8.387432271506068E-05</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>0.00125976316452503</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>397.7</v>
@@ -14550,21 +15105,24 @@
         <v>397.3666666666667</v>
       </c>
       <c r="T185">
+        <v>397.3333333333333</v>
+      </c>
+      <c r="U185">
         <v>-0.34375</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>-0.0001507285211859166</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-5.032881492395003E-05</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>0.0007549068948162763</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>397.7</v>
@@ -14621,21 +15179,24 @@
         <v>397.3466666666666</v>
       </c>
       <c r="T186">
+        <v>397.6</v>
+      </c>
+      <c r="U186">
         <v>-0.2874999999999659</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-0.0001088758982260574</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-5.033134804133255E-05</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>398.3</v>
@@ -14692,21 +15253,24 @@
         <v>397.3666666666667</v>
       </c>
       <c r="T187">
+        <v>397.8999999999999</v>
+      </c>
+      <c r="U187">
         <v>-0.1437500000000114</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>-0.000100511772441414</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>5.033388141351125E-05</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0.001508674880563277</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>398</v>
@@ -14763,21 +15327,24 @@
         <v>397.3933333333334</v>
       </c>
       <c r="T188">
+        <v>398</v>
+      </c>
+      <c r="U188">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>-7.539140705492553E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>6.710846405511006E-05</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>-0.0007532011046950116</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>398.1</v>
@@ -14834,21 +15401,24 @@
         <v>397.42</v>
       </c>
       <c r="T189">
+        <v>398.1333333333334</v>
+      </c>
+      <c r="U189">
         <v>0.2000000000000455</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>-5.026472756530787E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>6.710396081111014E-05</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0.0002512562814069863</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>398.4</v>
@@ -14905,21 +15475,24 @@
         <v>397.46</v>
       </c>
       <c r="T190">
+        <v>398.1666666666667</v>
+      </c>
+      <c r="U190">
         <v>0.3312500000000114</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>-5.026725423495915E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>0.0001006491872579396</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>0.0007535795026374359</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>397.9</v>
@@ -14976,21 +15549,24 @@
         <v>397.4866666666667</v>
       </c>
       <c r="T191">
+        <v>398.1333333333334</v>
+      </c>
+      <c r="U191">
         <v>0.4499999999999886</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-8.378296859823386E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>6.709270534543954E-05</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>-0.001255020080321301</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>397.9</v>
@@ -15047,21 +15623,24 @@
         <v>397.5199999999999</v>
       </c>
       <c r="T192">
+        <v>398.0666666666666</v>
+      </c>
+      <c r="U192">
         <v>0.4875000000000114</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-7.541098989471973E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>8.386025527040708E-05</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>397.9</v>
@@ -15118,21 +15697,24 @@
         <v>397.5533333333333</v>
       </c>
       <c r="T193">
+        <v>397.8999999999999</v>
+      </c>
+      <c r="U193">
         <v>0.4812499999999886</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>-8.37963079346471E-05</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>8.385322331805334E-05</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>397.9</v>
@@ -15189,21 +15771,24 @@
         <v>397.6133333333333</v>
       </c>
       <c r="T194">
+        <v>397.8999999999999</v>
+      </c>
+      <c r="U194">
         <v>0.4749999999999659</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>-6.704266427570715E-05</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>0.0001509231465799399</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>398.3</v>
@@ -15260,21 +15845,24 @@
         <v>397.74</v>
       </c>
       <c r="T195">
+        <v>398.0333333333333</v>
+      </c>
+      <c r="U195">
         <v>0.3937500000000114</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-3.352357964792052E-05</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>0.0003185674524661675</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>0.001005277707966989</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>398.4</v>
@@ -15331,21 +15919,24 @@
         <v>397.8533333333333</v>
       </c>
       <c r="T196">
+        <v>398.2</v>
+      </c>
+      <c r="U196">
         <v>0.3187500000000227</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-1.676235175762653E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>0.000284943262768067</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>0.0002510670348983002</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>398.9</v>
@@ -15402,21 +15993,24 @@
         <v>397.98</v>
       </c>
       <c r="T197">
+        <v>398.5333333333333</v>
+      </c>
+      <c r="U197">
         <v>0.2812499999999432</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>7.543184732594632E-05</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>0.0003183752806730222</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>0.00125502008032119</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>399.2</v>
@@ -15473,21 +16067,24 @@
         <v>398.1333333333333</v>
       </c>
       <c r="T198">
+        <v>398.8333333333333</v>
+      </c>
+      <c r="U198">
         <v>0.2437500000000341</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>9.21875261894467E-05</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>0.0003852789922442756</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>0.0007520681875157198</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>399.7</v>
@@ -15544,21 +16141,24 @@
         <v>398.2866666666667</v>
       </c>
       <c r="T199">
+        <v>399.2666666666667</v>
+      </c>
+      <c r="U199">
         <v>0.2937499999999886</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>0.0001508384101633897</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>0.000385130609511064</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>0.001252505010020055</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>399.9</v>
@@ -15615,21 +16215,24 @@
         <v>398.4333333333333</v>
       </c>
       <c r="T200">
+        <v>399.6</v>
+      </c>
+      <c r="U200">
         <v>0.3874999999999886</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>0.0001591943092222881</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>0.0003682439783738722</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>0.000500375281460963</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>400.3</v>
@@ -15686,21 +16289,24 @@
         <v>398.6066666666666</v>
       </c>
       <c r="T201">
+        <v>399.9666666666667</v>
+      </c>
+      <c r="U201">
         <v>0.5250000000000909</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>0.0001926782273604655</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>0.0004350372291475058</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>0.001000250062515695</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>400</v>
@@ -15757,21 +16363,24 @@
         <v>398.72</v>
       </c>
       <c r="T202">
+        <v>400.0666666666666</v>
+      </c>
+      <c r="U202">
         <v>0.6437500000000114</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>0.0001675140083590154</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>0.0002843237276513033</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>-0.0007494379215589042</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>399.4</v>
@@ -15828,21 +16437,24 @@
         <v>398.8133333333333</v>
       </c>
       <c r="T203">
+        <v>399.9</v>
+      </c>
+      <c r="U203">
         <v>0.7124999999999773</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>0.0001507373569042958</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>0.000234082397003732</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>-0.001500000000000057</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>399.1</v>
@@ -15899,21 +16511,24 @@
         <v>398.88</v>
       </c>
       <c r="T204">
+        <v>399.5</v>
+      </c>
+      <c r="U204">
         <v>0.7312500000000455</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>0.0001172224966716762</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>0.000167162582327629</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>-0.0007511266900349645</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>399</v>
@@ -15970,21 +16585,24 @@
         <v>398.92</v>
       </c>
       <c r="T205">
+        <v>399.1666666666667</v>
+      </c>
+      <c r="U205">
         <v>0.6875000000000568</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>0.000100464649001708</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>0.0001002807862011679</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>-0.0002505637684790951</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>399.1</v>
@@ -16041,21 +16659,24 @@
         <v>399</v>
       </c>
       <c r="T206">
+        <v>399.0666666666667</v>
+      </c>
+      <c r="U206">
         <v>0.6312500000000227</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>0.0001339394091597335</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>0.0002005414619472567</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>0.0002506265664161678</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>399.3</v>
@@ -16112,21 +16733,24 @@
         <v>399.0933333333334</v>
       </c>
       <c r="T207">
+        <v>399.1333333333334</v>
+      </c>
+      <c r="U207">
         <v>0.4937499999999773</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>0.0001590317477591086</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>0.0002339181286550307</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0.0005011275369581902</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>399.4</v>
@@ -16183,21 +16807,24 @@
         <v>399.1933333333333</v>
       </c>
       <c r="T208">
+        <v>399.2666666666667</v>
+      </c>
+      <c r="U208">
         <v>0.3374999999999773</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>0.0001673752217721258</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>0.0002505679540290018</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>0.0002504382669670235</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>399.6</v>
@@ -16254,21 +16881,24 @@
         <v>399.3066666666667</v>
       </c>
       <c r="T209">
+        <v>399.4333333333333</v>
+      </c>
+      <c r="U209">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>0.0002175513755942049</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>0.0002839058768517866</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>0.0005007511266901243</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>399.6</v>
@@ -16325,21 +16955,24 @@
         <v>399.3933333333333</v>
       </c>
       <c r="T210">
+        <v>399.5333333333334</v>
+      </c>
+      <c r="U210">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>0.0002676973012765149</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>0.000217042874315343</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>399.8</v>
@@ -16396,21 +17029,24 @@
         <v>399.4866666666667</v>
       </c>
       <c r="T211">
+        <v>399.6666666666667</v>
+      </c>
+      <c r="U211">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>0.0002592623567785335</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>0.0002336877597690634</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0.0005005005005005447</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>400.2</v>
@@ -16467,21 +17103,24 @@
         <v>399.5733333333333</v>
       </c>
       <c r="T212">
+        <v>399.8666666666667</v>
+      </c>
+      <c r="U212">
         <v>-0.03124999999994316</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>0.0002675562913354579</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>0.0002169450795186378</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>0.001000500250124992</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>400.2</v>
@@ -16538,21 +17177,24 @@
         <v>399.64</v>
       </c>
       <c r="T213">
+        <v>400.0666666666666</v>
+      </c>
+      <c r="U213">
         <v>0.03750000000002274</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>0.0002758436217429328</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>0.0001668446342766305</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>400.2</v>
@@ -16609,21 +17251,24 @@
         <v>399.6733333333333</v>
       </c>
       <c r="T214">
+        <v>400.2</v>
+      </c>
+      <c r="U214">
         <v>0.1124999999999545</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>0.0002339845904435478</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>8.340840089404722E-05</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>400.1</v>
@@ -16680,21 +17325,24 @@
         <v>399.6866666666667</v>
       </c>
       <c r="T215">
+        <v>400.1666666666667</v>
+      </c>
+      <c r="U215">
         <v>0.1875000000000568</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>0.000200511303825035</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>3.336057780511936E-05</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>-0.0002498750624686519</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>400.3</v>
@@ -16751,21 +17399,24 @@
         <v>399.6866666666667</v>
       </c>
       <c r="T216">
+        <v>400.2</v>
+      </c>
+      <c r="U216">
         <v>0.2749999999999773</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>0.0002171770326933053</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>0</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>0.0004998750312421585</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>400.4</v>
@@ -16822,21 +17473,24 @@
         <v>399.7133333333334</v>
       </c>
       <c r="T217">
+        <v>400.2666666666667</v>
+      </c>
+      <c r="U217">
         <v>0.3687499999999773</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>0.0001753741314804991</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>6.671892982845762E-05</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0.0002498126405194867</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>400.6</v>
@@ -16893,21 +17547,24 @@
         <v>399.7933333333333</v>
       </c>
       <c r="T218">
+        <v>400.4333333333334</v>
+      </c>
+      <c r="U218">
         <v>0.4562499999999545</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>0.0002170918047843529</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>0.0002001434361289522</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>0.0004995004995005381</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>400.9</v>
@@ -16964,21 +17621,24 @@
         <v>399.9133333333334</v>
       </c>
       <c r="T219">
+        <v>400.6333333333334</v>
+      </c>
+      <c r="U219">
         <v>0.5000000000000568</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>0.0002337404312511282</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>0.0003001550801249309</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0.000748876684972366</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>400.8</v>
@@ -17035,21 +17695,24 @@
         <v>400.0333333333334</v>
       </c>
       <c r="T220">
+        <v>400.7666666666667</v>
+      </c>
+      <c r="U220">
         <v>0.46875</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>0.0002003021223679902</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>0.0003000650140863037</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>-0.0002494387627836048</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>401.1</v>
@@ -17106,21 +17769,24 @@
         <v>400.1666666666667</v>
       </c>
       <c r="T221">
+        <v>400.9333333333333</v>
+      </c>
+      <c r="U221">
         <v>0.4499999999999886</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>0.0002670160126163612</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>0.000333305557870256</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0.0007485029940119681</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>401.1</v>
@@ -17177,21 +17843,24 @@
         <v>400.2866666666667</v>
       </c>
       <c r="T222">
+        <v>401</v>
+      </c>
+      <c r="U222">
         <v>0.4375</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>0.0002669447340979403</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>0.0002998750520617488</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>400.7</v>
@@ -17248,21 +17917,24 @@
         <v>400.3733333333333</v>
       </c>
       <c r="T223">
+        <v>400.9666666666667</v>
+      </c>
+      <c r="U223">
         <v>0.4249999999999545</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>0.0002335143069214229</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>0.0002165115000916096</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>-0.0009972575417602769</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>400.5</v>
@@ -17319,21 +17991,24 @@
         <v>400.4333333333333</v>
       </c>
       <c r="T224">
+        <v>400.7666666666667</v>
+      </c>
+      <c r="U224">
         <v>0.3812500000000227</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>0.0002167840913827046</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>0.0001498601305447433</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>-0.000499126528574978</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>400.9</v>
@@ -17390,21 +18065,24 @@
         <v>400.52</v>
       </c>
       <c r="T225">
+        <v>400.7</v>
+      </c>
+      <c r="U225">
         <v>0.3625000000000114</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>0.0002167371062262724</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>0.0002164321984516882</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0.0009987515605491826</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>400.8</v>
@@ -17461,21 +18139,24 @@
         <v>400.5866666666667</v>
       </c>
       <c r="T226">
+        <v>400.7333333333333</v>
+      </c>
+      <c r="U226">
         <v>0.3125</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>0.0002000216690138945</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>0.0001664502813010227</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>-0.0002494387627836048</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>400.7</v>
@@ -17532,21 +18213,24 @@
         <v>400.62</v>
       </c>
       <c r="T227">
+        <v>400.8</v>
+      </c>
+      <c r="U227">
         <v>0.2312499999999886</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>0.0001499862512603922</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>8.321129010768757E-05</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>-0.0002495009980040264</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>400.6</v>
@@ -17603,21 +18287,24 @@
         <v>400.6466666666667</v>
       </c>
       <c r="T228">
+        <v>400.7</v>
+      </c>
+      <c r="U228">
         <v>0.1812499999999204</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>0.0001166384790343145</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>6.656349325218081E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>-0.000249563264287378</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>400.6</v>
@@ -17674,21 +18361,24 @@
         <v>400.6733333333333</v>
       </c>
       <c r="T229">
+        <v>400.6333333333334</v>
+      </c>
+      <c r="U229">
         <v>0.09375</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>7.49731346267879E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>6.655906284813717E-05</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>401</v>
@@ -17745,21 +18435,24 @@
         <v>400.7333333333333</v>
       </c>
       <c r="T230">
+        <v>400.7333333333333</v>
+      </c>
+      <c r="U230">
         <v>0.03125000000005684</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>9.162696164999318E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>0.0001497479243275368</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>0.0009985022466298954</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>400.9</v>
@@ -17816,21 +18509,24 @@
         <v>400.7733333333334</v>
       </c>
       <c r="T231">
+        <v>400.8333333333333</v>
+      </c>
+      <c r="U231">
         <v>0.006249999999965894</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>4.997376377380292E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>9.981700216266098E-05</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>-0.0002493765586035757</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>400.5</v>
@@ -17887,21 +18583,24 @@
         <v>400.78</v>
       </c>
       <c r="T232">
+        <v>400.8</v>
+      </c>
+      <c r="U232">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>4.164272210149811E-05</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>1.663450662059418E-05</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>-0.0009977550511348632</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>400.6</v>
@@ -17958,21 +18657,24 @@
         <v>400.78</v>
       </c>
       <c r="T233">
+        <v>400.6666666666667</v>
+      </c>
+      <c r="U233">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>9.993837133781547E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>0.0002496878901374622</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>400.6</v>
@@ -18029,21 +18731,24 @@
         <v>400.76</v>
       </c>
       <c r="T234">
+        <v>400.5666666666667</v>
+      </c>
+      <c r="U234">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>0.0001249104808218604</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>-4.990268975491041E-05</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>400.4</v>
@@ -18100,21 +18805,24 @@
         <v>400.7333333333333</v>
       </c>
       <c r="T235">
+        <v>400.5333333333333</v>
+      </c>
+      <c r="U235">
         <v>-0.08749999999992042</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>0.0001165685547996897</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>-6.654024021024441E-05</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>-0.0004992511233151697</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>400.4</v>
@@ -18171,21 +18879,24 @@
         <v>400.6866666666667</v>
       </c>
       <c r="T236">
+        <v>400.4666666666667</v>
+      </c>
+      <c r="U236">
         <v>-0.08750000000003411</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>0.0001082296132872695</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>-0.0001164531691898452</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>400.2</v>
@@ -18242,21 +18953,24 @@
         <v>400.6266666666667</v>
       </c>
       <c r="T237">
+        <v>400.3333333333333</v>
+      </c>
+      <c r="U237">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>7.492008524234706E-05</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>-0.0001497429412841145</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>-0.0004995004995004271</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>400.3</v>
@@ -18313,21 +19027,24 @@
         <v>400.6</v>
       </c>
       <c r="T238">
+        <v>400.3</v>
+      </c>
+      <c r="U238">
         <v>-0.1187500000000341</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>7.491447264373896E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>-6.656238559588079E-05</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>0.0002498750624688739</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>400.3</v>
@@ -18384,21 +19101,24 @@
         <v>400.5866666666667</v>
       </c>
       <c r="T239">
+        <v>400.2666666666667</v>
+      </c>
+      <c r="U239">
         <v>-0.1687499999999886</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>5.826244735573916E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>-3.32834082209521E-05</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>400.4</v>
@@ -18455,21 +19175,24 @@
         <v>400.5533333333333</v>
       </c>
       <c r="T240">
+        <v>400.3333333333333</v>
+      </c>
+      <c r="U240">
         <v>-0.1749999999999545</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>6.658177490370676E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-8.321129010790962E-05</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>0.0002498126405194867</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>400.5</v>
@@ -18526,21 +19249,24 @@
         <v>400.5333333333334</v>
       </c>
       <c r="T241">
+        <v>400.4</v>
+      </c>
+      <c r="U241">
         <v>-0.1625000000000227</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>5.825517430779747E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-4.99309288816141E-05</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0.000249750249750269</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>400.6</v>
@@ -18597,21 +19323,24 @@
         <v>400.5266666666667</v>
       </c>
       <c r="T242">
+        <v>400.5</v>
+      </c>
+      <c r="U242">
         <v>-0.1500000000000341</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>3.328673190861053E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>-1.664447403459945E-05</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0.0002496878901374622</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>400.8</v>
@@ -18668,21 +19397,24 @@
         <v>400.54</v>
       </c>
       <c r="T243">
+        <v>400.6333333333334</v>
+      </c>
+      <c r="U243">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>4.992843590856388E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>3.328950215530924E-05</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>0.0004992511233150587</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>400.9</v>
@@ -18739,21 +19471,24 @@
         <v>400.5600000000001</v>
       </c>
       <c r="T244">
+        <v>400.7666666666667</v>
+      </c>
+      <c r="U244">
         <v>-0.0625</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>5.824693371492273E-05</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>4.993259100238845E-05</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>0.0002495009980039153</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>401</v>
@@ -18810,21 +19545,24 @@
         <v>400.5600000000001</v>
       </c>
       <c r="T245">
+        <v>400.9</v>
+      </c>
+      <c r="U245">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>7.488455298076957E-05</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>0</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>0.0002494387627838268</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>401.1</v>
@@ -18881,21 +19619,24 @@
         <v>400.5733333333333</v>
       </c>
       <c r="T246">
+        <v>401</v>
+      </c>
+      <c r="U246">
         <v>0.1062499999999886</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>6.655906284858126E-05</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>3.328673190838849E-05</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>0.0002493765586035757</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>401</v>
@@ -18952,21 +19693,24 @@
         <v>400.6066666666666</v>
       </c>
       <c r="T247">
+        <v>401.0333333333333</v>
+      </c>
+      <c r="U247">
         <v>0.1875000000000568</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>4.991597477599363E-05</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>8.321405984745844E-05</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>-0.0002493143854400692</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>400.8</v>
@@ -19023,21 +19767,24 @@
         <v>400.62</v>
       </c>
       <c r="T248">
+        <v>400.9666666666667</v>
+      </c>
+      <c r="U248">
         <v>0.21875</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>1.663782776506473E-05</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>3.328285433767952E-05</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>-0.0004987531172069293</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>400.2</v>
@@ -19094,21 +19841,24 @@
         <v>400.5933333333333</v>
       </c>
       <c r="T249">
+        <v>400.6666666666667</v>
+      </c>
+      <c r="U249">
         <v>0.2062500000000114</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>-5.823142833372152E-05</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>-6.656349325218081E-05</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>-0.001497005988024047</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>399.9</v>
@@ -19165,21 +19915,24 @@
         <v>400.5600000000001</v>
       </c>
       <c r="T250">
+        <v>400.3</v>
+      </c>
+      <c r="U250">
         <v>0.1624999999999659</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>-7.487333926781137E-05</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>-8.320990530685801E-05</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>-0.0007496251874062887</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>399.9</v>
@@ -19236,21 +19989,24 @@
         <v>400.5266666666666</v>
       </c>
       <c r="T251">
+        <v>400</v>
+      </c>
+      <c r="U251">
         <v>0.08124999999995453</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>-9.983859427253883E-05</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>-8.32168297718594E-05</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>399.7</v>
@@ -19307,21 +20063,24 @@
         <v>400.4933333333333</v>
       </c>
       <c r="T252">
+        <v>399.8333333333333</v>
+      </c>
+      <c r="U252">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>-0.0001164899901814342</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>-8.32237553888282E-05</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>-0.0005001250312577366</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>399.5</v>
@@ -19378,21 +20137,24 @@
         <v>400.4399999999999</v>
       </c>
       <c r="T253">
+        <v>399.7</v>
+      </c>
+      <c r="U253">
         <v>-0.1687499999999318</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>-9.986019572605365E-05</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>-0.0001331690914538886</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>-0.000500375281461074</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>398.6</v>
@@ -19449,21 +20211,24 @@
         <v>400.3266666666667</v>
       </c>
       <c r="T254">
+        <v>399.2666666666667</v>
+      </c>
+      <c r="U254">
         <v>-0.375</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>-0.0001581277672361159</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>-0.0002830220091232238</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>-0.002252816020025028</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>398.5</v>
@@ -19520,21 +20285,24 @@
         <v>400.2</v>
       </c>
       <c r="T255">
+        <v>398.8666666666666</v>
+      </c>
+      <c r="U255">
         <v>-0.5749999999999886</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>-0.0001997719270498965</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>-0.000316408266582302</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>-0.0002508780732564109</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>398.5</v>
@@ -19591,21 +20359,24 @@
         <v>400.0666666666667</v>
       </c>
       <c r="T256">
+        <v>398.5333333333333</v>
+      </c>
+      <c r="U256">
         <v>-0.7437499999999773</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>-0.0001914863503533759</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>-0.0003331667499583135</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>398.6</v>
@@ -19662,21 +20433,24 @@
         <v>399.9333333333333</v>
       </c>
       <c r="T257">
+        <v>398.5333333333334</v>
+      </c>
+      <c r="U257">
         <v>-0.8250000000000455</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>-0.0001748688483638183</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>-0.000333277787035513</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>0.0002509410288582536</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>399.4</v>
@@ -19733,21 +20507,24 @@
         <v>399.84</v>
       </c>
       <c r="T258">
+        <v>398.8333333333333</v>
+      </c>
+      <c r="U258">
         <v>-0.8124999999999432</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>-9.994253304357326E-05</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>-0.0002333722287046758</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>0.002007024586051065</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>399</v>
@@ -19804,21 +20581,24 @@
         <v>399.7133333333333</v>
       </c>
       <c r="T259">
+        <v>399</v>
+      </c>
+      <c r="U259">
         <v>-0.8125</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>-0.0001332700300690215</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>-0.000316793384020464</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>-0.001001502253380027</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>398.3</v>
@@ -19875,21 +20655,24 @@
         <v>399.5333333333334</v>
       </c>
       <c r="T260">
+        <v>398.8999999999999</v>
+      </c>
+      <c r="U260">
         <v>-0.8250000000000455</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>-0.0002249231512564398</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>-0.0004503227312906422</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>-0.001754385964912286</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>398.3</v>
@@ -19946,21 +20729,24 @@
         <v>399.3466666666667</v>
       </c>
       <c r="T261">
+        <v>398.5333333333334</v>
+      </c>
+      <c r="U261">
         <v>-0.8062500000000341</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>-0.0002166413918377463</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>-0.000467211747038232</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>397.9</v>
@@ -20017,21 +20803,24 @@
         <v>399.14</v>
       </c>
       <c r="T262">
+        <v>398.1666666666667</v>
+      </c>
+      <c r="U262">
         <v>-0.6937500000000227</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>-0.0002166883355002591</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>-0.0005175119361623404</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>-0.001004268139593312</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>397.8</v>
@@ -20088,21 +20877,24 @@
         <v>398.94</v>
       </c>
       <c r="T263">
+        <v>398</v>
+      </c>
+      <c r="U263">
         <v>-0.5812500000000114</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>-0.0002334072456277037</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>-0.0005010773162300586</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>-0.0002513194269916363</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>397.9</v>
@@ -20159,21 +20951,24 @@
         <v>398.7866666666667</v>
       </c>
       <c r="T264">
+        <v>397.8666666666666</v>
+      </c>
+      <c r="U264">
         <v>-0.4750000000000227</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>-0.0002251238181000259</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>-0.0003843518657775657</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>0.0002513826043237799</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>397.8</v>
@@ -20230,21 +21025,24 @@
         <v>398.6466666666666</v>
       </c>
       <c r="T265">
+        <v>397.8333333333333</v>
+      </c>
+      <c r="U265">
         <v>-0.4250000000000114</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>-0.0002168347135695914</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>-0.000351064896853881</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>-0.0002513194269916363</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>397.8</v>
@@ -20301,21 +21099,24 @@
         <v>398.5066666666667</v>
       </c>
       <c r="T266">
+        <v>397.8333333333333</v>
+      </c>
+      <c r="U266">
         <v>-0.4937499999999773</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>-0.0002168817410598267</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>-0.0003511881866981037</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>397.6</v>
@@ -20372,21 +21173,24 @@
         <v>398.3666666666667</v>
       </c>
       <c r="T267">
+        <v>397.7333333333333</v>
+      </c>
+      <c r="U267">
         <v>-0.5249999999999773</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>-0.0002169287889530747</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>-0.0003513115631692543</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>-0.0005027652086475598</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>397.7</v>
@@ -20443,21 +21247,24 @@
         <v>398.2466666666667</v>
       </c>
       <c r="T268">
+        <v>397.7</v>
+      </c>
+      <c r="U268">
         <v>-0.4750000000000227</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>-0.0002169758572635461</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>-0.0003012300225920805</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>0.0002515090543258047</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>397.7</v>
@@ -20514,21 +21321,24 @@
         <v>398.1866666666667</v>
       </c>
       <c r="T269">
+        <v>397.6666666666667</v>
+      </c>
+      <c r="U269">
         <v>-0.4375000000000568</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>-0.0002170229460027873</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>-0.0001506603947303287</v>
       </c>
-      <c r="W269">
+      <c r="X269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>397.6</v>
@@ -20585,21 +21395,24 @@
         <v>398.1266666666667</v>
       </c>
       <c r="T270">
+        <v>397.6666666666667</v>
+      </c>
+      <c r="U270">
         <v>-0.4124999999999659</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>-0.0002337677517386672</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>-0.0001506830967050732</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>-0.0002514458134271758</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>397.6</v>
@@ -20656,21 +21469,24 @@
         <v>398.0666666666667</v>
       </c>
       <c r="T271">
+        <v>397.6333333333334</v>
+      </c>
+      <c r="U271">
         <v>-0.3812499999999659</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>-0.0002421732123024656</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>-0.0001507058055225663</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>397.2</v>
@@ -20727,21 +21543,24 @@
         <v>397.9733333333333</v>
       </c>
       <c r="T272">
+        <v>397.4666666666667</v>
+      </c>
+      <c r="U272">
         <v>-0.3874999999999886</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>-0.0002839959906448808</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>-0.0002344665885112285</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>-0.001006036217303885</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>396.7</v>
@@ -20798,21 +21617,24 @@
         <v>397.7933333333333</v>
       </c>
       <c r="T273">
+        <v>397.1666666666667</v>
+      </c>
+      <c r="U273">
         <v>-0.4062499999999432</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>-0.0003425630399545021</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>-0.0004522916108281594</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>-0.001258811681772443</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>396.4</v>
@@ -20869,21 +21691,24 @@
         <v>397.62</v>
       </c>
       <c r="T274">
+        <v>396.7666666666667</v>
+      </c>
+      <c r="U274">
         <v>-0.3937500000000114</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>-0.0003761126666387282</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>-0.0004357371499437157</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>-0.0007562389715149997</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>396.8</v>
@@ -20940,21 +21765,24 @@
         <v>397.52</v>
       </c>
       <c r="T275">
+        <v>396.6333333333333</v>
+      </c>
+      <c r="U275">
         <v>-0.3562500000000455</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>-0.0003511705685619315</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>-0.0002514964036013367</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>0.001009081735620754</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>397</v>
@@ -21011,21 +21839,24 @@
         <v>397.4333333333333</v>
       </c>
       <c r="T276">
+        <v>396.7333333333333</v>
+      </c>
+      <c r="U276">
         <v>-0.3625000000000114</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>-0.0003429297913982721</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>-0.0002180183806266278</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>0.0005040322580645018</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>396.8</v>
@@ -21082,21 +21913,24 @@
         <v>397.36</v>
       </c>
       <c r="T277">
+        <v>396.8666666666666</v>
+      </c>
+      <c r="U277">
         <v>-0.3812499999999091</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>-0.0003514144431335797</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>-0.0001845173194666705</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>-0.0005037783375314575</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>396.8</v>
@@ -21153,21 +21987,24 @@
         <v>397.2933333333333</v>
       </c>
       <c r="T278">
+        <v>396.8666666666667</v>
+      </c>
+      <c r="U278">
         <v>-0.4125000000000227</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>-0.0003347980749111024</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>-0.0001677739749009755</v>
       </c>
-      <c r="W278">
+      <c r="X278">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>396.8</v>
@@ -21224,21 +22061,24 @@
         <v>397.22</v>
       </c>
       <c r="T279">
+        <v>396.8</v>
+      </c>
+      <c r="U279">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>-0.0002846736718719045</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>-0.0001845823405038916</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>396.4</v>
@@ -21295,21 +22135,24 @@
         <v>397.1266666666667</v>
       </c>
       <c r="T280">
+        <v>396.6666666666667</v>
+      </c>
+      <c r="U280">
         <v>-0.4562499999999545</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>-0.0002931298732840038</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>-0.0002349663494621845</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>-0.001008064516129115</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>396.8</v>
@@ -21366,21 +22209,24 @@
         <v>397.06</v>
       </c>
       <c r="T281">
+        <v>396.6666666666667</v>
+      </c>
+      <c r="U281">
         <v>-0.3812500000000227</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>-0.0002597054437610824</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>-0.0001678725511591317</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>0.001009081735620754</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>396.8</v>
@@ -21437,21 +22283,24 @@
         <v>397.0066666666667</v>
       </c>
       <c r="T282">
+        <v>396.6666666666667</v>
+      </c>
+      <c r="U282">
         <v>-0.2687500000000114</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>-0.0002430133657352895</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>-0.000134320589667225</v>
       </c>
-      <c r="W282">
+      <c r="X282">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283">
         <v>397.8</v>
@@ -21508,21 +22357,24 @@
         <v>397.0133333333333</v>
       </c>
       <c r="T283">
+        <v>397.1333333333334</v>
+      </c>
+      <c r="U283">
         <v>-0.15625</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <v>-0.000142490738101908</v>
       </c>
-      <c r="V283">
+      <c r="W283">
         <v>1.679232926377061E-05</v>
       </c>
-      <c r="W283">
+      <c r="X283">
         <v>0.002520161290322509</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284">
         <v>398.1</v>
@@ -21579,21 +22431,24 @@
         <v>397.04</v>
       </c>
       <c r="T284">
+        <v>397.5666666666667</v>
+      </c>
+      <c r="U284">
         <v>-0.04374999999993179</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <v>-4.19150131192314E-05</v>
       </c>
-      <c r="V284">
+      <c r="W284">
         <v>6.71681891455389E-05</v>
       </c>
-      <c r="W284">
+      <c r="X284">
         <v>0.0007541478129713397</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285">
         <v>398.3</v>
@@ -21650,21 +22505,24 @@
         <v>397.0866666666667</v>
       </c>
       <c r="T285">
+        <v>398.0666666666667</v>
+      </c>
+      <c r="U285">
         <v>0.1062500000000455</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <v>-1.676670802464031E-05</v>
       </c>
-      <c r="V285">
+      <c r="W285">
         <v>0.0001175364362955289</v>
       </c>
-      <c r="W285">
+      <c r="X285">
         <v>0.0005023863350916979</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286">
         <v>397.9</v>
@@ -21721,21 +22579,24 @@
         <v>397.1066666666667</v>
       </c>
       <c r="T286">
+        <v>398.1000000000001</v>
+      </c>
+      <c r="U286">
         <v>0.2249999999999659</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <v>-5.030096745517465E-05</v>
       </c>
-      <c r="V286">
+      <c r="W286">
         <v>5.036683847348122E-05</v>
       </c>
-      <c r="W286">
+      <c r="X286">
         <v>-0.001004268139593312</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>397.7</v>
@@ -21792,21 +22653,24 @@
         <v>397.14</v>
       </c>
       <c r="T287">
+        <v>397.9666666666666</v>
+      </c>
+      <c r="U287">
         <v>0.3312500000000114</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <v>-7.545524665486525E-05</v>
       </c>
-      <c r="V287">
+      <c r="W287">
         <v>8.394050297155786E-05</v>
       </c>
-      <c r="W287">
+      <c r="X287">
         <v>-0.0005026388539833837</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288">
         <v>397.8</v>
@@ -21863,21 +22727,24 @@
         <v>397.2133333333334</v>
       </c>
       <c r="T288">
+        <v>397.8</v>
+      </c>
+      <c r="U288">
         <v>0.4687499999999432</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <v>-0.0001341527832510181</v>
       </c>
-      <c r="V288">
+      <c r="W288">
         <v>0.0001846536066205662</v>
       </c>
-      <c r="W288">
+      <c r="X288">
         <v>0.0002514458134272868</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289">
         <v>397.9</v>
@@ -21934,21 +22801,24 @@
         <v>397.3133333333333</v>
       </c>
       <c r="T289">
+        <v>397.8</v>
+      </c>
+      <c r="U289">
         <v>0.53125</v>
       </c>
-      <c r="U289">
+      <c r="V289">
         <v>-9.224241306160508E-05</v>
       </c>
-      <c r="V289">
+      <c r="W289">
         <v>0.0002517538854014401</v>
       </c>
-      <c r="W289">
+      <c r="X289">
         <v>0.0002513826043237799</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290">
         <v>397.5</v>
@@ -22005,21 +22875,24 @@
         <v>397.36</v>
       </c>
       <c r="T290">
+        <v>397.7333333333333</v>
+      </c>
+      <c r="U290">
         <v>0.5500000000000114</v>
       </c>
-      <c r="U290">
+      <c r="V290">
         <v>-6.709158000661741E-05</v>
       </c>
-      <c r="V290">
+      <c r="W290">
         <v>0.0001174555766227936</v>
       </c>
-      <c r="W290">
+      <c r="X290">
         <v>-0.001005277707966767</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B291">
         <v>397.3</v>
@@ -22076,21 +22949,24 @@
         <v>397.38</v>
       </c>
       <c r="T291">
+        <v>397.5666666666667</v>
+      </c>
+      <c r="U291">
         <v>0.4562500000000114</v>
       </c>
-      <c r="U291">
+      <c r="V291">
         <v>-8.387010198596112E-05</v>
       </c>
-      <c r="V291">
+      <c r="W291">
         <v>5.033219247030374E-05</v>
       </c>
-      <c r="W291">
+      <c r="X291">
         <v>-0.0005031446540880724</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B292">
         <v>397</v>
@@ -22147,21 +23023,24 @@
         <v>397.3933333333334</v>
       </c>
       <c r="T292">
+        <v>397.2666666666667</v>
+      </c>
+      <c r="U292">
         <v>0.3187500000000227</v>
       </c>
-      <c r="U292">
+      <c r="V292">
         <v>-7.548942309298923E-05</v>
       </c>
-      <c r="V292">
+      <c r="W292">
         <v>3.355310617880747E-05</v>
       </c>
-      <c r="W292">
+      <c r="X292">
         <v>-0.0007550969041026923</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293">
         <v>396.7</v>
@@ -22218,21 +23097,24 @@
         <v>397.3866666666667</v>
       </c>
       <c r="T293">
+        <v>397</v>
+      </c>
+      <c r="U293">
         <v>0.125</v>
       </c>
-      <c r="U293">
+      <c r="V293">
         <v>-9.227181599325007E-05</v>
       </c>
-      <c r="V293">
+      <c r="W293">
         <v>-1.677599020299958E-05</v>
       </c>
-      <c r="W293">
+      <c r="X293">
         <v>-0.0007556675062972973</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B294">
         <v>396.6</v>
@@ -22289,21 +23171,24 @@
         <v>397.3733333333333</v>
       </c>
       <c r="T294">
+        <v>396.7666666666667</v>
+      </c>
+      <c r="U294">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U294">
+      <c r="V294">
         <v>-0.0001090585728428239</v>
       </c>
-      <c r="V294">
+      <c r="W294">
         <v>-3.355254328274437E-05</v>
       </c>
-      <c r="W294">
+      <c r="X294">
         <v>-0.0002520796571715556</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B295">
         <v>396.6</v>
@@ -22360,21 +23245,24 @@
         <v>397.3866666666667</v>
       </c>
       <c r="T295">
+        <v>396.6333333333334</v>
+      </c>
+      <c r="U295">
         <v>-0.1500000000000341</v>
       </c>
-      <c r="U295">
+      <c r="V295">
         <v>-0.0001006804319189092</v>
       </c>
-      <c r="V295">
+      <c r="W295">
         <v>3.355366909363333E-05</v>
       </c>
-      <c r="W295">
+      <c r="X295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B296">
         <v>397</v>
@@ -22431,21 +23319,24 @@
         <v>397.4</v>
       </c>
       <c r="T296">
+        <v>396.7333333333333</v>
+      </c>
+      <c r="U296">
         <v>-0.2874999999999659</v>
       </c>
-      <c r="U296">
+      <c r="V296">
         <v>-6.712704632627631E-05</v>
       </c>
-      <c r="V296">
+      <c r="W296">
         <v>3.35525432828554E-05</v>
       </c>
-      <c r="W296">
+      <c r="X296">
         <v>0.001008572869389823</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B297">
         <v>396.4</v>
@@ -22502,21 +23393,24 @@
         <v>397.3733333333333</v>
       </c>
       <c r="T297">
+        <v>396.6666666666667</v>
+      </c>
+      <c r="U297">
         <v>-0.4500000000000455</v>
       </c>
-      <c r="U297">
+      <c r="V297">
         <v>-0.0001006973290034185</v>
       </c>
-      <c r="V297">
+      <c r="W297">
         <v>-6.710283509470116E-05</v>
       </c>
-      <c r="W297">
+      <c r="X297">
         <v>-0.001511335012594484</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B298">
         <v>396</v>
@@ -22573,21 +23467,24 @@
         <v>397.2533333333333</v>
       </c>
       <c r="T298">
+        <v>396.4666666666667</v>
+      </c>
+      <c r="U298">
         <v>-0.5875000000000341</v>
       </c>
-      <c r="U298">
+      <c r="V298">
         <v>-0.0001426689158000594</v>
       </c>
-      <c r="V298">
+      <c r="W298">
         <v>-0.0003019830218434771</v>
       </c>
-      <c r="W298">
+      <c r="X298">
         <v>-0.001009081735620532</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B299">
         <v>396.1</v>
@@ -22644,21 +23541,24 @@
         <v>397.12</v>
       </c>
       <c r="T299">
+        <v>396.1666666666667</v>
+      </c>
+      <c r="U299">
         <v>-0.6312500000000227</v>
       </c>
-      <c r="U299">
+      <c r="V299">
         <v>-0.0001342957864697292</v>
       </c>
-      <c r="V299">
+      <c r="W299">
         <v>-0.0003356380479291321</v>
       </c>
-      <c r="W299">
+      <c r="X299">
         <v>0.0002525252525253929</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B300">
         <v>396.6</v>
@@ -22715,21 +23615,24 @@
         <v>397.0066666666667</v>
       </c>
       <c r="T300">
+        <v>396.2333333333333</v>
+      </c>
+      <c r="U300">
         <v>-0.5875000000000341</v>
       </c>
-      <c r="U300">
+      <c r="V300">
         <v>-8.394614015638791E-05</v>
       </c>
-      <c r="V300">
+      <c r="W300">
         <v>-0.0002853881278537251</v>
       </c>
-      <c r="W300">
+      <c r="X300">
         <v>0.00126230749810663</v>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B301">
         <v>396.7</v>
@@ -22786,21 +23689,24 @@
         <v>396.9266666666666</v>
       </c>
       <c r="T301">
+        <v>396.4666666666667</v>
+      </c>
+      <c r="U301">
         <v>-0.4875000000000114</v>
       </c>
-      <c r="U301">
+      <c r="V301">
         <v>-7.555786893231886E-05</v>
       </c>
-      <c r="V301">
+      <c r="W301">
         <v>-0.0002015079511681339</v>
       </c>
-      <c r="W301">
+      <c r="X301">
         <v>0.0002521432173474558</v>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B302">
         <v>396.9</v>
@@ -22857,21 +23763,24 @@
         <v>396.8733333333333</v>
       </c>
       <c r="T302">
+        <v>396.7333333333333</v>
+      </c>
+      <c r="U302">
         <v>-0.3874999999999318</v>
       </c>
-      <c r="U302">
+      <c r="V302">
         <v>-2.518785945160307E-05</v>
       </c>
-      <c r="V302">
+      <c r="W302">
         <v>-0.0001343657098709095</v>
       </c>
-      <c r="W302">
+      <c r="X302">
         <v>0.0005041593143433332</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B303">
         <v>395.6</v>
@@ -22928,21 +23837,24 @@
         <v>396.7266666666666</v>
       </c>
       <c r="T303">
+        <v>396.4</v>
+      </c>
+      <c r="U303">
         <v>-0.3812500000000227</v>
       </c>
-      <c r="U303">
+      <c r="V303">
         <v>-9.235781095207063E-05</v>
       </c>
-      <c r="V303">
+      <c r="W303">
         <v>-0.0003695553577127697</v>
       </c>
-      <c r="W303">
+      <c r="X303">
         <v>-0.003275384227765077</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B304">
         <v>396.8</v>
@@ -22999,21 +23911,24 @@
         <v>396.6533333333334</v>
       </c>
       <c r="T304">
+        <v>396.4333333333333</v>
+      </c>
+      <c r="U304">
         <v>-0.3437499999999432</v>
       </c>
-      <c r="U304">
+      <c r="V304">
         <v>3.358776061990199E-05</v>
       </c>
-      <c r="V304">
+      <c r="W304">
         <v>-0.0001848459896820476</v>
       </c>
-      <c r="W304">
+      <c r="X304">
         <v>0.003033367037411416</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B305">
         <v>396.3</v>
@@ -23070,21 +23985,24 @@
         <v>396.5733333333334</v>
       </c>
       <c r="T305">
+        <v>396.2333333333333</v>
+      </c>
+      <c r="U305">
         <v>-0.2562500000000227</v>
       </c>
-      <c r="U305">
+      <c r="V305">
         <v>-4.198329065041584E-05</v>
       </c>
-      <c r="V305">
+      <c r="W305">
         <v>-0.0002016874516790335</v>
       </c>
-      <c r="W305">
+      <c r="X305">
         <v>-0.001260080645161255</v>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B306">
         <v>396.1</v>
@@ -23141,21 +24059,24 @@
         <v>396.4933333333333</v>
       </c>
       <c r="T306">
+        <v>396.4</v>
+      </c>
+      <c r="U306">
         <v>-0.1562499999999432</v>
       </c>
-      <c r="U306">
+      <c r="V306">
         <v>-7.557309597772122E-05</v>
       </c>
-      <c r="V306">
+      <c r="W306">
         <v>-0.0002017281377133529</v>
       </c>
-      <c r="W306">
+      <c r="X306">
         <v>-0.0005046681806711861</v>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B307">
         <v>397.1</v>
@@ -23212,21 +24133,24 @@
         <v>396.5</v>
       </c>
       <c r="T307">
+        <v>396.5</v>
+      </c>
+      <c r="U307">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U307">
+      <c r="V307">
         <v>2.5192935900753E-05</v>
       </c>
-      <c r="V307">
+      <c r="W307">
         <v>1.681407001385971E-05</v>
       </c>
-      <c r="W307">
+      <c r="X307">
         <v>0.002524614996213037</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B308">
         <v>397</v>
@@ -23283,21 +24207,24 @@
         <v>396.52</v>
       </c>
       <c r="T308">
+        <v>396.7333333333333</v>
+      </c>
+      <c r="U308">
         <v>0.03125</v>
       </c>
-      <c r="U308">
+      <c r="V308">
         <v>1.679486748851211E-05</v>
       </c>
-      <c r="V308">
+      <c r="W308">
         <v>5.044136191689752E-05</v>
       </c>
-      <c r="W308">
+      <c r="X308">
         <v>-0.0002518257365903276</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B309">
         <v>396.3</v>
@@ -23354,21 +24281,24 @@
         <v>396.5</v>
       </c>
       <c r="T309">
+        <v>396.8</v>
+      </c>
+      <c r="U309">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U309">
+      <c r="V309">
         <v>-4.198646356423641E-05</v>
       </c>
-      <c r="V309">
+      <c r="W309">
         <v>-5.043881771416014E-05</v>
       </c>
-      <c r="W309">
+      <c r="X309">
         <v>-0.001763224181360212</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B310">
         <v>396.6</v>
@@ -23425,21 +24355,24 @@
         <v>396.5</v>
       </c>
       <c r="T310">
+        <v>396.6333333333334</v>
+      </c>
+      <c r="U310">
         <v>-0.03124999999994316</v>
       </c>
-      <c r="U310">
+      <c r="V310">
         <v>1.679529060072404E-05</v>
       </c>
-      <c r="V310">
+      <c r="W310">
         <v>0</v>
       </c>
-      <c r="W310">
+      <c r="X310">
         <v>0.0007570022710068347</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:24">
       <c r="A311" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B311">
         <v>396.5</v>
@@ -23496,21 +24429,24 @@
         <v>396.4666666666666</v>
       </c>
       <c r="T311">
+        <v>396.4666666666667</v>
+      </c>
+      <c r="U311">
         <v>0.08750000000003411</v>
       </c>
-      <c r="U311">
+      <c r="V311">
         <v>-2.51925127852104E-05</v>
       </c>
-      <c r="V311">
+      <c r="W311">
         <v>-8.40689365280145E-05</v>
       </c>
-      <c r="W311">
+      <c r="X311">
         <v>-0.0002521432173474558</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:24">
       <c r="A312" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B312">
         <v>396.4</v>
@@ -23567,21 +24503,24 @@
         <v>396.4666666666666</v>
       </c>
       <c r="T312">
+        <v>396.5</v>
+      </c>
+      <c r="U312">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U312">
+      <c r="V312">
         <v>-3.359086328513783E-05</v>
       </c>
-      <c r="V312">
+      <c r="W312">
         <v>0</v>
       </c>
-      <c r="W312">
+      <c r="X312">
         <v>-0.0002522068095839325</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:24">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B313">
         <v>396.2</v>
@@ -23638,21 +24577,24 @@
         <v>396.48</v>
       </c>
       <c r="T313">
+        <v>396.3666666666666</v>
+      </c>
+      <c r="U313">
         <v>0.07500000000004547</v>
       </c>
-      <c r="U313">
+      <c r="V313">
         <v>-0.0001343679666767628</v>
       </c>
-      <c r="V313">
+      <c r="W313">
         <v>3.363040188331112E-05</v>
       </c>
-      <c r="W313">
+      <c r="X313">
         <v>-0.0005045408678102659</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:24">
       <c r="A314" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B314">
         <v>396.2</v>
@@ -23709,21 +24651,24 @@
         <v>396.4866666666667</v>
       </c>
       <c r="T314">
+        <v>396.2666666666667</v>
+      </c>
+      <c r="U314">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U314">
+      <c r="V314">
         <v>-0.0001595834033260024</v>
       </c>
-      <c r="V314">
+      <c r="W314">
         <v>1.681463545888384E-05</v>
       </c>
-      <c r="W314">
+      <c r="X314">
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:24">
       <c r="A315" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B315">
         <v>395.9</v>
@@ -23780,21 +24725,24 @@
         <v>396.44</v>
       </c>
       <c r="T315">
+        <v>396.1</v>
+      </c>
+      <c r="U315">
         <v>-0.06250000000005684</v>
       </c>
-      <c r="U315">
+      <c r="V315">
         <v>-0.0002016112095831746</v>
       </c>
-      <c r="V315">
+      <c r="W315">
         <v>-0.0001177004691205186</v>
       </c>
-      <c r="W315">
+      <c r="X315">
         <v>-0.0007571933366986583</v>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:24">
       <c r="A316" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B316">
         <v>395.9</v>
@@ -23851,21 +24799,24 @@
         <v>396.3866666666667</v>
       </c>
       <c r="T316">
+        <v>396</v>
+      </c>
+      <c r="U316">
         <v>-0.15625</v>
       </c>
-      <c r="U316">
+      <c r="V316">
         <v>-0.0001680432207163962</v>
       </c>
-      <c r="V316">
+      <c r="W316">
         <v>-0.000134530656173304</v>
       </c>
-      <c r="W316">
+      <c r="X316">
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:24">
       <c r="A317" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B317">
         <v>396.5</v>
@@ -23922,21 +24873,24 @@
         <v>396.36</v>
       </c>
       <c r="T317">
+        <v>396.1</v>
+      </c>
+      <c r="U317">
         <v>-0.1187500000000341</v>
       </c>
-      <c r="U317">
+      <c r="V317">
         <v>-0.0001008428783919602</v>
       </c>
-      <c r="V317">
+      <c r="W317">
         <v>-6.727437855291729E-05</v>
       </c>
-      <c r="W317">
+      <c r="X317">
         <v>0.00151553422581463</v>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:24">
       <c r="A318" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B318">
         <v>396.7</v>
@@ -23993,21 +24947,24 @@
         <v>396.4333333333333</v>
       </c>
       <c r="T318">
+        <v>396.3666666666666</v>
+      </c>
+      <c r="U318">
         <v>-0.09375000000005684</v>
       </c>
-      <c r="U318">
+      <c r="V318">
         <v>-9.24486279781922E-05</v>
       </c>
-      <c r="V318">
+      <c r="W318">
         <v>0.0001850169879233921</v>
       </c>
-      <c r="W318">
+      <c r="X318">
         <v>0.0005044136191676429</v>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:24">
       <c r="A319" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B319">
         <v>396.7</v>
@@ -24064,21 +25021,24 @@
         <v>396.4266666666666</v>
       </c>
       <c r="T319">
+        <v>396.6333333333334</v>
+      </c>
+      <c r="U319">
         <v>-0.1374999999999886</v>
       </c>
-      <c r="U319">
+      <c r="V319">
         <v>-0.0001008623732918768</v>
       </c>
-      <c r="V319">
+      <c r="W319">
         <v>-1.68166148155624E-05</v>
       </c>
-      <c r="W319">
+      <c r="X319">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" spans="1:24">
       <c r="A320" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B320">
         <v>396.7</v>
@@ -24135,21 +25095,24 @@
         <v>396.4533333333333</v>
       </c>
       <c r="T320">
+        <v>396.7</v>
+      </c>
+      <c r="U320">
         <v>-0.09374999999994316</v>
       </c>
-      <c r="U320">
+      <c r="V320">
         <v>-6.724836502391973E-05</v>
       </c>
-      <c r="V320">
+      <c r="W320">
         <v>6.72675904749287E-05</v>
       </c>
-      <c r="W320">
+      <c r="X320">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:24">
       <c r="A321" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B321">
         <v>396.5</v>
@@ -24206,21 +25169,24 @@
         <v>396.48</v>
       </c>
       <c r="T321">
+        <v>396.6333333333333</v>
+      </c>
+      <c r="U321">
         <v>-0.06874999999996589</v>
       </c>
-      <c r="U321">
+      <c r="V321">
         <v>-6.725288767095439E-05</v>
       </c>
-      <c r="V321">
+      <c r="W321">
         <v>6.726306585069786E-05</v>
       </c>
-      <c r="W321">
+      <c r="X321">
         <v>-0.0005041593143433332</v>
       </c>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" spans="1:24">
       <c r="A322" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B322">
         <v>396.5</v>
@@ -24277,21 +25243,24 @@
         <v>396.4399999999999</v>
       </c>
       <c r="T322">
+        <v>396.5666666666667</v>
+      </c>
+      <c r="U322">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U322">
+      <c r="V322">
         <v>-4.203588182871698E-05</v>
       </c>
-      <c r="V322">
+      <c r="W322">
         <v>-0.0001008878127523039</v>
       </c>
-      <c r="W322">
+      <c r="X322">
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:23">
+    <row r="323" spans="1:24">
       <c r="A323" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B323">
         <v>396.3</v>
@@ -24348,21 +25317,24 @@
         <v>396.3933333333333</v>
       </c>
       <c r="T323">
+        <v>396.4333333333333</v>
+      </c>
+      <c r="U323">
         <v>0.04375000000004547</v>
       </c>
-      <c r="U323">
+      <c r="V323">
         <v>-3.363011913470881E-05</v>
       </c>
-      <c r="V323">
+      <c r="W323">
         <v>-0.0001177143241515299</v>
       </c>
-      <c r="W323">
+      <c r="X323">
         <v>-0.0005044136191676429</v>
       </c>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" spans="1:24">
       <c r="A324" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B324">
         <v>395.9</v>
@@ -24419,21 +25391,24 @@
         <v>396.3666666666667</v>
       </c>
       <c r="T324">
+        <v>396.2333333333333</v>
+      </c>
+      <c r="U324">
         <v>0.1124999999999545</v>
       </c>
-      <c r="U324">
+      <c r="V324">
         <v>-5.885468777599989E-05</v>
       </c>
-      <c r="V324">
+      <c r="W324">
         <v>-6.727324711142124E-05</v>
       </c>
-      <c r="W324">
+      <c r="X324">
         <v>-0.001009336361342483</v>
       </c>
     </row>
-    <row r="325" spans="1:23">
+    <row r="325" spans="1:24">
       <c r="A325" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B325">
         <v>396.5</v>
@@ -24490,21 +25465,24 @@
         <v>396.36</v>
       </c>
       <c r="T325">
+        <v>396.2333333333333</v>
+      </c>
+      <c r="U325">
         <v>0.09999999999996589</v>
       </c>
-      <c r="U325">
+      <c r="V325">
         <v>-8.408307407670179E-06</v>
       </c>
-      <c r="V325">
+      <c r="W325">
         <v>-1.681944327636131E-05</v>
       </c>
-      <c r="W325">
+      <c r="X325">
         <v>0.00151553422581463</v>
       </c>
     </row>
-    <row r="326" spans="1:23">
+    <row r="326" spans="1:24">
       <c r="A326" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B326">
         <v>396.6</v>
@@ -24561,21 +25539,24 @@
         <v>396.3666666666667</v>
       </c>
       <c r="T326">
+        <v>396.3333333333333</v>
+      </c>
+      <c r="U326">
         <v>0.08749999999997726</v>
       </c>
-      <c r="U326">
+      <c r="V326">
         <v>-3.363351243179658E-05</v>
       </c>
-      <c r="V326">
+      <c r="W326">
         <v>1.681972617473271E-05</v>
       </c>
-      <c r="W326">
+      <c r="X326">
         <v>0.0002522068095838215</v>
       </c>
     </row>
-    <row r="327" spans="1:23">
+    <row r="327" spans="1:24">
       <c r="A327" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B327">
         <v>396.3</v>
@@ -24632,21 +25613,24 @@
         <v>396.36</v>
       </c>
       <c r="T327">
+        <v>396.4666666666667</v>
+      </c>
+      <c r="U327">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U327">
+      <c r="V327">
         <v>-8.408660920777855E-06</v>
       </c>
-      <c r="V327">
+      <c r="W327">
         <v>-1.681944327658336E-05</v>
       </c>
-      <c r="W327">
+      <c r="X327">
         <v>-0.0007564296520423675</v>
       </c>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" spans="1:24">
       <c r="A328" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B328">
         <v>395.5</v>
@@ -24703,15 +25687,18 @@
         <v>396.3133333333333</v>
       </c>
       <c r="T328">
+        <v>396.1333333333334</v>
+      </c>
+      <c r="U328">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U328">
+      <c r="V328">
         <v>-4.204365813453848E-05</v>
       </c>
-      <c r="V328">
+      <c r="W328">
         <v>-0.0001177380832239061</v>
       </c>
-      <c r="W328">
+      <c r="X328">
         <v>-0.002018672722684856</v>
       </c>
     </row>
